--- a/QuantLibXL/Data2/XLS/SEK/SEK_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_Market.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="166">
   <si>
     <t>Currency</t>
   </si>
@@ -587,9 +587,6 @@
     <t>No Bid/Ask</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -606,6 +603,9 @@
   </si>
   <si>
     <t>NDA_RAW.Nda_last</t>
+  </si>
+  <si>
+    <t>NDA_RAW</t>
   </si>
 </sst>
 </file>
@@ -1748,67 +1748,73 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 11:14:59</v>
         <stp/>
-        <stp>{1165F8A1-6FC6-49A1-8A19-F8E720B3632C}_x0000_</stp>
+        <stp>{B2B3DF6B-2597-40C0-A976-8C4076A38D54}_x0000_</stp>
         <tr r="N17" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:51:34</v>
-        <stp/>
-        <stp>{657830CA-7082-45EE-9F58-652D0041AD78}_x0000_</stp>
-        <tr r="N14" s="64"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 11:14:58</v>
         <stp/>
-        <stp>{52F0B43B-B865-47EF-A498-546B98901EDB}</stp>
+        <stp>{273DA303-5DD2-4636-9EF1-1EF91B7ED35E}</stp>
         <tr r="N3" s="64"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 12:42:49</v>
         <stp/>
-        <stp>{7181429F-5CFA-422A-A517-548483A63C22}</stp>
-        <tr r="O4" s="69"/>
+        <stp>{1CE2D162-BFE9-42F3-914B-B23045E08820}</stp>
+        <tr r="O4" s="67"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 12:33:34</v>
         <stp/>
-        <stp>{76AAD644-D8E7-4E9C-800F-DA10F71E8437}</stp>
-        <tr r="O4" s="66"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:51:34</v>
-        <stp/>
-        <stp>{C77D2623-46F0-4AE6-8A26-79313AB99D2D}</stp>
-        <tr r="N4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:51:34</v>
-        <stp/>
-        <stp>{022C07EC-3615-40C4-9918-9D36AB687391}</stp>
-        <tr r="N4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:51:34</v>
-        <stp/>
-        <stp>{BD3B4489-8BF5-4E1F-8A74-B12A19798C5C}</stp>
+        <stp>{06ACA8FF-28A4-4B1B-8839-C2B8711ACCD8}</stp>
         <tr r="N4" s="70"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 12:13:49</v>
         <stp/>
-        <stp>{82606354-2951-4319-AD76-16AECEB465D2}</stp>
-        <tr r="O4" s="67"/>
+        <stp>{D05FC835-0A67-45E6-9274-1559EBD34F39}</stp>
+        <tr r="O4" s="69"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Updated at 12:43:22</v>
+        <stp/>
+        <stp>{12D54F27-B1C6-4587-A5C5-76180D8F72B3}</stp>
+        <tr r="N4" s="16"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Updated at 12:35:18</v>
+        <stp/>
+        <stp>{43D81DC0-65D7-4BFC-9481-06BEFC521279}</stp>
+        <tr r="N4" s="22"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Updated at 12:54:33</v>
+        <stp/>
+        <stp>{2AA913B3-9909-4E12-8CCF-06412E008A94}</stp>
+        <tr r="O4" s="66"/>
       </tp>
     </main>
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 11:14:59</v>
         <stp/>
-        <stp>{B32F24B9-A5B4-447D-91F7-022A96704D42}_x0000_</stp>
+        <stp>{BD6A4C05-3569-4263-A262-B9555D9650AA}_x0000_</stp>
+        <tr r="N14" s="64"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:14:59</v>
+        <stp/>
+        <stp>{065335AE-18BC-4422-A18D-C5F8B62EDA5E}_x0000_</stp>
         <tr r="N20" s="64"/>
       </tp>
     </main>
@@ -2125,7 +2131,7 @@
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Sep 24 2015 16:08:28</v>
+        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Nov 13 2015 12:25:56</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -2158,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="110">
-        <v>42283.66070601852</v>
+        <v>42335.468298611115</v>
       </c>
       <c r="E4" s="102"/>
       <c r="G4" s="101"/>
@@ -2177,7 +2183,7 @@
       </c>
       <c r="D5" s="108">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42283</v>
+        <v>42335</v>
       </c>
       <c r="E5" s="102"/>
       <c r="G5" s="101"/>
@@ -2206,7 +2212,7 @@
       </c>
       <c r="D7" s="50">
         <f>_xll.ohTrigger(Deposits!P2,FRA3M!W2,'OIS Short'!W2,Swaps3M!X2,BasisSwap3M6M!X2,BasisSwap1M3M!X2,OIS!W2)</f>
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E7" s="102"/>
     </row>
@@ -2217,7 +2223,7 @@
       </c>
       <c r="D8" s="109">
         <f>_xll.ohTrigger(Stibor!R5:R10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="102"/>
     </row>
@@ -2524,7 +2530,7 @@
         <v>144</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="E38" s="121"/>
     </row>
@@ -2534,7 +2540,7 @@
         <v>152</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E39" s="121"/>
     </row>
@@ -2632,7 +2638,7 @@
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2721,7 +2727,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="223">
         <f>_xll.ohTrigger(X5:X29)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y2" s="164"/>
     </row>
@@ -2773,7 +2779,7 @@
       <c r="N4" s="215"/>
       <c r="O4" s="61" t="str">
         <f>_xll.RData(O5:O29,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 12:13:49</v>
       </c>
       <c r="P4" s="59" t="s">
         <v>71</v>
@@ -2817,7 +2823,7 @@
       </c>
       <c r="F5" s="191" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S6M_Quote#0001</v>
+        <v>SEK1S3S6M_Quote#0000</v>
       </c>
       <c r="G5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2890,7 +2896,7 @@
       </c>
       <c r="F6" s="191" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S1Y_Quote#0001</v>
+        <v>SEK1S3S1Y_Quote#0000</v>
       </c>
       <c r="G6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2961,7 +2967,7 @@
       </c>
       <c r="F7" s="191" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S18M_Quote#0001</v>
+        <v>SEK1S3S18M_Quote#0000</v>
       </c>
       <c r="G7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3032,7 +3038,7 @@
       </c>
       <c r="F8" s="191" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S2Y_Quote#0001</v>
+        <v>SEK1S3S2Y_Quote#0000</v>
       </c>
       <c r="G8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3103,7 +3109,7 @@
       </c>
       <c r="F9" s="191" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S30M_Quote#0001</v>
+        <v>SEK1S3S30M_Quote#0000</v>
       </c>
       <c r="G9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3174,7 +3180,7 @@
       </c>
       <c r="F10" s="191" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S3Y_Quote#0001</v>
+        <v>SEK1S3S3Y_Quote#0000</v>
       </c>
       <c r="G10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3201,14 +3207,14 @@
         <v>SEK1S3S3Y=ICAP</v>
       </c>
       <c r="P10" s="253">
-        <v>9.8000000000000007</v>
+        <v>9.81</v>
       </c>
       <c r="Q10" s="253">
         <v>0</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>9.81</v>
       </c>
       <c r="S10" s="19">
         <f t="shared" si="3"/>
@@ -3220,7 +3226,7 @@
       </c>
       <c r="V10" s="87"/>
       <c r="W10" s="19">
-        <v>9.8000000000000007</v>
+        <v>9.81</v>
       </c>
       <c r="X10" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
@@ -3245,7 +3251,7 @@
       </c>
       <c r="F11" s="191" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S42M_Quote#0001</v>
+        <v>SEK1S3S42M_Quote#0000</v>
       </c>
       <c r="G11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3316,7 +3322,7 @@
       </c>
       <c r="F12" s="191" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S4Y_Quote#0001</v>
+        <v>SEK1S3S4Y_Quote#0000</v>
       </c>
       <c r="G12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3343,14 +3349,14 @@
         <v>SEK1S3S4Y=ICAP</v>
       </c>
       <c r="P12" s="253">
-        <v>10.06</v>
+        <v>10.07</v>
       </c>
       <c r="Q12" s="253">
         <v>0</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="2"/>
-        <v>10.06</v>
+        <v>10.07</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="3"/>
@@ -3362,7 +3368,7 @@
       </c>
       <c r="V12" s="87"/>
       <c r="W12" s="19">
-        <v>10.06</v>
+        <v>10.07</v>
       </c>
       <c r="X12" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
@@ -3387,7 +3393,7 @@
       </c>
       <c r="F13" s="191" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S54M_Quote#0001</v>
+        <v>SEK1S3S54M_Quote#0000</v>
       </c>
       <c r="G13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3458,7 +3464,7 @@
       </c>
       <c r="F14" s="191" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S5Y_Quote#0001</v>
+        <v>SEK1S3S5Y_Quote#0000</v>
       </c>
       <c r="G14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -3529,7 +3535,7 @@
       </c>
       <c r="F15" s="191" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S6Y_Quote#0001</v>
+        <v>SEK1S3S6Y_Quote#0000</v>
       </c>
       <c r="G15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3600,7 +3606,7 @@
       </c>
       <c r="F16" s="191" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S7Y_Quote#0001</v>
+        <v>SEK1S3S7Y_Quote#0000</v>
       </c>
       <c r="G16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3671,7 +3677,7 @@
       </c>
       <c r="F17" s="191" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S8Y_Quote#0001</v>
+        <v>SEK1S3S8Y_Quote#0000</v>
       </c>
       <c r="G17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3698,14 +3704,14 @@
         <v>SEK1S3S8Y=ICAP</v>
       </c>
       <c r="P17" s="253">
-        <v>10.08</v>
+        <v>10.07</v>
       </c>
       <c r="Q17" s="253">
         <v>0</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="2"/>
-        <v>10.08</v>
+        <v>10.07</v>
       </c>
       <c r="S17" s="19">
         <f t="shared" si="3"/>
@@ -3717,7 +3723,7 @@
       </c>
       <c r="V17" s="87"/>
       <c r="W17" s="19">
-        <v>10.08</v>
+        <v>10.07</v>
       </c>
       <c r="X17" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/10000,Trigger)</f>
@@ -3742,7 +3748,7 @@
       </c>
       <c r="F18" s="191" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S9Y_Quote#0001</v>
+        <v>SEK1S3S9Y_Quote#0000</v>
       </c>
       <c r="G18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -3769,14 +3775,14 @@
         <v>SEK1S3S9Y=ICAP</v>
       </c>
       <c r="P18" s="253">
-        <v>10.06</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="Q18" s="253">
         <v>0</v>
       </c>
       <c r="R18" s="19">
         <f t="shared" si="2"/>
-        <v>10.06</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="S18" s="19">
         <f t="shared" si="3"/>
@@ -3788,11 +3794,11 @@
       </c>
       <c r="V18" s="87"/>
       <c r="W18" s="19">
-        <v>10.06</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="X18" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000001327E-6</v>
       </c>
       <c r="Y18" s="166"/>
     </row>
@@ -3813,7 +3819,7 @@
       </c>
       <c r="F19" s="191" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S10Y_Quote#0001</v>
+        <v>SEK1S3S10Y_Quote#0000</v>
       </c>
       <c r="G19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3840,14 +3846,14 @@
         <v>SEK1S3S10Y=ICAP</v>
       </c>
       <c r="P19" s="253">
-        <v>10.039999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="Q19" s="253">
         <v>0</v>
       </c>
       <c r="R19" s="19">
         <f t="shared" si="2"/>
-        <v>10.039999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="S19" s="19">
         <f t="shared" si="3"/>
@@ -3859,7 +3865,7 @@
       </c>
       <c r="V19" s="87"/>
       <c r="W19" s="19">
-        <v>10.039999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="X19" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F19,W19/10000,Trigger)</f>
@@ -3884,7 +3890,7 @@
       </c>
       <c r="F20" s="191" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S12Y_Quote#0001</v>
+        <v>SEK1S3S12Y_Quote#0000</v>
       </c>
       <c r="G20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3911,14 +3917,14 @@
         <v>SEK1S3S12Y=ICAP</v>
       </c>
       <c r="P20" s="253">
-        <v>10</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="Q20" s="253">
         <v>0</v>
       </c>
       <c r="R20" s="19">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="S20" s="19">
         <f t="shared" si="3"/>
@@ -3930,11 +3936,11 @@
       </c>
       <c r="V20" s="87"/>
       <c r="W20" s="19">
-        <v>10</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="X20" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999991589E-7</v>
       </c>
       <c r="Y20" s="166"/>
     </row>
@@ -3955,7 +3961,7 @@
       </c>
       <c r="F21" s="191" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S15Y_Quote#0001</v>
+        <v>SEK1S3S15Y_Quote#0000</v>
       </c>
       <c r="G21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3982,14 +3988,14 @@
         <v>SEK1S3S15Y=ICAP</v>
       </c>
       <c r="P21" s="253">
-        <v>9.76</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="Q21" s="253">
         <v>0</v>
       </c>
       <c r="R21" s="19">
         <f t="shared" si="2"/>
-        <v>9.76</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="S21" s="19">
         <f t="shared" si="3"/>
@@ -4001,7 +4007,7 @@
       </c>
       <c r="V21" s="87"/>
       <c r="W21" s="19">
-        <v>9.76</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="X21" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F21,W21/10000,Trigger)</f>
@@ -4026,7 +4032,7 @@
       </c>
       <c r="F22" s="191" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S20Y_Quote#0001</v>
+        <v>SEK1S3S20Y_Quote#0000</v>
       </c>
       <c r="G22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -4053,14 +4059,14 @@
         <v>SEK1S3S20Y=ICAP</v>
       </c>
       <c r="P22" s="253">
-        <v>9.26</v>
+        <v>9.18</v>
       </c>
       <c r="Q22" s="253">
         <v>0</v>
       </c>
       <c r="R22" s="19">
         <f t="shared" si="2"/>
-        <v>9.26</v>
+        <v>9.18</v>
       </c>
       <c r="S22" s="19">
         <f t="shared" si="3"/>
@@ -4072,7 +4078,7 @@
       </c>
       <c r="V22" s="87"/>
       <c r="W22" s="19">
-        <v>9.26</v>
+        <v>9.18</v>
       </c>
       <c r="X22" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/10000,Trigger)</f>
@@ -4097,7 +4103,7 @@
       </c>
       <c r="F23" s="191" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S25Y_Quote#0001</v>
+        <v>SEK1S3S25Y_Quote#0000</v>
       </c>
       <c r="G23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -4124,14 +4130,14 @@
         <v>SEK1S3S25Y=ICAP</v>
       </c>
       <c r="P23" s="253">
-        <v>8.86</v>
+        <v>8.76</v>
       </c>
       <c r="Q23" s="253">
         <v>0</v>
       </c>
       <c r="R23" s="19">
         <f t="shared" si="2"/>
-        <v>8.86</v>
+        <v>8.76</v>
       </c>
       <c r="S23" s="19">
         <f t="shared" si="3"/>
@@ -4143,7 +4149,7 @@
       </c>
       <c r="V23" s="87"/>
       <c r="W23" s="19">
-        <v>8.86</v>
+        <v>8.76</v>
       </c>
       <c r="X23" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
@@ -4168,7 +4174,7 @@
       </c>
       <c r="F24" s="191" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S27Y_Quote#0001</v>
+        <v>SEK1S3S27Y_Quote#0000</v>
       </c>
       <c r="G24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -4239,7 +4245,7 @@
       </c>
       <c r="F25" s="191" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S30Y_Quote#0001</v>
+        <v>SEK1S3S30Y_Quote#0000</v>
       </c>
       <c r="G25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -4266,14 +4272,14 @@
         <v>SEK1S3S30Y=ICAP</v>
       </c>
       <c r="P25" s="253">
-        <v>8.6</v>
+        <v>8.52</v>
       </c>
       <c r="Q25" s="253">
         <v>0</v>
       </c>
       <c r="R25" s="19">
         <f t="shared" si="2"/>
-        <v>8.6</v>
+        <v>8.52</v>
       </c>
       <c r="S25" s="19">
         <f t="shared" si="3"/>
@@ -4285,7 +4291,7 @@
       </c>
       <c r="V25" s="87"/>
       <c r="W25" s="19">
-        <v>8.6</v>
+        <v>8.52</v>
       </c>
       <c r="X25" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F25,W25/10000,Trigger)</f>
@@ -4310,7 +4316,7 @@
       </c>
       <c r="F26" s="191" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S35Y_Quote#0001</v>
+        <v>SEK1S3S35Y_Quote#0000</v>
       </c>
       <c r="G26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -4381,7 +4387,7 @@
       </c>
       <c r="F27" s="191" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S40Y_Quote#0001</v>
+        <v>SEK1S3S40Y_Quote#0000</v>
       </c>
       <c r="G27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -4452,7 +4458,7 @@
       </c>
       <c r="F28" s="191" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S45Y_Quote#0001</v>
+        <v>SEK1S3S45Y_Quote#0000</v>
       </c>
       <c r="G28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -4523,7 +4529,7 @@
       </c>
       <c r="F29" s="193" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S50Y_Quote#0001</v>
+        <v>SEK1S3S50Y_Quote#0000</v>
       </c>
       <c r="G29" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -4738,7 +4744,7 @@
   <dimension ref="B1:X29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4836,7 +4842,7 @@
       <c r="M3" s="143"/>
       <c r="N3" s="68" t="str">
         <f>_xll.RData(N4:N10,O3:P3,"RTFEED:IDN",,,O4)</f>
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 11:14:58</v>
       </c>
       <c r="O3" s="62" t="s">
         <v>96</v>
@@ -4918,15 +4924,15 @@
       </c>
       <c r="J5" s="52" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKON#0001</v>
+        <v>SEKON#0000</v>
       </c>
       <c r="K5" s="52" t="str">
         <f>_xll.qlOvernightIndex(I5,,D5,Currency,Calendar,H5,J5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborON#0001</v>
+        <v>SekiborON#0000</v>
       </c>
       <c r="L5" s="52" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C5&amp;"LastFixing_Quote",K5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborONLastFixing_Quote#0001</v>
+        <v>SekiborONLastFixing_Quote#0000</v>
       </c>
       <c r="M5" s="143" t="s">
         <v>111</v>
@@ -4936,10 +4942,10 @@
         <v>STISEKTNDFI=</v>
       </c>
       <c r="O5" s="259">
-        <v>42283</v>
+        <v>42335</v>
       </c>
       <c r="P5" s="260">
-        <v>-0.36799999999999999</v>
+        <v>-0.315</v>
       </c>
       <c r="Q5" s="144" t="b">
         <f>IF(AND(ISNUMBER($P5),$P5&lt;&gt;0%),TRUE,FALSE)</f>
@@ -4949,9 +4955,9 @@
         <f>IF(P5,_xll.qlIndexAddFixings(K5,O5,P5/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="S5" s="146">
+      <c r="S5" s="146" t="e">
         <f>_xll.qlQuoteValue(L5)</f>
-        <v>-3.6800000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="T5" s="139"/>
     </row>
@@ -4983,11 +4989,11 @@
       <c r="J6" s="52"/>
       <c r="K6" s="52" t="str">
         <f>_xll.qlIborIndex(I6,FamilyName,C6,D6,Currency,E6,F6,G6,H6,J6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor1W#0001</v>
+        <v>Sekibor1W#0000</v>
       </c>
       <c r="L6" s="52" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C6&amp;"LastFixing_Quote",K6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor1WLastFixing_Quote#0001</v>
+        <v>Sekibor1WLastFixing_Quote#0000</v>
       </c>
       <c r="M6" s="143" t="s">
         <v>111</v>
@@ -4997,10 +5003,10 @@
         <v>STISEK1WDFI=</v>
       </c>
       <c r="O6" s="257">
-        <v>42283</v>
+        <v>42335</v>
       </c>
       <c r="P6" s="258">
-        <v>-0.35499999999999998</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="Q6" s="63" t="b">
         <f>IF(AND(ISNUMBER($P6),$P6&lt;&gt;0%),TRUE,FALSE)</f>
@@ -5012,7 +5018,7 @@
       </c>
       <c r="S6" s="66">
         <f>_xll.qlQuoteValue(L6)</f>
-        <v>-3.5499999999999998E-3</v>
+        <v>-3.3300000000000001E-3</v>
       </c>
       <c r="T6" s="139"/>
     </row>
@@ -5043,15 +5049,15 @@
       </c>
       <c r="J7" s="52" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK1M#0001</v>
+        <v>SEK1M#0000</v>
       </c>
       <c r="K7" s="52" t="str">
         <f>_xll.qlIborIndex(I7,FamilyName,C7,D7,Currency,E7,F7,G7,H7,J7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor1M#0001</v>
+        <v>Sekibor1M#0000</v>
       </c>
       <c r="L7" s="52" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C7&amp;"LastFixing_Quote",K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor1MLastFixing_Quote#0001</v>
+        <v>Sekibor1MLastFixing_Quote#0000</v>
       </c>
       <c r="M7" s="143" t="s">
         <v>111</v>
@@ -5061,10 +5067,10 @@
         <v>STISEK1MDFI=</v>
       </c>
       <c r="O7" s="257">
-        <v>42283</v>
+        <v>42335</v>
       </c>
       <c r="P7" s="258">
-        <v>-0.37</v>
+        <v>-0.43899999999999995</v>
       </c>
       <c r="Q7" s="63" t="b">
         <f t="shared" ref="Q7:Q10" si="3">IF(AND(ISNUMBER($P7),$P7&lt;&gt;0%),TRUE,FALSE)</f>
@@ -5076,7 +5082,7 @@
       </c>
       <c r="S7" s="66">
         <f>_xll.qlQuoteValue(L7)</f>
-        <v>-3.7000000000000002E-3</v>
+        <v>-4.3899999999999998E-3</v>
       </c>
       <c r="T7" s="139"/>
     </row>
@@ -5108,11 +5114,11 @@
       <c r="J8" s="52"/>
       <c r="K8" s="52" t="str">
         <f>_xll.qlIborIndex(I8,FamilyName,C8,D8,Currency,E8,F8,G8,H8,J8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor2M#0001</v>
+        <v>Sekibor2M#0000</v>
       </c>
       <c r="L8" s="52" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C8&amp;"LastFixing_Quote",K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor2MLastFixing_Quote#0001</v>
+        <v>Sekibor2MLastFixing_Quote#0000</v>
       </c>
       <c r="M8" s="143" t="s">
         <v>111</v>
@@ -5122,10 +5128,10 @@
         <v>STISEK2MDFI=</v>
       </c>
       <c r="O8" s="257">
-        <v>42283</v>
+        <v>42335</v>
       </c>
       <c r="P8" s="258">
-        <v>-0.35799999999999998</v>
+        <v>-0.47099999999999997</v>
       </c>
       <c r="Q8" s="63" t="b">
         <f t="shared" si="3"/>
@@ -5137,7 +5143,7 @@
       </c>
       <c r="S8" s="66">
         <f>_xll.qlQuoteValue(L8)</f>
-        <v>-3.5799999999999998E-3</v>
+        <v>-4.7099999999999998E-3</v>
       </c>
       <c r="T8" s="139"/>
     </row>
@@ -5168,15 +5174,15 @@
       </c>
       <c r="J9" s="52" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3M#0001</v>
+        <v>SEK3M#0000</v>
       </c>
       <c r="K9" s="52" t="str">
         <f>_xll.qlIborIndex(I9,FamilyName,C9,D9,Currency,E9,F9,G9,H9,J9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor3M#0001</v>
+        <v>Sekibor3M#0000</v>
       </c>
       <c r="L9" s="52" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C9&amp;"LastFixing_Quote",K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor3MLastFixing_Quote#0001</v>
+        <v>Sekibor3MLastFixing_Quote#0000</v>
       </c>
       <c r="M9" s="143" t="s">
         <v>111</v>
@@ -5186,10 +5192,10 @@
         <v>STISEK3MDFI=</v>
       </c>
       <c r="O9" s="257">
-        <v>42283</v>
+        <v>42335</v>
       </c>
       <c r="P9" s="258">
-        <v>-0.29599999999999999</v>
+        <v>-0.40899999999999997</v>
       </c>
       <c r="Q9" s="63" t="b">
         <f t="shared" si="3"/>
@@ -5201,7 +5207,7 @@
       </c>
       <c r="S9" s="66">
         <f>_xll.qlQuoteValue(L9)</f>
-        <v>-2.96E-3</v>
+        <v>-4.0899999999999999E-3</v>
       </c>
       <c r="T9" s="139"/>
     </row>
@@ -5232,15 +5238,15 @@
       </c>
       <c r="J10" s="54" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK6M#0001</v>
+        <v>SEK6M#0000</v>
       </c>
       <c r="K10" s="54" t="str">
         <f>_xll.qlIborIndex(I10,FamilyName,C10,D10,Currency,E10,F10,G10,H10,J10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor6M#0001</v>
+        <v>Sekibor6M#0000</v>
       </c>
       <c r="L10" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C10&amp;"LastFixing_Quote",K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor6MLastFixing_Quote#0001</v>
+        <v>Sekibor6MLastFixing_Quote#0000</v>
       </c>
       <c r="M10" s="143" t="s">
         <v>111</v>
@@ -5250,10 +5256,10 @@
         <v>STISEK6MDFI=</v>
       </c>
       <c r="O10" s="261">
-        <v>42283</v>
+        <v>42335</v>
       </c>
       <c r="P10" s="262">
-        <v>-0.19700000000000001</v>
+        <v>-0.28100000000000003</v>
       </c>
       <c r="Q10" s="64" t="b">
         <f t="shared" si="3"/>
@@ -5263,9 +5269,9 @@
         <f>IF(P10,_xll.qlIndexAddFixings(K10,O10,P10/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="S10" s="67">
+      <c r="S10" s="67" t="e">
         <f>_xll.qlQuoteValue(L10)</f>
-        <v>-1.97E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="T10" s="139"/>
     </row>
@@ -5282,7 +5288,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="48" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKSTD#0001</v>
+        <v>SEKSTD#0000</v>
       </c>
       <c r="K11" s="47"/>
       <c r="L11" s="5"/>
@@ -5344,11 +5350,11 @@
       <c r="M14" s="264"/>
       <c r="N14" s="275" t="str">
         <f>_xll.RHistory(O15,$L$17&amp;";"&amp;$L$18,$L$15,,"SORT:"&amp;$L$16&amp;" CH:Fd",P14)</f>
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 11:14:59</v>
       </c>
       <c r="O14" s="275"/>
       <c r="P14" s="270" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="271" t="s">
         <v>81</v>
@@ -5359,11 +5365,11 @@
     </row>
     <row r="15" spans="2:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="265" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L15" s="267" t="str">
         <f>"START:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp; " END:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp;" INTERVAL:1D"</f>
-        <v>START:42283 END:42283 INTERVAL:1D</v>
+        <v>START:42335 END:42335 INTERVAL:1D</v>
       </c>
       <c r="M15" s="264"/>
       <c r="N15" s="276" t="s">
@@ -5373,23 +5379,23 @@
         <f>"STI"&amp;Currency&amp;N15&amp;"DFI="</f>
         <v>STISEK1MDFI=</v>
       </c>
-      <c r="P15" s="273">
-        <v>42283</v>
+      <c r="P15" s="273" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q15" s="272">
         <v>-0.37</v>
       </c>
-      <c r="R15" s="269" t="b">
+      <c r="R15" s="269" t="e">
         <f>_xll.qlIndexAddFixings(Currency&amp;FamilyName&amp;N15,P15,Q15/100,TRUE,_xll.ohTrigger(Trigger,$K$5:$K$10))</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="265" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" s="266" t="s">
         <v>161</v>
-      </c>
-      <c r="L16" s="266" t="s">
-        <v>162</v>
       </c>
       <c r="M16" s="264"/>
       <c r="N16" s="264"/>
@@ -5404,19 +5410,19 @@
     </row>
     <row r="17" spans="11:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="265" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="266" t="s">
         <v>163</v>
-      </c>
-      <c r="L17" s="266" t="s">
-        <v>164</v>
       </c>
       <c r="M17" s="264"/>
       <c r="N17" s="275" t="str">
         <f>_xll.RHistory(O18,$L$17&amp;";"&amp;$L$18,$L$15,,"SORT:"&amp;$L$16&amp;" CH:Fd",P17)</f>
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 11:14:59</v>
       </c>
       <c r="O17" s="275"/>
       <c r="P17" s="270" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="271" t="s">
         <v>81</v>
@@ -5428,7 +5434,7 @@
     <row r="18" spans="11:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="264"/>
       <c r="L18" s="266" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M18" s="264"/>
       <c r="N18" s="276" t="s">
@@ -5438,15 +5444,15 @@
         <f>"STI"&amp;Currency&amp;N18&amp;"DFI="</f>
         <v>STISEK3MDFI=</v>
       </c>
-      <c r="P18" s="273">
-        <v>42283</v>
+      <c r="P18" s="273" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q18" s="272">
         <v>-0.29599999999999999</v>
       </c>
-      <c r="R18" s="269" t="b">
+      <c r="R18" s="269" t="e">
         <f>_xll.qlIndexAddFixings(Currency&amp;FamilyName&amp;N18,P18,Q18/100,TRUE,_xll.ohTrigger(Trigger,$K$5:$K$10))</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="19" spans="11:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5463,11 +5469,11 @@
       <c r="M20" s="264"/>
       <c r="N20" s="275" t="str">
         <f>_xll.RHistory(O21,$L$17&amp;";"&amp;$L$18,$L$15,,"SORT:"&amp;$L$16&amp;" CH:Fd",P20)</f>
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 11:14:59</v>
       </c>
       <c r="O20" s="275"/>
       <c r="P20" s="270" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="271" t="s">
         <v>81</v>
@@ -5487,15 +5493,15 @@
         <f>"STI"&amp;Currency&amp;N21&amp;"DFI="</f>
         <v>STISEK6MDFI=</v>
       </c>
-      <c r="P21" s="273">
-        <v>42283</v>
+      <c r="P21" s="273" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q21" s="272">
         <v>-0.19700000000000001</v>
       </c>
-      <c r="R21" s="269" t="b">
+      <c r="R21" s="269" t="e">
         <f>_xll.qlIndexAddFixings(Currency&amp;FamilyName&amp;N21,P21,Q21/100,TRUE,_xll.ohTrigger(Trigger,$K$5:$K$10))</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="22" spans="11:18" x14ac:dyDescent="0.2">
@@ -5556,9 +5562,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5615,7 +5619,7 @@
       </c>
       <c r="E3" s="231" t="str">
         <f>_xll.qlSwapIndex($D3,FixingType,B3,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc6M#0001</v>
+        <v>SekiborSwapForBasisCalc6M#0000</v>
       </c>
       <c r="F3" s="238" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -5637,7 +5641,7 @@
       </c>
       <c r="E4" s="234" t="str">
         <f>_xll.qlSwapIndex($D4,FixingType,B4,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc1Y#0001</v>
+        <v>SekiborSwapForBasisCalc1Y#0000</v>
       </c>
       <c r="F4" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -5659,7 +5663,7 @@
       </c>
       <c r="E5" s="234" t="str">
         <f>_xll.qlSwapIndex($D5,FixingType,B5,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc18M#0001</v>
+        <v>SekiborSwapForBasisCalc18M#0000</v>
       </c>
       <c r="F5" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -5681,7 +5685,7 @@
       </c>
       <c r="E6" s="234" t="str">
         <f>_xll.qlSwapIndex($D6,FixingType,B6,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc2Y#0001</v>
+        <v>SekiborSwapForBasisCalc2Y#0000</v>
       </c>
       <c r="F6" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -5703,7 +5707,7 @@
       </c>
       <c r="E7" s="234" t="str">
         <f>_xll.qlSwapIndex($D7,FixingType,B7,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc30M#0001</v>
+        <v>SekiborSwapForBasisCalc30M#0000</v>
       </c>
       <c r="F7" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -5725,7 +5729,7 @@
       </c>
       <c r="E8" s="234" t="str">
         <f>_xll.qlSwapIndex($D8,FixingType,B8,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc3Y#0001</v>
+        <v>SekiborSwapForBasisCalc3Y#0000</v>
       </c>
       <c r="F8" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -5747,7 +5751,7 @@
       </c>
       <c r="E9" s="234" t="str">
         <f>_xll.qlSwapIndex($D9,FixingType,B9,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc42M#0001</v>
+        <v>SekiborSwapForBasisCalc42M#0000</v>
       </c>
       <c r="F9" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -5769,7 +5773,7 @@
       </c>
       <c r="E10" s="234" t="str">
         <f>_xll.qlSwapIndex($D10,FixingType,B10,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc4Y#0001</v>
+        <v>SekiborSwapForBasisCalc4Y#0000</v>
       </c>
       <c r="F10" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -5791,7 +5795,7 @@
       </c>
       <c r="E11" s="234" t="str">
         <f>_xll.qlSwapIndex($D11,FixingType,B11,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc54M#0001</v>
+        <v>SekiborSwapForBasisCalc54M#0000</v>
       </c>
       <c r="F11" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -5813,7 +5817,7 @@
       </c>
       <c r="E12" s="234" t="str">
         <f>_xll.qlSwapIndex($D12,FixingType,B12,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc5Y#0001</v>
+        <v>SekiborSwapForBasisCalc5Y#0000</v>
       </c>
       <c r="F12" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -5835,7 +5839,7 @@
       </c>
       <c r="E13" s="234" t="str">
         <f>_xll.qlSwapIndex($D13,FixingType,B13,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc6Y#0001</v>
+        <v>SekiborSwapForBasisCalc6Y#0000</v>
       </c>
       <c r="F13" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -5857,7 +5861,7 @@
       </c>
       <c r="E14" s="234" t="str">
         <f>_xll.qlSwapIndex($D14,FixingType,B14,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc7Y#0001</v>
+        <v>SekiborSwapForBasisCalc7Y#0000</v>
       </c>
       <c r="F14" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -5879,7 +5883,7 @@
       </c>
       <c r="E15" s="234" t="str">
         <f>_xll.qlSwapIndex($D15,FixingType,B15,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc8Y#0001</v>
+        <v>SekiborSwapForBasisCalc8Y#0000</v>
       </c>
       <c r="F15" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -5901,7 +5905,7 @@
       </c>
       <c r="E16" s="234" t="str">
         <f>_xll.qlSwapIndex($D16,FixingType,B16,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc9Y#0001</v>
+        <v>SekiborSwapForBasisCalc9Y#0000</v>
       </c>
       <c r="F16" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -5923,7 +5927,7 @@
       </c>
       <c r="E17" s="234" t="str">
         <f>_xll.qlSwapIndex($D17,FixingType,B17,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc10Y#0001</v>
+        <v>SekiborSwapForBasisCalc10Y#0000</v>
       </c>
       <c r="F17" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -5945,7 +5949,7 @@
       </c>
       <c r="E18" s="234" t="str">
         <f>_xll.qlSwapIndex($D18,FixingType,B18,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc12Y#0001</v>
+        <v>SekiborSwapForBasisCalc12Y#0000</v>
       </c>
       <c r="F18" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -5967,7 +5971,7 @@
       </c>
       <c r="E19" s="234" t="str">
         <f>_xll.qlSwapIndex($D19,FixingType,B19,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc15Y#0001</v>
+        <v>SekiborSwapForBasisCalc15Y#0000</v>
       </c>
       <c r="F19" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -5989,7 +5993,7 @@
       </c>
       <c r="E20" s="234" t="str">
         <f>_xll.qlSwapIndex($D20,FixingType,B20,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc20Y#0001</v>
+        <v>SekiborSwapForBasisCalc20Y#0000</v>
       </c>
       <c r="F20" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -6011,7 +6015,7 @@
       </c>
       <c r="E21" s="234" t="str">
         <f>_xll.qlSwapIndex($D21,FixingType,B21,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc25Y#0001</v>
+        <v>SekiborSwapForBasisCalc25Y#0000</v>
       </c>
       <c r="F21" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -6033,7 +6037,7 @@
       </c>
       <c r="E22" s="234" t="str">
         <f>_xll.qlSwapIndex($D22,FixingType,B22,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc27Y#0001</v>
+        <v>SekiborSwapForBasisCalc27Y#0000</v>
       </c>
       <c r="F22" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -6055,7 +6059,7 @@
       </c>
       <c r="E23" s="234" t="str">
         <f>_xll.qlSwapIndex($D23,FixingType,B23,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc30Y#0001</v>
+        <v>SekiborSwapForBasisCalc30Y#0000</v>
       </c>
       <c r="F23" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -6077,7 +6081,7 @@
       </c>
       <c r="E24" s="234" t="str">
         <f>_xll.qlSwapIndex($D24,FixingType,B24,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc35Y#0001</v>
+        <v>SekiborSwapForBasisCalc35Y#0000</v>
       </c>
       <c r="F24" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -6099,7 +6103,7 @@
       </c>
       <c r="E25" s="234" t="str">
         <f>_xll.qlSwapIndex($D25,FixingType,B25,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc40Y#0001</v>
+        <v>SekiborSwapForBasisCalc40Y#0000</v>
       </c>
       <c r="F25" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -6121,7 +6125,7 @@
       </c>
       <c r="E26" s="234" t="str">
         <f>_xll.qlSwapIndex($D26,FixingType,B26,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc45Y#0001</v>
+        <v>SekiborSwapForBasisCalc45Y#0000</v>
       </c>
       <c r="F26" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -6143,7 +6147,7 @@
       </c>
       <c r="E27" s="237" t="str">
         <f>_xll.qlSwapIndex($D27,FixingType,B27,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc50Y#0001</v>
+        <v>SekiborSwapForBasisCalc50Y#0000</v>
       </c>
       <c r="F27" s="240" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -6462,7 +6466,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6529,7 +6533,7 @@
       <c r="O2" s="205"/>
       <c r="P2" s="220">
         <f>_xll.ohTrigger(P5:P10)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="222"/>
     </row>
@@ -6601,7 +6605,7 @@
       </c>
       <c r="D5" s="196" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKTND_Quote#0001</v>
+        <v>SEKTND_Quote#0000</v>
       </c>
       <c r="E5" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -6618,7 +6622,7 @@
       </c>
       <c r="K5" s="19">
         <f>Stibor!P5</f>
-        <v>-0.36799999999999999</v>
+        <v>-0.315</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>111</v>
@@ -6629,7 +6633,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="19">
         <f t="array" ref="O5:O10">QuoteLive</f>
-        <v>-0.36799999999999999</v>
+        <v>-0.315</v>
       </c>
       <c r="P5" s="21">
         <f>_xll.qlSimpleQuoteSetValue(D5,O5/100,Trigger)</f>
@@ -6649,7 +6653,7 @@
       </c>
       <c r="D6" s="196" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKSWD_Quote#0001</v>
+        <v>SEKSWD_Quote#0000</v>
       </c>
       <c r="E6" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -6666,7 +6670,7 @@
       </c>
       <c r="K6" s="19">
         <f>Stibor!P6</f>
-        <v>-0.35499999999999998</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>111</v>
@@ -6676,7 +6680,7 @@
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="19">
-        <v>-0.35499999999999998</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="P6" s="21">
         <f>_xll.qlSimpleQuoteSetValue(D6,O6/100,Trigger)</f>
@@ -6696,7 +6700,7 @@
       </c>
       <c r="D7" s="196" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK1MD_Quote#0001</v>
+        <v>SEK1MD_Quote#0000</v>
       </c>
       <c r="E7" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -6713,7 +6717,7 @@
       </c>
       <c r="K7" s="19">
         <f>Stibor!P7</f>
-        <v>-0.37</v>
+        <v>-0.43899999999999995</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>111</v>
@@ -6723,7 +6727,7 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="19">
-        <v>-0.37</v>
+        <v>-0.43899999999999995</v>
       </c>
       <c r="P7" s="21">
         <f>_xll.qlSimpleQuoteSetValue(D7,O7/100,Trigger)</f>
@@ -6743,7 +6747,7 @@
       </c>
       <c r="D8" s="196" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK2MD_Quote#0001</v>
+        <v>SEK2MD_Quote#0000</v>
       </c>
       <c r="E8" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -6760,7 +6764,7 @@
       </c>
       <c r="K8" s="19">
         <f>Stibor!P8</f>
-        <v>-0.35799999999999998</v>
+        <v>-0.47099999999999997</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>139</v>
@@ -6770,7 +6774,7 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="19">
-        <v>-0.35799999999999998</v>
+        <v>-0.47099999999999997</v>
       </c>
       <c r="P8" s="21">
         <f>_xll.qlSimpleQuoteSetValue(D8,O8/100,Trigger)</f>
@@ -6790,7 +6794,7 @@
       </c>
       <c r="D9" s="196" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3MD_Quote#0001</v>
+        <v>SEK3MD_Quote#0000</v>
       </c>
       <c r="E9" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -6807,7 +6811,7 @@
       </c>
       <c r="K9" s="19">
         <f>Stibor!P9</f>
-        <v>-0.29599999999999999</v>
+        <v>-0.40899999999999997</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>111</v>
@@ -6817,7 +6821,7 @@
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="19">
-        <v>-0.29599999999999999</v>
+        <v>-0.40899999999999997</v>
       </c>
       <c r="P9" s="21">
         <f>_xll.qlSimpleQuoteSetValue(D9,O9/100,Trigger)</f>
@@ -6837,7 +6841,7 @@
       </c>
       <c r="D10" s="211" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK6MD_Quote#0001</v>
+        <v>SEK6MD_Quote#0000</v>
       </c>
       <c r="E10" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -6854,7 +6858,7 @@
       </c>
       <c r="K10" s="25">
         <f>Stibor!P10</f>
-        <v>-0.19700000000000001</v>
+        <v>-0.28100000000000003</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>111</v>
@@ -6864,7 +6868,7 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="19">
-        <v>-0.19700000000000001</v>
+        <v>-0.28100000000000003</v>
       </c>
       <c r="P10" s="21">
         <f>_xll.qlSimpleQuoteSetValue(D10,O10/100,Trigger)</f>
@@ -6917,10 +6921,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7001,7 +7005,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="8" t="str">
         <f>VLOOKUP(I1,AreaTable,2,FALSE)</f>
-        <v>ICAP SCANDINAVIA</v>
+        <v>Tullets</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="256" t="s">
@@ -7018,7 +7022,7 @@
       <c r="V2" s="9"/>
       <c r="W2" s="220">
         <f>_xll.ohTrigger(W5:W19)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X2" s="164"/>
       <c r="Z2" s="163"/>
@@ -7080,7 +7084,7 @@
       <c r="M4" s="60"/>
       <c r="N4" s="61" t="str">
         <f>_xll.RData(N5:N19,O4:P4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 12:43:22</v>
       </c>
       <c r="O4" s="59" t="s">
         <v>71</v>
@@ -7137,7 +7141,7 @@
       </c>
       <c r="E5" s="194" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F1_Quote#0001</v>
+        <v>SEK3F1_Quote#0000</v>
       </c>
       <c r="F5" s="185" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -7158,17 +7162,17 @@
       </c>
       <c r="N5" s="12" t="str">
         <f t="array" ref="N5:N19">Instruments&amp;"="&amp;VLOOKUP(ContributorFRA,ContributorTable,2,FALSE)</f>
-        <v>SEK3F1=HBCO</v>
+        <v>SEK3F1=TTKL</v>
       </c>
       <c r="O5" s="255">
-        <v>-0.3175</v>
+        <v>-0.42499999999999999</v>
       </c>
       <c r="P5" s="255">
-        <v>-0.29749999999999999</v>
+        <v>-0.40499999999999997</v>
       </c>
       <c r="Q5" s="13">
         <f>IF($Q$2,IF(ISNUMBER(O5),O5,#NUM!),IFERROR(AVERAGE(O5:P5),#NUM!))</f>
-        <v>-0.3075</v>
+        <v>-0.41499999999999998</v>
       </c>
       <c r="R5" s="13">
         <f>(Q5-O5)*2</f>
@@ -7181,7 +7185,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="14">
         <f t="array" ref="V5:V19">QuoteLive</f>
-        <v>-0.3075</v>
+        <v>-0.41499999999999998</v>
       </c>
       <c r="W5" s="15">
         <f>_xll.qlSimpleQuoteSetValue(E5,V5/100,Trigger)</f>
@@ -7195,11 +7199,11 @@
       </c>
       <c r="AB5" s="10" t="str">
         <f>_xll.qlSimpleQuote(AA5,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F1_Quote#0001</v>
+        <v>FUTSEK3F1_Quote#0000</v>
       </c>
       <c r="AC5" s="74">
         <f>100-V5</f>
-        <v>100.3075</v>
+        <v>100.41500000000001</v>
       </c>
       <c r="AD5" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB5,AC5,Trigger)</f>
@@ -7223,7 +7227,7 @@
       </c>
       <c r="E6" s="196" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F2_Quote#0001</v>
+        <v>SEK3F2_Quote#0000</v>
       </c>
       <c r="F6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -7243,17 +7247,17 @@
         <v>SEK3F2</v>
       </c>
       <c r="N6" s="18" t="str">
-        <v>SEK3F2=HBCO</v>
+        <v>SEK3F2=TTKL</v>
       </c>
       <c r="O6" s="253">
-        <v>-0.3175</v>
+        <v>-0.44000000000000006</v>
       </c>
       <c r="P6" s="253">
-        <v>-0.29749999999999999</v>
+        <v>-0.42000000000000004</v>
       </c>
       <c r="Q6" s="19">
         <f t="shared" ref="Q6:Q19" si="5">IF($Q$2,IF(ISNUMBER(O6),O6,#NUM!),IFERROR(AVERAGE(O6:P6),#NUM!))</f>
-        <v>-0.3075</v>
+        <v>-0.43000000000000005</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" ref="R6:R19" si="6">(Q6-O6)*2</f>
@@ -7265,7 +7269,7 @@
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="20">
-        <v>-0.3075</v>
+        <v>-0.43000000000000005</v>
       </c>
       <c r="W6" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E6,V6/100,Trigger)</f>
@@ -7279,11 +7283,11 @@
       </c>
       <c r="AB6" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA6,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F2_Quote#0001</v>
+        <v>FUTSEK3F2_Quote#0000</v>
       </c>
       <c r="AC6" s="75">
         <f t="shared" ref="AC6:AC19" si="7">100-V6</f>
-        <v>100.3075</v>
+        <v>100.43</v>
       </c>
       <c r="AD6" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB6,AC6,Trigger)</f>
@@ -7307,7 +7311,7 @@
       </c>
       <c r="E7" s="196" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F3_Quote#0001</v>
+        <v>SEK3F3_Quote#0000</v>
       </c>
       <c r="F7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -7327,21 +7331,21 @@
         <v>SEK3F3</v>
       </c>
       <c r="N7" s="18" t="str">
-        <v>SEK3F3=HBCO</v>
+        <v>SEK3F3=TTKL</v>
       </c>
       <c r="O7" s="253">
-        <v>-0.27999999999999997</v>
+        <v>-0.42499999999999999</v>
       </c>
       <c r="P7" s="253">
-        <v>-0.26</v>
+        <v>-0.40499999999999997</v>
       </c>
       <c r="Q7" s="19">
         <f t="shared" si="5"/>
-        <v>-0.27</v>
+        <v>-0.41499999999999998</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" si="6"/>
-        <v>1.9999999999999907E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="20">
@@ -7349,7 +7353,7 @@
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="20">
-        <v>-0.27</v>
+        <v>-0.41499999999999998</v>
       </c>
       <c r="W7" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E7,V7/100,Trigger)</f>
@@ -7363,11 +7367,11 @@
       </c>
       <c r="AB7" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA7,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F3_Quote#0001</v>
+        <v>FUTSEK3F3_Quote#0000</v>
       </c>
       <c r="AC7" s="75">
         <f t="shared" si="7"/>
-        <v>100.27</v>
+        <v>100.41500000000001</v>
       </c>
       <c r="AD7" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB7,AC7,Trigger)</f>
@@ -7391,7 +7395,7 @@
       </c>
       <c r="E8" s="196" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F4_Quote#0001</v>
+        <v>SEK3F4_Quote#0000</v>
       </c>
       <c r="F8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -7411,21 +7415,21 @@
         <v>SEK3F4</v>
       </c>
       <c r="N8" s="18" t="str">
-        <v>SEK3F4=HBCO</v>
+        <v>SEK3F4=TTKL</v>
       </c>
       <c r="O8" s="253">
-        <v>-0.21749999999999997</v>
+        <v>-0.38</v>
       </c>
       <c r="P8" s="253">
-        <v>-0.19750000000000001</v>
+        <v>-0.36</v>
       </c>
       <c r="Q8" s="19">
         <f t="shared" si="5"/>
-        <v>-0.20749999999999999</v>
+        <v>-0.37</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="6"/>
-        <v>1.9999999999999962E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="20">
@@ -7433,7 +7437,7 @@
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="20">
-        <v>-0.20749999999999999</v>
+        <v>-0.37</v>
       </c>
       <c r="W8" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
@@ -7447,11 +7451,11 @@
       </c>
       <c r="AB8" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA8,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F4_Quote#0001</v>
+        <v>FUTSEK3F4_Quote#0000</v>
       </c>
       <c r="AC8" s="75">
         <f t="shared" si="7"/>
-        <v>100.2075</v>
+        <v>100.37</v>
       </c>
       <c r="AD8" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB8,AC8,Trigger)</f>
@@ -7475,7 +7479,7 @@
       </c>
       <c r="E9" s="196" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F5_Quote#0001</v>
+        <v>SEK3F5_Quote#0000</v>
       </c>
       <c r="F9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -7495,21 +7499,21 @@
         <v>SEK3F5</v>
       </c>
       <c r="N9" s="18" t="str">
-        <v>SEK3F5=HBCO</v>
+        <v>SEK3F5=TTKL</v>
       </c>
       <c r="O9" s="253">
-        <v>-0.13999999999999999</v>
+        <v>-0.32</v>
       </c>
       <c r="P9" s="253">
-        <v>-0.11000000000000001</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" si="5"/>
-        <v>-0.125</v>
+        <v>-0.30499999999999999</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="6"/>
-        <v>2.9999999999999971E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="20">
@@ -7517,7 +7521,7 @@
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="20">
-        <v>-0.125</v>
+        <v>-0.30499999999999999</v>
       </c>
       <c r="W9" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
@@ -7531,11 +7535,11 @@
       </c>
       <c r="AB9" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA9,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F5_Quote#0001</v>
+        <v>FUTSEK3F5_Quote#0000</v>
       </c>
       <c r="AC9" s="75">
         <f t="shared" si="7"/>
-        <v>100.125</v>
+        <v>100.30500000000001</v>
       </c>
       <c r="AD9" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB9,AC9,Trigger)</f>
@@ -7559,7 +7563,7 @@
       </c>
       <c r="E10" s="196" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F6_Quote#0001</v>
+        <v>SEK3F6_Quote#0000</v>
       </c>
       <c r="F10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -7579,21 +7583,21 @@
         <v>SEK3F6</v>
       </c>
       <c r="N10" s="18" t="str">
-        <v>SEK3F6=HBCO</v>
+        <v>SEK3F6=TTKL</v>
       </c>
       <c r="O10" s="253">
-        <v>-4.2499999999999996E-2</v>
+        <v>-0.23500000000000001</v>
       </c>
       <c r="P10" s="253">
-        <v>-1.2500000000000001E-2</v>
+        <v>-0.20499999999999999</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="5"/>
-        <v>-2.7499999999999997E-2</v>
+        <v>-0.22</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="20">
@@ -7601,7 +7605,7 @@
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="20">
-        <v>-2.7499999999999997E-2</v>
+        <v>-0.22</v>
       </c>
       <c r="W10" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
@@ -7615,11 +7619,11 @@
       </c>
       <c r="AB10" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA10,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F6_Quote#0001</v>
+        <v>FUTSEK3F6_Quote#0000</v>
       </c>
       <c r="AC10" s="75">
         <f t="shared" si="7"/>
-        <v>100.0275</v>
+        <v>100.22</v>
       </c>
       <c r="AD10" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB10,AC10,Trigger)</f>
@@ -7643,7 +7647,7 @@
       </c>
       <c r="E11" s="196" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F7_Quote#0001</v>
+        <v>SEK3F7_Quote#0000</v>
       </c>
       <c r="F11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -7663,17 +7667,17 @@
         <v>SEK3F7</v>
       </c>
       <c r="N11" s="18" t="str">
-        <v>SEK3F7=HBCO</v>
+        <v>SEK3F7=TTKL</v>
       </c>
       <c r="O11" s="253">
-        <v>6.5000000000000002E-2</v>
+        <v>-0.13500000000000001</v>
       </c>
       <c r="P11" s="253">
-        <v>9.5000000000000001E-2</v>
+        <v>-0.10500000000000001</v>
       </c>
       <c r="Q11" s="19">
         <f t="shared" si="5"/>
-        <v>0.08</v>
+        <v>-0.12000000000000001</v>
       </c>
       <c r="R11" s="19">
         <f t="shared" si="6"/>
@@ -7685,7 +7689,7 @@
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="20">
-        <v>0.08</v>
+        <v>-0.12000000000000001</v>
       </c>
       <c r="W11" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E11,V11/100,Trigger)</f>
@@ -7699,11 +7703,11 @@
       </c>
       <c r="AB11" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA11,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F7_Quote#0001</v>
+        <v>FUTSEK3F7_Quote#0000</v>
       </c>
       <c r="AC11" s="75">
         <f t="shared" si="7"/>
-        <v>99.92</v>
+        <v>100.12</v>
       </c>
       <c r="AD11" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB11,AC11,Trigger)</f>
@@ -7727,7 +7731,7 @@
       </c>
       <c r="E12" s="196" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F8_Quote#0001</v>
+        <v>SEK3F8_Quote#0000</v>
       </c>
       <c r="F12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -7747,21 +7751,21 @@
         <v>SEK3F8</v>
       </c>
       <c r="N12" s="18" t="str">
-        <v>SEK3F8=HBCO</v>
+        <v>SEK3F8=TTKL</v>
       </c>
       <c r="O12" s="253">
-        <v>0.18</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="P12" s="253">
-        <v>0.21000000000000002</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="5"/>
-        <v>0.19500000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="6"/>
-        <v>3.0000000000000027E-2</v>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="20">
@@ -7769,7 +7773,7 @@
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="20">
-        <v>0.19500000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="W12" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E12,V12/100,Trigger)</f>
@@ -7783,11 +7787,11 @@
       </c>
       <c r="AB12" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA12,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F8_Quote#0001</v>
+        <v>FUTSEK3F8_Quote#0000</v>
       </c>
       <c r="AC12" s="75">
         <f t="shared" si="7"/>
-        <v>99.805000000000007</v>
+        <v>100.01</v>
       </c>
       <c r="AD12" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB12,AC12,Trigger)</f>
@@ -7811,7 +7815,7 @@
       </c>
       <c r="E13" s="196" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F9_Quote#0001</v>
+        <v>SEK3F9_Quote#0000</v>
       </c>
       <c r="F13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -7831,21 +7835,21 @@
         <v>SEK3F9</v>
       </c>
       <c r="N13" s="18" t="str">
-        <v>SEK3F9=HBCO</v>
+        <v>SEK3F9=TTKL</v>
       </c>
       <c r="O13" s="253">
-        <v>0.29249999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="P13" s="253">
-        <v>0.33250000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="5"/>
-        <v>0.3125</v>
+        <v>0.115</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="6"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="20">
@@ -7853,7 +7857,7 @@
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="20">
-        <v>0.3125</v>
+        <v>0.115</v>
       </c>
       <c r="W13" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
@@ -7867,11 +7871,11 @@
       </c>
       <c r="AB13" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA13,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F9_Quote#0001</v>
+        <v>FUTSEK3F9_Quote#0000</v>
       </c>
       <c r="AC13" s="75">
         <f t="shared" si="7"/>
-        <v>99.6875</v>
+        <v>99.885000000000005</v>
       </c>
       <c r="AD13" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB13,AC13,Trigger)</f>
@@ -7895,7 +7899,7 @@
       </c>
       <c r="E14" s="196" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F10_Quote#0001</v>
+        <v>SEK3F10_Quote#0000</v>
       </c>
       <c r="F14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -7915,21 +7919,21 @@
         <v>SEK3F10</v>
       </c>
       <c r="N14" s="18" t="str">
-        <v>SEK3F10=HBCO</v>
+        <v>SEK3F10=TTKL</v>
       </c>
       <c r="O14" s="253">
-        <v>0.41</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="P14" s="253">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="Q14" s="19">
         <f t="shared" si="5"/>
-        <v>0.43</v>
+        <v>0.245</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="6"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="20">
@@ -7937,7 +7941,7 @@
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="20">
-        <v>0.43</v>
+        <v>0.245</v>
       </c>
       <c r="W14" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E14,V14/100,Trigger)</f>
@@ -7951,11 +7955,11 @@
       </c>
       <c r="AB14" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA14,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F10_Quote#0001</v>
+        <v>FUTSEK3F10_Quote#0000</v>
       </c>
       <c r="AC14" s="75">
         <f t="shared" si="7"/>
-        <v>99.57</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="AD14" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB14,AC14,Trigger)</f>
@@ -7979,7 +7983,7 @@
       </c>
       <c r="E15" s="196" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F11_Quote#0001</v>
+        <v>SEK3F11_Quote#0000</v>
       </c>
       <c r="F15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -7999,21 +8003,21 @@
         <v>SEK3F11</v>
       </c>
       <c r="N15" s="18" t="str">
-        <v>SEK3F11=HBCO</v>
+        <v>SEK3F11=TTKL</v>
       </c>
       <c r="O15" s="253">
-        <v>0.52750000000000008</v>
+        <v>0.36</v>
       </c>
       <c r="P15" s="253">
-        <v>0.5675</v>
+        <v>0.39</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="5"/>
-        <v>0.5475000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="6"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="20">
@@ -8021,11 +8025,11 @@
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="20">
-        <v>0.5475000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="W15" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E15,V15/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000026E-4</v>
       </c>
       <c r="X15" s="166"/>
       <c r="Z15" s="163"/>
@@ -8035,15 +8039,15 @@
       </c>
       <c r="AB15" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA15,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F11_Quote#0001</v>
+        <v>FUTSEK3F11_Quote#0000</v>
       </c>
       <c r="AC15" s="75">
         <f t="shared" si="7"/>
-        <v>99.452500000000001</v>
+        <v>99.625</v>
       </c>
       <c r="AD15" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB15,AC15,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AE15" s="173"/>
     </row>
@@ -8063,7 +8067,7 @@
       </c>
       <c r="E16" s="196" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F12_Quote#0001</v>
+        <v>SEK3F12_Quote#0000</v>
       </c>
       <c r="F16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -8083,21 +8087,21 @@
         <v>SEK3F12</v>
       </c>
       <c r="N16" s="18" t="str">
-        <v>SEK3F12=HBCO</v>
+        <v>SEK3F12=TTKL</v>
       </c>
       <c r="O16" s="253">
-        <v>0.64500000000000002</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="P16" s="253">
-        <v>0.68499999999999994</v>
+        <v>0.52</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="5"/>
-        <v>0.66500000000000004</v>
+        <v>0.505</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="6"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.9999999999999916E-2</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="20">
@@ -8105,11 +8109,11 @@
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="20">
-        <v>0.66500000000000004</v>
+        <v>0.505</v>
       </c>
       <c r="W16" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000026E-4</v>
       </c>
       <c r="X16" s="166"/>
       <c r="Z16" s="163"/>
@@ -8119,15 +8123,15 @@
       </c>
       <c r="AB16" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA16,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F12_Quote#0001</v>
+        <v>FUTSEK3F12_Quote#0000</v>
       </c>
       <c r="AC16" s="75">
         <f t="shared" si="7"/>
-        <v>99.334999999999994</v>
+        <v>99.495000000000005</v>
       </c>
       <c r="AD16" s="246">
         <f>_xll.qlSimpleQuoteSetValue(AB16,AC16,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AE16" s="173"/>
     </row>
@@ -8147,7 +8151,7 @@
       </c>
       <c r="E17" s="196" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F13_Quote#0001</v>
+        <v>SEK3F13_Quote#0000</v>
       </c>
       <c r="F17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -8167,7 +8171,7 @@
         <v>SEK3F13</v>
       </c>
       <c r="N17" s="18" t="str">
-        <v>SEK3F13=HBCO</v>
+        <v>SEK3F13=TTKL</v>
       </c>
       <c r="O17" s="253" t="s">
         <v>110</v>
@@ -8203,7 +8207,7 @@
       </c>
       <c r="AB17" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA17,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F13_Quote#0001</v>
+        <v>FUTSEK3F13_Quote#0000</v>
       </c>
       <c r="AC17" s="75" t="e">
         <f t="shared" si="7"/>
@@ -8231,7 +8235,7 @@
       </c>
       <c r="E18" s="196" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F14_Quote#0001</v>
+        <v>SEK3F14_Quote#0000</v>
       </c>
       <c r="F18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -8251,7 +8255,7 @@
         <v>SEK3F14</v>
       </c>
       <c r="N18" s="18" t="str">
-        <v>SEK3F14=HBCO</v>
+        <v>SEK3F14=TTKL</v>
       </c>
       <c r="O18" s="253" t="s">
         <v>110</v>
@@ -8287,7 +8291,7 @@
       </c>
       <c r="AB18" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA18,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F14_Quote#0001</v>
+        <v>FUTSEK3F14_Quote#0000</v>
       </c>
       <c r="AC18" s="75" t="e">
         <f t="shared" si="7"/>
@@ -8315,7 +8319,7 @@
       </c>
       <c r="E19" s="197" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F15_Quote#0001</v>
+        <v>SEK3F15_Quote#0000</v>
       </c>
       <c r="F19" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -8335,7 +8339,7 @@
         <v>SEK3F15</v>
       </c>
       <c r="N19" s="24" t="str">
-        <v>SEK3F15=HBCO</v>
+        <v>SEK3F15=TTKL</v>
       </c>
       <c r="O19" s="254" t="s">
         <v>110</v>
@@ -8371,7 +8375,7 @@
       </c>
       <c r="AB19" s="22" t="str">
         <f>_xll.qlSimpleQuote(AA19,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F15_Quote#0001</v>
+        <v>FUTSEK3F15_Quote#0000</v>
       </c>
       <c r="AC19" s="76" t="e">
         <f t="shared" si="7"/>
@@ -8414,6 +8418,22 @@
       <c r="AD20" s="174"/>
       <c r="AE20" s="175"/>
     </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="O24" s="204"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="O25" s="204"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N26" s="204"/>
+      <c r="O26" s="204"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="O27" s="204"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="O28" s="204"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="W5:W19">
     <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThan">
@@ -8438,7 +8458,7 @@
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8507,7 +8527,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="8" t="str">
         <f>VLOOKUP(I1,AreaTable,2,FALSE)</f>
-        <v>ICAP SCANDINAVIA</v>
+        <v>Reuters</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="256" t="s">
@@ -8524,7 +8544,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="220">
         <f>_xll.ohTrigger(W5:W19)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X2" s="164"/>
     </row>
@@ -8574,7 +8594,7 @@
       <c r="M4" s="90"/>
       <c r="N4" s="91" t="str">
         <f>_xll.RData(N5:N19,O4:P4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 12:35:18</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>71</v>
@@ -8616,7 +8636,7 @@
       </c>
       <c r="E5" s="189" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOISSW_Quote#0001</v>
+        <v>SEKOISSW_Quote#0000</v>
       </c>
       <c r="F5" s="185" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -8641,7 +8661,7 @@
       </c>
       <c r="N5" s="83" t="str">
         <f t="array" ref="N5:N19">Instruments1&amp;"="&amp;VLOOKUP(Contributor1,ContributorTable,2,FALSE)</f>
-        <v>SEKAMTNSSW=HBCO</v>
+        <v>SEKAMTNSSW=</v>
       </c>
       <c r="O5" s="255" t="s">
         <v>110</v>
@@ -8687,7 +8707,7 @@
       </c>
       <c r="E6" s="191" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS2W_Quote#0001</v>
+        <v>SEKOIS2W_Quote#0000</v>
       </c>
       <c r="F6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -8711,7 +8731,7 @@
         <v>SEKAMTNS2W</v>
       </c>
       <c r="N6" s="84" t="str">
-        <v>SEKAMTNS2W=HBCO</v>
+        <v>SEKAMTNS2W=</v>
       </c>
       <c r="O6" s="253" t="s">
         <v>110</v>
@@ -8756,7 +8776,7 @@
       </c>
       <c r="E7" s="191" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS3W_Quote#0001</v>
+        <v>SEKOIS3W_Quote#0000</v>
       </c>
       <c r="F7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -8780,7 +8800,7 @@
         <v>SEKAMTNS3W</v>
       </c>
       <c r="N7" s="84" t="str">
-        <v>SEKAMTNS3W=HBCO</v>
+        <v>SEKAMTNS3W=</v>
       </c>
       <c r="O7" s="253" t="s">
         <v>110</v>
@@ -8825,7 +8845,7 @@
       </c>
       <c r="E8" s="191" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS1M_Quote#0001</v>
+        <v>SEKOIS1M_Quote#0000</v>
       </c>
       <c r="F8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -8849,21 +8869,21 @@
         <v>SEKAMTNS1M</v>
       </c>
       <c r="N8" s="84" t="str">
-        <v>SEKAMTNS1M=HBCO</v>
+        <v>SEKAMTNS1M=</v>
       </c>
       <c r="O8" s="253">
-        <v>-0.36699999999999999</v>
+        <v>-0.42000000000000004</v>
       </c>
       <c r="P8" s="253">
-        <v>-0.33700000000000002</v>
+        <v>-0.4</v>
       </c>
       <c r="Q8" s="19">
         <f t="shared" si="3"/>
-        <v>-0.35199999999999998</v>
+        <v>-0.41000000000000003</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="S8" s="87"/>
       <c r="T8" s="89">
@@ -8871,11 +8891,11 @@
       </c>
       <c r="U8" s="87"/>
       <c r="V8" s="19">
-        <v>-0.35199999999999998</v>
-      </c>
-      <c r="W8" s="21">
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="W8" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X8" s="166"/>
       <c r="Z8" s="93"/>
@@ -8895,7 +8915,7 @@
       </c>
       <c r="E9" s="191" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS2M_Quote#0001</v>
+        <v>SEKOIS2M_Quote#0000</v>
       </c>
       <c r="F9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -8919,21 +8939,21 @@
         <v>SEKAMTNS2M</v>
       </c>
       <c r="N9" s="84" t="str">
-        <v>SEKAMTNS2M=HBCO</v>
+        <v>SEKAMTNS2M=</v>
       </c>
       <c r="O9" s="253">
-        <v>-0.379</v>
+        <v>-0.43499999999999994</v>
       </c>
       <c r="P9" s="253">
-        <v>-0.34900000000000003</v>
+        <v>-0.41500000000000004</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" si="3"/>
-        <v>-0.36399999999999999</v>
+        <v>-0.42499999999999999</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="S9" s="87"/>
       <c r="T9" s="89">
@@ -8941,11 +8961,11 @@
       </c>
       <c r="U9" s="87"/>
       <c r="V9" s="19">
-        <v>-0.36399999999999999</v>
-      </c>
-      <c r="W9" s="21">
+        <v>-0.42499999999999999</v>
+      </c>
+      <c r="W9" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X9" s="166"/>
     </row>
@@ -8964,7 +8984,7 @@
       </c>
       <c r="E10" s="191" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS3M_Quote#0001</v>
+        <v>SEKOIS3M_Quote#0000</v>
       </c>
       <c r="F10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -8988,21 +9008,21 @@
         <v>SEKAMTNS3M</v>
       </c>
       <c r="N10" s="84" t="str">
-        <v>SEKAMTNS3M=HBCO</v>
+        <v>SEKAMTNS3M=</v>
       </c>
       <c r="O10" s="253">
-        <v>-0.39200000000000002</v>
+        <v>-0.44000000000000006</v>
       </c>
       <c r="P10" s="253">
-        <v>-0.36199999999999999</v>
+        <v>-0.42000000000000004</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="3"/>
-        <v>-0.377</v>
+        <v>-0.43000000000000005</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="S10" s="87"/>
       <c r="T10" s="89">
@@ -9010,11 +9030,11 @@
       </c>
       <c r="U10" s="87"/>
       <c r="V10" s="19">
-        <v>-0.377</v>
-      </c>
-      <c r="W10" s="21">
+        <v>-0.43000000000000005</v>
+      </c>
+      <c r="W10" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X10" s="166"/>
     </row>
@@ -9033,7 +9053,7 @@
       </c>
       <c r="E11" s="191" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS4M_Quote#0001</v>
+        <v>SEKOIS4M_Quote#0000</v>
       </c>
       <c r="F11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -9057,29 +9077,29 @@
         <v>SEKAMTNS4M</v>
       </c>
       <c r="N11" s="84" t="str">
-        <v>SEKAMTNS4M=HBCO</v>
-      </c>
-      <c r="O11" s="253">
-        <v>-0.4</v>
-      </c>
-      <c r="P11" s="253">
-        <v>-0.37</v>
-      </c>
-      <c r="Q11" s="19">
+        <v>SEKAMTNS4M=</v>
+      </c>
+      <c r="O11" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="19" t="e">
         <f t="shared" si="3"/>
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="R11" s="19">
+        <v>#NUM!</v>
+      </c>
+      <c r="R11" s="19" t="e">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="S11" s="87"/>
       <c r="T11" s="89">
         <v>-0.38500000000000001</v>
       </c>
       <c r="U11" s="87"/>
-      <c r="V11" s="19">
-        <v>-0.38500000000000001</v>
+      <c r="V11" s="19" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W11" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E11,V11/100,Trigger)</f>
@@ -9102,7 +9122,7 @@
       </c>
       <c r="E12" s="191" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS5M_Quote#0001</v>
+        <v>SEKOIS5M_Quote#0000</v>
       </c>
       <c r="F12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -9126,29 +9146,29 @@
         <v>SEKAMTNS5M</v>
       </c>
       <c r="N12" s="84" t="str">
-        <v>SEKAMTNS5M=HBCO</v>
-      </c>
-      <c r="O12" s="253">
-        <v>-0.40400000000000003</v>
-      </c>
-      <c r="P12" s="253">
-        <v>-0.374</v>
-      </c>
-      <c r="Q12" s="19">
+        <v>SEKAMTNS5M=</v>
+      </c>
+      <c r="O12" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="19" t="e">
         <f t="shared" si="3"/>
-        <v>-0.38900000000000001</v>
-      </c>
-      <c r="R12" s="19">
+        <v>#NUM!</v>
+      </c>
+      <c r="R12" s="19" t="e">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="S12" s="87"/>
       <c r="T12" s="89">
         <v>-0.38900000000000001</v>
       </c>
       <c r="U12" s="87"/>
-      <c r="V12" s="19">
-        <v>-0.38900000000000001</v>
+      <c r="V12" s="19" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W12" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E12,V12/100,Trigger)</f>
@@ -9171,7 +9191,7 @@
       </c>
       <c r="E13" s="191" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS6M_Quote#0001</v>
+        <v>SEKOIS6M_Quote#0000</v>
       </c>
       <c r="F13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -9195,21 +9215,21 @@
         <v>SEKAMTNS6M</v>
       </c>
       <c r="N13" s="84" t="str">
-        <v>SEKAMTNS6M=HBCO</v>
+        <v>SEKAMTNS6M=</v>
       </c>
       <c r="O13" s="253">
-        <v>-0.40599999999999997</v>
+        <v>-0.45999999999999996</v>
       </c>
       <c r="P13" s="253">
-        <v>-0.376</v>
+        <v>-0.44000000000000006</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="3"/>
-        <v>-0.39100000000000001</v>
+        <v>-0.45</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="4"/>
-        <v>2.9999999999999916E-2</v>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="S13" s="87"/>
       <c r="T13" s="89">
@@ -9217,11 +9237,11 @@
       </c>
       <c r="U13" s="87"/>
       <c r="V13" s="19">
-        <v>-0.39100000000000001</v>
-      </c>
-      <c r="W13" s="21">
+        <v>-0.45</v>
+      </c>
+      <c r="W13" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X13" s="166"/>
     </row>
@@ -9240,7 +9260,7 @@
       </c>
       <c r="E14" s="191" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS7M_Quote#0001</v>
+        <v>SEKOIS7M_Quote#0000</v>
       </c>
       <c r="F14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -9264,7 +9284,7 @@
         <v>SEKAMTNS7M</v>
       </c>
       <c r="N14" s="84" t="str">
-        <v>SEKAMTNS7M=HBCO</v>
+        <v>SEKAMTNS7M=</v>
       </c>
       <c r="O14" s="253" t="s">
         <v>110</v>
@@ -9310,7 +9330,7 @@
       </c>
       <c r="E15" s="191" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS8M_Quote#0001</v>
+        <v>SEKOIS8M_Quote#0000</v>
       </c>
       <c r="F15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -9334,7 +9354,7 @@
         <v>SEKAMTNS8M</v>
       </c>
       <c r="N15" s="84" t="str">
-        <v>SEKAMTNS8M=HBCO</v>
+        <v>SEKAMTNS8M=</v>
       </c>
       <c r="O15" s="253" t="s">
         <v>110</v>
@@ -9379,7 +9399,7 @@
       </c>
       <c r="E16" s="191" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS9M_Quote#0001</v>
+        <v>SEKOIS9M_Quote#0000</v>
       </c>
       <c r="F16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -9403,21 +9423,21 @@
         <v>SEKAMTNS9M</v>
       </c>
       <c r="N16" s="84" t="str">
-        <v>SEKAMTNS9M=HBCO</v>
+        <v>SEKAMTNS9M=</v>
       </c>
       <c r="O16" s="253">
-        <v>-0.40700000000000003</v>
+        <v>-0.45999999999999996</v>
       </c>
       <c r="P16" s="253">
-        <v>-0.377</v>
+        <v>-0.44000000000000006</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="3"/>
-        <v>-0.39200000000000002</v>
+        <v>-0.45</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="S16" s="87"/>
       <c r="T16" s="89">
@@ -9425,11 +9445,11 @@
       </c>
       <c r="U16" s="87"/>
       <c r="V16" s="19">
-        <v>-0.39200000000000002</v>
-      </c>
-      <c r="W16" s="21">
+        <v>-0.45</v>
+      </c>
+      <c r="W16" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X16" s="166"/>
       <c r="AA16" s="93"/>
@@ -9449,7 +9469,7 @@
       </c>
       <c r="E17" s="191" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS10M_Quote#0001</v>
+        <v>SEKOIS10M_Quote#0000</v>
       </c>
       <c r="F17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -9473,7 +9493,7 @@
         <v>SEKAMTNS10M</v>
       </c>
       <c r="N17" s="84" t="str">
-        <v>SEKAMTNS10M=HBCO</v>
+        <v>SEKAMTNS10M=</v>
       </c>
       <c r="O17" s="253" t="s">
         <v>110</v>
@@ -9518,7 +9538,7 @@
       </c>
       <c r="E18" s="191" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS11M_Quote#0001</v>
+        <v>SEKOIS11M_Quote#0000</v>
       </c>
       <c r="F18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -9542,7 +9562,7 @@
         <v>SEKAMTNS11M</v>
       </c>
       <c r="N18" s="84" t="str">
-        <v>SEKAMTNS11M=HBCO</v>
+        <v>SEKAMTNS11M=</v>
       </c>
       <c r="O18" s="253" t="s">
         <v>110</v>
@@ -9587,7 +9607,7 @@
       </c>
       <c r="E19" s="193" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS12M_Quote#0001</v>
+        <v>SEKOIS12M_Quote#0000</v>
       </c>
       <c r="F19" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -9611,29 +9631,29 @@
         <v>SEKAMTNS12M</v>
       </c>
       <c r="N19" s="85" t="str">
-        <v>SEKAMTNS12M=HBCO</v>
-      </c>
-      <c r="O19" s="254">
-        <v>-0.39900000000000002</v>
-      </c>
-      <c r="P19" s="254">
-        <v>-0.36899999999999999</v>
-      </c>
-      <c r="Q19" s="25">
+        <v>SEKAMTNS12M=</v>
+      </c>
+      <c r="O19" s="254" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="254" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="25" t="e">
         <f t="shared" si="3"/>
-        <v>-0.38400000000000001</v>
-      </c>
-      <c r="R19" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" s="25" t="e">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="S19" s="87"/>
       <c r="T19" s="89">
         <v>-0.38400000000000001</v>
       </c>
       <c r="U19" s="87"/>
-      <c r="V19" s="25">
-        <v>-0.38400000000000001</v>
+      <c r="V19" s="25" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W19" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E19,V19/100,Trigger)</f>
@@ -9801,7 +9821,7 @@
   <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -9887,7 +9907,7 @@
       <c r="V2" s="9"/>
       <c r="W2" s="220">
         <f>_xll.ohTrigger(W5:W44)</f>
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="X2" s="164"/>
     </row>
@@ -9937,7 +9957,7 @@
       <c r="M4" s="90"/>
       <c r="N4" s="91" t="str">
         <f>_xll.RData(N5:N44,O4:P4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 12:33:34</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>71</v>
@@ -9979,7 +9999,7 @@
       </c>
       <c r="E5" s="189" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS1Y_Quote#0001</v>
+        <v>SEKOIS1Y_Quote#0000</v>
       </c>
       <c r="F5" s="185" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -10005,14 +10025,14 @@
         <v>SEKAMTNS1Y=ICAP</v>
       </c>
       <c r="O5" s="255">
-        <v>-0.38500000000000001</v>
+        <v>-0.45499999999999996</v>
       </c>
       <c r="P5" s="255">
         <v>0</v>
       </c>
       <c r="Q5" s="13">
         <f>IF($Q$2,IF(ISNUMBER(O5),O5,#NUM!),IFERROR(AVERAGE(O5:P5),#NUM!))</f>
-        <v>-0.38500000000000001</v>
+        <v>-0.45499999999999996</v>
       </c>
       <c r="R5" s="13">
         <f>(Q5-O5)*2</f>
@@ -10025,7 +10045,7 @@
       <c r="U5" s="87"/>
       <c r="V5" s="13">
         <f t="array" ref="V5:V44">QuoteLive</f>
-        <v>-0.38500000000000001</v>
+        <v>-0.45499999999999996</v>
       </c>
       <c r="W5" s="15">
         <f>_xll.qlSimpleQuoteSetValue(E5,V5/100,Trigger)</f>
@@ -10048,7 +10068,7 @@
       </c>
       <c r="E6" s="191" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS13M_Quote#0001</v>
+        <v>SEKOIS13M_Quote#0000</v>
       </c>
       <c r="F6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -10117,7 +10137,7 @@
       </c>
       <c r="E7" s="191" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS14M_Quote#0001</v>
+        <v>SEKOIS14M_Quote#0000</v>
       </c>
       <c r="F7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -10186,7 +10206,7 @@
       </c>
       <c r="E8" s="191" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS15M_Quote#0001</v>
+        <v>SEKOIS15M_Quote#0000</v>
       </c>
       <c r="F8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -10256,7 +10276,7 @@
       </c>
       <c r="E9" s="191" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS16M_Quote#0001</v>
+        <v>SEKOIS16M_Quote#0000</v>
       </c>
       <c r="F9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -10325,7 +10345,7 @@
       </c>
       <c r="E10" s="191" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS17M_Quote#0001</v>
+        <v>SEKOIS17M_Quote#0000</v>
       </c>
       <c r="F10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -10394,7 +10414,7 @@
       </c>
       <c r="E11" s="191" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS18M_Quote#0001</v>
+        <v>SEKOIS18M_Quote#0000</v>
       </c>
       <c r="F11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -10463,7 +10483,7 @@
       </c>
       <c r="E12" s="191" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS19M_Quote#0001</v>
+        <v>SEKOIS19M_Quote#0000</v>
       </c>
       <c r="F12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -10532,7 +10552,7 @@
       </c>
       <c r="E13" s="191" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS20M_Quote#0001</v>
+        <v>SEKOIS20M_Quote#0000</v>
       </c>
       <c r="F13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -10601,7 +10621,7 @@
       </c>
       <c r="E14" s="191" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS21M_Quote#0001</v>
+        <v>SEKOIS21M_Quote#0000</v>
       </c>
       <c r="F14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -10671,7 +10691,7 @@
       </c>
       <c r="E15" s="191" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS22M_Quote#0001</v>
+        <v>SEKOIS22M_Quote#0000</v>
       </c>
       <c r="F15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -10740,7 +10760,7 @@
       </c>
       <c r="E16" s="191" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS23M_Quote#0001</v>
+        <v>SEKOIS23M_Quote#0000</v>
       </c>
       <c r="F16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -10810,7 +10830,7 @@
       </c>
       <c r="E17" s="191" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS2Y_Quote#0001</v>
+        <v>SEKOIS2Y_Quote#0000</v>
       </c>
       <c r="F17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -10837,14 +10857,14 @@
         <v>SEKAMTNS2Y=ICAP</v>
       </c>
       <c r="O17" s="253">
-        <v>-0.28500000000000003</v>
+        <v>-0.3725</v>
       </c>
       <c r="P17" s="253">
         <v>0</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="3"/>
-        <v>-0.28500000000000003</v>
+        <v>-0.3725</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="4"/>
@@ -10856,11 +10876,11 @@
       </c>
       <c r="U17" s="87"/>
       <c r="V17" s="19">
-        <v>-0.28500000000000003</v>
+        <v>-0.3725</v>
       </c>
       <c r="W17" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E17,V17/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999849E-5</v>
       </c>
       <c r="X17" s="166"/>
     </row>
@@ -10879,7 +10899,7 @@
       </c>
       <c r="E18" s="191" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS27M_Quote#0001</v>
+        <v>SEKOIS27M_Quote#0000</v>
       </c>
       <c r="F18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -10948,7 +10968,7 @@
       </c>
       <c r="E19" s="191" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS30M_Quote#0001</v>
+        <v>SEKOIS30M_Quote#0000</v>
       </c>
       <c r="F19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -11017,7 +11037,7 @@
       </c>
       <c r="E20" s="191" t="str">
         <f>_xll.qlSimpleQuote(D20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS33M_Quote#0001</v>
+        <v>SEKOIS33M_Quote#0000</v>
       </c>
       <c r="F20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -11086,7 +11106,7 @@
       </c>
       <c r="E21" s="191" t="str">
         <f>_xll.qlSimpleQuote(D21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS3Y_Quote#0001</v>
+        <v>SEKOIS3Y_Quote#0000</v>
       </c>
       <c r="F21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -11113,14 +11133,14 @@
         <v>SEKAMTNS3Y=ICAP</v>
       </c>
       <c r="O21" s="253">
-        <v>-0.11750000000000001</v>
+        <v>-0.20249999999999999</v>
       </c>
       <c r="P21" s="253">
         <v>0</v>
       </c>
       <c r="Q21" s="19">
         <f t="shared" si="3"/>
-        <v>-0.11750000000000001</v>
+        <v>-0.20249999999999999</v>
       </c>
       <c r="R21" s="19">
         <f t="shared" si="4"/>
@@ -11132,7 +11152,7 @@
       </c>
       <c r="U21" s="87"/>
       <c r="V21" s="19">
-        <v>-0.11750000000000001</v>
+        <v>-0.20249999999999999</v>
       </c>
       <c r="W21" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E21,V21/100,Trigger)</f>
@@ -11155,7 +11175,7 @@
       </c>
       <c r="E22" s="191" t="str">
         <f>_xll.qlSimpleQuote(D22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS39M_Quote#0001</v>
+        <v>SEKOIS39M_Quote#0000</v>
       </c>
       <c r="F22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -11224,7 +11244,7 @@
       </c>
       <c r="E23" s="191" t="str">
         <f>_xll.qlSimpleQuote(D23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS42M_Quote#0001</v>
+        <v>SEKOIS42M_Quote#0000</v>
       </c>
       <c r="F23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -11293,7 +11313,7 @@
       </c>
       <c r="E24" s="191" t="str">
         <f>_xll.qlSimpleQuote(D24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS45M_Quote#0001</v>
+        <v>SEKOIS45M_Quote#0000</v>
       </c>
       <c r="F24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -11362,7 +11382,7 @@
       </c>
       <c r="E25" s="191" t="str">
         <f>_xll.qlSimpleQuote(D25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS4Y_Quote#0001</v>
+        <v>SEKOIS4Y_Quote#0000</v>
       </c>
       <c r="F25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -11389,14 +11409,14 @@
         <v>SEKAMTNS4Y=ICAP</v>
       </c>
       <c r="O25" s="253">
-        <v>0.09</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="P25" s="253">
         <v>0</v>
       </c>
       <c r="Q25" s="19">
         <f t="shared" si="3"/>
-        <v>0.09</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="R25" s="19">
         <f t="shared" si="4"/>
@@ -11408,7 +11428,7 @@
       </c>
       <c r="U25" s="87"/>
       <c r="V25" s="19">
-        <v>0.09</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="W25" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E25,V25/100,Trigger)</f>
@@ -11431,7 +11451,7 @@
       </c>
       <c r="E26" s="191" t="str">
         <f>_xll.qlSimpleQuote(D26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS51M_Quote#0001</v>
+        <v>SEKOIS51M_Quote#0000</v>
       </c>
       <c r="F26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -11500,7 +11520,7 @@
       </c>
       <c r="E27" s="191" t="str">
         <f>_xll.qlSimpleQuote(D27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS54M_Quote#0001</v>
+        <v>SEKOIS54M_Quote#0000</v>
       </c>
       <c r="F27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -11570,7 +11590,7 @@
       </c>
       <c r="E28" s="191" t="str">
         <f>_xll.qlSimpleQuote(D28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS57M_Quote#0001</v>
+        <v>SEKOIS57M_Quote#0000</v>
       </c>
       <c r="F28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -11639,7 +11659,7 @@
       </c>
       <c r="E29" s="191" t="str">
         <f>_xll.qlSimpleQuote(D29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS5Y_Quote#0001</v>
+        <v>SEKOIS5Y_Quote#0000</v>
       </c>
       <c r="F29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -11666,14 +11686,14 @@
         <v>SEKAMTNS5Y=ICAP</v>
       </c>
       <c r="O29" s="253">
-        <v>0.32250000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="P29" s="253">
         <v>0</v>
       </c>
       <c r="Q29" s="19">
         <f t="shared" si="3"/>
-        <v>0.32250000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="R29" s="19">
         <f t="shared" si="4"/>
@@ -11685,11 +11705,11 @@
       </c>
       <c r="U29" s="87"/>
       <c r="V29" s="19">
-        <v>0.32250000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="W29" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E29,V29/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000000282E-5</v>
       </c>
       <c r="X29" s="166"/>
     </row>
@@ -11708,7 +11728,7 @@
       </c>
       <c r="E30" s="191" t="str">
         <f>_xll.qlSimpleQuote(D30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS6Y_Quote#0001</v>
+        <v>SEKOIS6Y_Quote#0000</v>
       </c>
       <c r="F30" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -11735,14 +11755,14 @@
         <v>SEKAMTNS6Y=ICAP</v>
       </c>
       <c r="O30" s="253">
-        <v>0.54249999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="P30" s="253">
         <v>0</v>
       </c>
       <c r="Q30" s="19">
         <f t="shared" si="3"/>
-        <v>0.54249999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="R30" s="19">
         <f t="shared" si="4"/>
@@ -11754,7 +11774,7 @@
       </c>
       <c r="U30" s="87"/>
       <c r="V30" s="19">
-        <v>0.54249999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="W30" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E30,V30/100,Trigger)</f>
@@ -11777,7 +11797,7 @@
       </c>
       <c r="E31" s="191" t="str">
         <f>_xll.qlSimpleQuote(D31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS7Y_Quote#0001</v>
+        <v>SEKOIS7Y_Quote#0000</v>
       </c>
       <c r="F31" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -11804,14 +11824,14 @@
         <v>SEKAMTNS7Y=ICAP</v>
       </c>
       <c r="O31" s="253">
-        <v>0.74749999999999994</v>
+        <v>0.68499999999999994</v>
       </c>
       <c r="P31" s="253">
         <v>0</v>
       </c>
       <c r="Q31" s="19">
         <f t="shared" si="3"/>
-        <v>0.74749999999999994</v>
+        <v>0.68499999999999994</v>
       </c>
       <c r="R31" s="19">
         <f t="shared" si="4"/>
@@ -11823,7 +11843,7 @@
       </c>
       <c r="U31" s="87"/>
       <c r="V31" s="19">
-        <v>0.74749999999999994</v>
+        <v>0.68499999999999994</v>
       </c>
       <c r="W31" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E31,V31/100,Trigger)</f>
@@ -11846,7 +11866,7 @@
       </c>
       <c r="E32" s="191" t="str">
         <f>_xll.qlSimpleQuote(D32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS8Y_Quote#0001</v>
+        <v>SEKOIS8Y_Quote#0000</v>
       </c>
       <c r="F32" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E32)</f>
@@ -11873,14 +11893,14 @@
         <v>SEKAMTNS8Y=ICAP</v>
       </c>
       <c r="O32" s="253">
-        <v>0.92249999999999999</v>
+        <v>0.86750000000000005</v>
       </c>
       <c r="P32" s="253">
         <v>0</v>
       </c>
       <c r="Q32" s="19">
         <f t="shared" si="3"/>
-        <v>0.92249999999999999</v>
+        <v>0.86750000000000005</v>
       </c>
       <c r="R32" s="19">
         <f t="shared" si="4"/>
@@ -11892,7 +11912,7 @@
       </c>
       <c r="U32" s="87"/>
       <c r="V32" s="19">
-        <v>0.92249999999999999</v>
+        <v>0.86750000000000005</v>
       </c>
       <c r="W32" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E32,V32/100,Trigger)</f>
@@ -11915,7 +11935,7 @@
       </c>
       <c r="E33" s="191" t="str">
         <f>_xll.qlSimpleQuote(D33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS9Y_Quote#0001</v>
+        <v>SEKOIS9Y_Quote#0000</v>
       </c>
       <c r="F33" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E33)</f>
@@ -11942,14 +11962,14 @@
         <v>SEKAMTNS9Y=ICAP</v>
       </c>
       <c r="O33" s="253">
-        <v>1.0725</v>
+        <v>1.0275000000000001</v>
       </c>
       <c r="P33" s="253">
         <v>0</v>
       </c>
       <c r="Q33" s="19">
         <f t="shared" si="3"/>
-        <v>1.0725</v>
+        <v>1.0275000000000001</v>
       </c>
       <c r="R33" s="19">
         <f t="shared" si="4"/>
@@ -11961,11 +11981,11 @@
       </c>
       <c r="U33" s="87"/>
       <c r="V33" s="19">
-        <v>1.0725</v>
+        <v>1.0275000000000001</v>
       </c>
       <c r="W33" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E33,V33/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999998981E-5</v>
       </c>
       <c r="X33" s="166"/>
     </row>
@@ -11984,7 +12004,7 @@
       </c>
       <c r="E34" s="191" t="str">
         <f>_xll.qlSimpleQuote(D34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS10Y_Quote#0001</v>
+        <v>SEKOIS10Y_Quote#0000</v>
       </c>
       <c r="F34" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E34)</f>
@@ -12011,14 +12031,14 @@
         <v>SEKAMTNS10Y=ICAP</v>
       </c>
       <c r="O34" s="253">
-        <v>1.1950000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="P34" s="253">
         <v>0</v>
       </c>
       <c r="Q34" s="19">
         <f t="shared" si="3"/>
-        <v>1.1950000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="R34" s="19">
         <f t="shared" si="4"/>
@@ -12030,11 +12050,11 @@
       </c>
       <c r="U34" s="87"/>
       <c r="V34" s="19">
-        <v>1.1950000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="W34" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E34,V34/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000002451E-5</v>
       </c>
       <c r="X34" s="166"/>
     </row>
@@ -12053,7 +12073,7 @@
       </c>
       <c r="E35" s="191" t="str">
         <f>_xll.qlSimpleQuote(D35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS12Y_Quote#0001</v>
+        <v>SEKOIS12Y_Quote#0000</v>
       </c>
       <c r="F35" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E35)</f>
@@ -12103,7 +12123,7 @@
       </c>
       <c r="W35" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E35,V35/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999998981E-5</v>
       </c>
       <c r="X35" s="166"/>
     </row>
@@ -12122,7 +12142,7 @@
       </c>
       <c r="E36" s="191" t="str">
         <f>_xll.qlSimpleQuote(D36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS15Y_Quote#0001</v>
+        <v>SEKOIS15Y_Quote#0000</v>
       </c>
       <c r="F36" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E36)</f>
@@ -12149,14 +12169,14 @@
         <v>SEKAMTNS15Y=ICAP</v>
       </c>
       <c r="O36" s="253">
-        <v>1.645</v>
+        <v>1.6675</v>
       </c>
       <c r="P36" s="253">
         <v>0</v>
       </c>
       <c r="Q36" s="19">
         <f t="shared" si="3"/>
-        <v>1.645</v>
+        <v>1.6675</v>
       </c>
       <c r="R36" s="19">
         <f t="shared" si="4"/>
@@ -12168,11 +12188,11 @@
       </c>
       <c r="U36" s="87"/>
       <c r="V36" s="19">
-        <v>1.645</v>
+        <v>1.6675</v>
       </c>
       <c r="W36" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E36,V36/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000000716E-5</v>
       </c>
       <c r="X36" s="166"/>
     </row>
@@ -12191,7 +12211,7 @@
       </c>
       <c r="E37" s="191" t="str">
         <f>_xll.qlSimpleQuote(D37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS20Y_Quote#0001</v>
+        <v>SEKOIS20Y_Quote#0000</v>
       </c>
       <c r="F37" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E37)</f>
@@ -12218,14 +12238,14 @@
         <v>SEKAMTNS20Y=ICAP</v>
       </c>
       <c r="O37" s="253">
-        <v>1.875</v>
+        <v>1.9575</v>
       </c>
       <c r="P37" s="253">
         <v>0</v>
       </c>
       <c r="Q37" s="19">
         <f t="shared" si="3"/>
-        <v>1.875</v>
+        <v>1.9575</v>
       </c>
       <c r="R37" s="19">
         <f t="shared" si="4"/>
@@ -12237,11 +12257,11 @@
       </c>
       <c r="U37" s="87"/>
       <c r="V37" s="19">
-        <v>1.875</v>
+        <v>1.9575</v>
       </c>
       <c r="W37" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E37,V37/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000000716E-5</v>
       </c>
       <c r="X37" s="166"/>
     </row>
@@ -12260,7 +12280,7 @@
       </c>
       <c r="E38" s="191" t="str">
         <f>_xll.qlSimpleQuote(D38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS25Y_Quote#0001</v>
+        <v>SEKOIS25Y_Quote#0000</v>
       </c>
       <c r="F38" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E38)</f>
@@ -12287,14 +12307,14 @@
         <v>SEKAMTNS25Y=ICAP</v>
       </c>
       <c r="O38" s="253">
-        <v>1.9750000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="P38" s="253">
         <v>0</v>
       </c>
       <c r="Q38" s="19">
         <f t="shared" si="3"/>
-        <v>1.9750000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="R38" s="19">
         <f t="shared" si="4"/>
@@ -12306,11 +12326,11 @@
       </c>
       <c r="U38" s="87"/>
       <c r="V38" s="19">
-        <v>1.9750000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="W38" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E38,V38/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000000716E-5</v>
       </c>
       <c r="X38" s="166"/>
     </row>
@@ -12329,7 +12349,7 @@
       </c>
       <c r="E39" s="191" t="str">
         <f>_xll.qlSimpleQuote(D39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS27Y_Quote#0001</v>
+        <v>SEKOIS27Y_Quote#0000</v>
       </c>
       <c r="F39" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E39)</f>
@@ -12398,7 +12418,7 @@
       </c>
       <c r="E40" s="191" t="str">
         <f>_xll.qlSimpleQuote(D40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS30Y_Quote#0001</v>
+        <v>SEKOIS30Y_Quote#0000</v>
       </c>
       <c r="F40" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E40)</f>
@@ -12425,14 +12445,14 @@
         <v>SEKAMTNS30Y=ICAP</v>
       </c>
       <c r="O40" s="253">
-        <v>2.0125000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="P40" s="253">
         <v>0</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" si="3"/>
-        <v>2.0125000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" si="4"/>
@@ -12444,7 +12464,7 @@
       </c>
       <c r="U40" s="87"/>
       <c r="V40" s="19">
-        <v>2.0125000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="W40" s="21">
         <f>_xll.qlSimpleQuoteSetValue(E40,V40/100,Trigger)</f>
@@ -12467,7 +12487,7 @@
       </c>
       <c r="E41" s="191" t="str">
         <f>_xll.qlSimpleQuote(D41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS35Y_Quote#0001</v>
+        <v>SEKOIS35Y_Quote#0000</v>
       </c>
       <c r="F41" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E41)</f>
@@ -12536,7 +12556,7 @@
       </c>
       <c r="E42" s="191" t="str">
         <f>_xll.qlSimpleQuote(D42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS40Y_Quote#0001</v>
+        <v>SEKOIS40Y_Quote#0000</v>
       </c>
       <c r="F42" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E42)</f>
@@ -12605,7 +12625,7 @@
       </c>
       <c r="E43" s="191" t="str">
         <f>_xll.qlSimpleQuote(D43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS45Y_Quote#0001</v>
+        <v>SEKOIS45Y_Quote#0000</v>
       </c>
       <c r="F43" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E43)</f>
@@ -12674,7 +12694,7 @@
       </c>
       <c r="E44" s="193" t="str">
         <f>_xll.qlSimpleQuote(D44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS50Y_Quote#0001</v>
+        <v>SEKOIS50Y_Quote#0000</v>
       </c>
       <c r="F44" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(E44)</f>
@@ -12887,7 +12907,7 @@
   <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -12975,7 +12995,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="220">
         <f>_xll.ohTrigger(X5:X31)</f>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="164"/>
     </row>
@@ -13027,7 +13047,7 @@
       <c r="N4" s="215"/>
       <c r="O4" s="61" t="str">
         <f>_xll.RData(O5:O31,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 12:54:33</v>
       </c>
       <c r="P4" s="59" t="s">
         <v>71</v>
@@ -13071,7 +13091,7 @@
       </c>
       <c r="F5" s="191" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S6M_Quote#0001</v>
+        <v>SEKAB3S6M_Quote#0000</v>
       </c>
       <c r="G5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13144,7 +13164,7 @@
       </c>
       <c r="F6" s="191" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S1Y_Quote#0001</v>
+        <v>SEKAB3S1Y_Quote#0000</v>
       </c>
       <c r="G6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13171,14 +13191,14 @@
         <v>SEKAB3S1Y=ICAP</v>
       </c>
       <c r="P6" s="253">
-        <v>-0.3125</v>
+        <v>-0.4425</v>
       </c>
       <c r="Q6" s="253">
-        <v>-0.26250000000000001</v>
+        <v>-0.39249999999999996</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" ref="R6:R31" si="2">IF($R$2,IF(ISNUMBER(P6),P6,#NUM!),IFERROR(AVERAGE(P6:Q6),#NUM!))</f>
-        <v>-0.28749999999999998</v>
+        <v>-0.41749999999999998</v>
       </c>
       <c r="S6" s="19">
         <f t="shared" ref="S6:S31" si="3">(R6-P6)*2</f>
@@ -13190,7 +13210,7 @@
       </c>
       <c r="V6" s="87"/>
       <c r="W6" s="19">
-        <v>-0.28749999999999998</v>
+        <v>-0.41749999999999998</v>
       </c>
       <c r="X6" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/100,Trigger)</f>
@@ -13215,7 +13235,7 @@
       </c>
       <c r="F7" s="191" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S15M_Quote#0001</v>
+        <v>SEKAB3S15M_Quote#0000</v>
       </c>
       <c r="G7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13286,7 +13306,7 @@
       </c>
       <c r="F8" s="191" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S18M_Quote#0001</v>
+        <v>SEKAB3S18M_Quote#0000</v>
       </c>
       <c r="G8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13357,7 +13377,7 @@
       </c>
       <c r="F9" s="191" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S21M_Quote#0001</v>
+        <v>SEKAB3S21M_Quote#0000</v>
       </c>
       <c r="G9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13428,7 +13448,7 @@
       </c>
       <c r="F10" s="191" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S2Y_Quote#0001</v>
+        <v>SEKAB3S2Y_Quote#0000</v>
       </c>
       <c r="G10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13455,18 +13475,18 @@
         <v>SEKAB3S2Y=ICAP</v>
       </c>
       <c r="P10" s="253">
-        <v>-0.19500000000000001</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="Q10" s="253">
-        <v>-0.14499999999999999</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="2"/>
-        <v>-0.16999999999999998</v>
+        <v>-0.31000000000000005</v>
       </c>
       <c r="S10" s="19">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.9999999999999933E-2</v>
       </c>
       <c r="T10" s="87"/>
       <c r="U10" s="89">
@@ -13474,7 +13494,7 @@
       </c>
       <c r="V10" s="87"/>
       <c r="W10" s="19">
-        <v>-0.16999999999999998</v>
+        <v>-0.31000000000000005</v>
       </c>
       <c r="X10" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/100,Trigger)</f>
@@ -13499,7 +13519,7 @@
       </c>
       <c r="F11" s="191" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S27M_Quote#0001</v>
+        <v>SEKAB3S27M_Quote#0000</v>
       </c>
       <c r="G11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13570,7 +13590,7 @@
       </c>
       <c r="F12" s="191" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S30M_Quote#0001</v>
+        <v>SEKAB3S30M_Quote#0000</v>
       </c>
       <c r="G12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13641,7 +13661,7 @@
       </c>
       <c r="F13" s="191" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S33M_Quote#0001</v>
+        <v>SEKAB3S33M_Quote#0000</v>
       </c>
       <c r="G13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -13712,7 +13732,7 @@
       </c>
       <c r="F14" s="191" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S3Y_Quote#0001</v>
+        <v>SEKAB3S3Y_Quote#0000</v>
       </c>
       <c r="G14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -13739,18 +13759,18 @@
         <v>SEKAB3S3Y=ICAP</v>
       </c>
       <c r="P14" s="253">
-        <v>-2.5000000000000001E-3</v>
+        <v>-0.13250000000000001</v>
       </c>
       <c r="Q14" s="253">
-        <v>4.7500000000000001E-2</v>
+        <v>-8.249999999999999E-2</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="2"/>
-        <v>2.2499999999999999E-2</v>
+        <v>-0.1075</v>
       </c>
       <c r="S14" s="19">
         <f t="shared" si="3"/>
-        <v>4.9999999999999996E-2</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="T14" s="87"/>
       <c r="U14" s="89">
@@ -13758,7 +13778,7 @@
       </c>
       <c r="V14" s="87"/>
       <c r="W14" s="19">
-        <v>2.2499999999999999E-2</v>
+        <v>-0.1075</v>
       </c>
       <c r="X14" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/100,Trigger)</f>
@@ -13783,7 +13803,7 @@
       </c>
       <c r="F15" s="191" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S4Y_Quote#0001</v>
+        <v>SEKAB3S4Y_Quote#0000</v>
       </c>
       <c r="G15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -13810,14 +13830,14 @@
         <v>SEKAB3S4Y=ICAP</v>
       </c>
       <c r="P15" s="253">
-        <v>0.2225</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" s="253">
-        <v>0.27250000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="2"/>
-        <v>0.2475</v>
+        <v>0.125</v>
       </c>
       <c r="S15" s="19">
         <f t="shared" si="3"/>
@@ -13829,7 +13849,7 @@
       </c>
       <c r="V15" s="87"/>
       <c r="W15" s="19">
-        <v>0.2475</v>
+        <v>0.125</v>
       </c>
       <c r="X15" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/100,Trigger)</f>
@@ -13854,7 +13874,7 @@
       </c>
       <c r="F16" s="191" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S5Y_Quote#0001</v>
+        <v>SEKAB3S5Y_Quote#0000</v>
       </c>
       <c r="G16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -13881,14 +13901,14 @@
         <v>SEKAB3S5Y=ICAP</v>
       </c>
       <c r="P16" s="253">
-        <v>0.45999999999999996</v>
+        <v>0.35249999999999998</v>
       </c>
       <c r="Q16" s="253">
-        <v>0.51</v>
+        <v>0.40250000000000002</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="2"/>
-        <v>0.48499999999999999</v>
+        <v>0.3775</v>
       </c>
       <c r="S16" s="19">
         <f t="shared" si="3"/>
@@ -13900,7 +13920,7 @@
       </c>
       <c r="V16" s="87"/>
       <c r="W16" s="19">
-        <v>0.48499999999999999</v>
+        <v>0.3775</v>
       </c>
       <c r="X16" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/100,Trigger)</f>
@@ -13925,7 +13945,7 @@
       </c>
       <c r="F17" s="191" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S6Y_Quote#0001</v>
+        <v>SEKAB3S6Y_Quote#0000</v>
       </c>
       <c r="G17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -13952,18 +13972,18 @@
         <v>SEKAB3S6Y=ICAP</v>
       </c>
       <c r="P17" s="253">
-        <v>0.6825</v>
+        <v>0.59000000000000008</v>
       </c>
       <c r="Q17" s="253">
-        <v>0.73250000000000004</v>
+        <v>0.64</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="2"/>
-        <v>0.70750000000000002</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="S17" s="19">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="T17" s="87"/>
       <c r="U17" s="89">
@@ -13971,11 +13991,11 @@
       </c>
       <c r="V17" s="87"/>
       <c r="W17" s="19">
-        <v>0.70750000000000002</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="X17" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/100,Trigger)</f>
-        <v>0</v>
+        <v>2.4999999999999849E-5</v>
       </c>
       <c r="Y17" s="166"/>
     </row>
@@ -13996,7 +14016,7 @@
       </c>
       <c r="F18" s="191" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S7Y_Quote#0001</v>
+        <v>SEKAB3S7Y_Quote#0000</v>
       </c>
       <c r="G18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -14023,14 +14043,14 @@
         <v>SEKAB3S7Y=ICAP</v>
       </c>
       <c r="P18" s="253">
-        <v>0.88500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q18" s="253">
-        <v>0.93499999999999994</v>
+        <v>0.85</v>
       </c>
       <c r="R18" s="19">
         <f t="shared" si="2"/>
-        <v>0.90999999999999992</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="S18" s="19">
         <f t="shared" si="3"/>
@@ -14042,11 +14062,11 @@
       </c>
       <c r="V18" s="87"/>
       <c r="W18" s="19">
-        <v>0.90999999999999992</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="X18" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/100,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000716E-5</v>
       </c>
       <c r="Y18" s="166"/>
     </row>
@@ -14067,7 +14087,7 @@
       </c>
       <c r="F19" s="191" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S8Y_Quote#0001</v>
+        <v>SEKAB3S8Y_Quote#0000</v>
       </c>
       <c r="G19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -14094,18 +14114,18 @@
         <v>SEKAB3S8Y=ICAP</v>
       </c>
       <c r="P19" s="253">
-        <v>1.06</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="Q19" s="253">
-        <v>1.1100000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="R19" s="19">
         <f t="shared" si="2"/>
-        <v>1.085</v>
+        <v>1.0050000000000001</v>
       </c>
       <c r="S19" s="19">
         <f t="shared" si="3"/>
-        <v>4.9999999999999822E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T19" s="87"/>
       <c r="U19" s="89">
@@ -14113,7 +14133,7 @@
       </c>
       <c r="V19" s="87"/>
       <c r="W19" s="19">
-        <v>1.085</v>
+        <v>1.0050000000000001</v>
       </c>
       <c r="X19" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F19,W19/100,Trigger)</f>
@@ -14138,7 +14158,7 @@
       </c>
       <c r="F20" s="191" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S9Y_Quote#0001</v>
+        <v>SEKAB3S9Y_Quote#0000</v>
       </c>
       <c r="G20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -14165,18 +14185,18 @@
         <v>SEKAB3S9Y=ICAP</v>
       </c>
       <c r="P20" s="253">
-        <v>1.2075</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="Q20" s="253">
-        <v>1.2575000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="R20" s="19">
         <f t="shared" si="2"/>
-        <v>1.2324999999999999</v>
+        <v>1.165</v>
       </c>
       <c r="S20" s="19">
         <f t="shared" si="3"/>
-        <v>4.9999999999999822E-2</v>
+        <v>5.0000000000000266E-2</v>
       </c>
       <c r="T20" s="87"/>
       <c r="U20" s="89">
@@ -14184,7 +14204,7 @@
       </c>
       <c r="V20" s="87"/>
       <c r="W20" s="19">
-        <v>1.2324999999999999</v>
+        <v>1.165</v>
       </c>
       <c r="X20" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/100,Trigger)</f>
@@ -14209,7 +14229,7 @@
       </c>
       <c r="F21" s="191" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S10Y_Quote#0001</v>
+        <v>SEKAB3S10Y_Quote#0000</v>
       </c>
       <c r="G21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -14236,18 +14256,18 @@
         <v>SEKAB3S10Y=ICAP</v>
       </c>
       <c r="P21" s="253">
+        <v>1.28</v>
+      </c>
+      <c r="Q21" s="253">
         <v>1.33</v>
-      </c>
-      <c r="Q21" s="253">
-        <v>1.38</v>
       </c>
       <c r="R21" s="19">
         <f t="shared" si="2"/>
-        <v>1.355</v>
+        <v>1.3050000000000002</v>
       </c>
       <c r="S21" s="19">
         <f t="shared" si="3"/>
-        <v>4.9999999999999822E-2</v>
+        <v>5.0000000000000266E-2</v>
       </c>
       <c r="T21" s="87"/>
       <c r="U21" s="89">
@@ -14255,7 +14275,7 @@
       </c>
       <c r="V21" s="87"/>
       <c r="W21" s="19">
-        <v>1.355</v>
+        <v>1.3050000000000002</v>
       </c>
       <c r="X21" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F21,W21/100,Trigger)</f>
@@ -14280,7 +14300,7 @@
       </c>
       <c r="F22" s="191" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S12Y_Quote#0001</v>
+        <v>SEKAB3S12Y_Quote#0000</v>
       </c>
       <c r="G22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -14307,14 +14327,14 @@
         <v>SEKAB3S12Y=ICAP</v>
       </c>
       <c r="P22" s="253">
-        <v>1.5325</v>
+        <v>1.5075000000000001</v>
       </c>
       <c r="Q22" s="253">
-        <v>1.5925</v>
+        <v>1.5674999999999999</v>
       </c>
       <c r="R22" s="19">
         <f t="shared" si="2"/>
-        <v>1.5625</v>
+        <v>1.5375000000000001</v>
       </c>
       <c r="S22" s="19">
         <f t="shared" si="3"/>
@@ -14326,7 +14346,7 @@
       </c>
       <c r="V22" s="87"/>
       <c r="W22" s="19">
-        <v>1.5625</v>
+        <v>1.5375000000000001</v>
       </c>
       <c r="X22" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/100,Trigger)</f>
@@ -14351,7 +14371,7 @@
       </c>
       <c r="F23" s="191" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S15Y_Quote#0001</v>
+        <v>SEKAB3S15Y_Quote#0000</v>
       </c>
       <c r="G23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -14422,7 +14442,7 @@
       </c>
       <c r="F24" s="191" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S20Y_Quote#0001</v>
+        <v>SEKAB3S20Y_Quote#0000</v>
       </c>
       <c r="G24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -14449,18 +14469,18 @@
         <v>SEKAB3S20Y=ICAP</v>
       </c>
       <c r="P24" s="253">
-        <v>1.9675</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="Q24" s="253">
-        <v>2.0474999999999999</v>
+        <v>2.11</v>
       </c>
       <c r="R24" s="19">
         <f t="shared" si="2"/>
-        <v>2.0074999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="S24" s="19">
         <f t="shared" si="3"/>
-        <v>7.9999999999999627E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="T24" s="87"/>
       <c r="U24" s="89">
@@ -14468,7 +14488,7 @@
       </c>
       <c r="V24" s="87"/>
       <c r="W24" s="19">
-        <v>2.0074999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="X24" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F24,W24/100,Trigger)</f>
@@ -14493,7 +14513,7 @@
       </c>
       <c r="F25" s="191" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S25Y_Quote#0001</v>
+        <v>SEKAB3S25Y_Quote#0000</v>
       </c>
       <c r="G25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -14520,18 +14540,18 @@
         <v>SEKAB3S25Y=ICAP</v>
       </c>
       <c r="P25" s="253">
-        <v>2.0550000000000002</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="Q25" s="253">
-        <v>2.1349999999999998</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="R25" s="19">
         <f t="shared" si="2"/>
-        <v>2.0949999999999998</v>
+        <v>2.1949999999999998</v>
       </c>
       <c r="S25" s="19">
         <f t="shared" si="3"/>
-        <v>7.9999999999999183E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="T25" s="87"/>
       <c r="U25" s="89">
@@ -14539,7 +14559,7 @@
       </c>
       <c r="V25" s="87"/>
       <c r="W25" s="19">
-        <v>2.0949999999999998</v>
+        <v>2.1949999999999998</v>
       </c>
       <c r="X25" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F25,W25/100,Trigger)</f>
@@ -14564,7 +14584,7 @@
       </c>
       <c r="F26" s="191" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S27Y_Quote#0001</v>
+        <v>SEKAB3S27Y_Quote#0000</v>
       </c>
       <c r="G26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -14635,7 +14655,7 @@
       </c>
       <c r="F27" s="191" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S30Y_Quote#0001</v>
+        <v>SEKAB3S30Y_Quote#0000</v>
       </c>
       <c r="G27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -14662,14 +14682,14 @@
         <v>SEKAB3S30Y=ICAP</v>
       </c>
       <c r="P27" s="253">
-        <v>2.0750000000000002</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="Q27" s="253">
-        <v>2.1749999999999998</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="R27" s="19">
         <f t="shared" si="2"/>
-        <v>2.125</v>
+        <v>2.2249999999999996</v>
       </c>
       <c r="S27" s="19">
         <f t="shared" si="3"/>
@@ -14681,7 +14701,7 @@
       </c>
       <c r="V27" s="87"/>
       <c r="W27" s="19">
-        <v>2.125</v>
+        <v>2.2249999999999996</v>
       </c>
       <c r="X27" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F27,W27/100,Trigger)</f>
@@ -14706,7 +14726,7 @@
       </c>
       <c r="F28" s="191" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S35Y_Quote#0001</v>
+        <v>SEKAB3S35Y_Quote#0000</v>
       </c>
       <c r="G28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -14777,7 +14797,7 @@
       </c>
       <c r="F29" s="191" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S40Y_Quote#0001</v>
+        <v>SEKAB3S40Y_Quote#0000</v>
       </c>
       <c r="G29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -14848,7 +14868,7 @@
       </c>
       <c r="F30" s="191" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S45Y_Quote#0001</v>
+        <v>SEKAB3S45Y_Quote#0000</v>
       </c>
       <c r="G30" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -14919,7 +14939,7 @@
       </c>
       <c r="F31" s="193" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S50Y_Quote#0001</v>
+        <v>SEKAB3S50Y_Quote#0000</v>
       </c>
       <c r="G31" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -15133,7 +15153,7 @@
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -15222,7 +15242,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="220">
         <f>_xll.ohTrigger(X5:X29)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y2" s="164"/>
     </row>
@@ -15274,7 +15294,7 @@
       <c r="N4" s="215"/>
       <c r="O4" s="61" t="str">
         <f>_xll.RData(O5:O29,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 15:51:34</v>
+        <v>Updated at 12:42:49</v>
       </c>
       <c r="P4" s="59" t="s">
         <v>71</v>
@@ -15318,7 +15338,7 @@
       </c>
       <c r="F5" s="191" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S6M_Quote#0001</v>
+        <v>SEK3S6S6M_Quote#0000</v>
       </c>
       <c r="G5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -15391,7 +15411,7 @@
       </c>
       <c r="F6" s="191" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S1Y_Quote#0001</v>
+        <v>SEK3S6S1Y_Quote#0000</v>
       </c>
       <c r="G6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -15418,14 +15438,14 @@
         <v>SEK3S6S1Y=ICAP</v>
       </c>
       <c r="P6" s="253">
-        <v>10.71</v>
+        <v>11.55</v>
       </c>
       <c r="Q6" s="253">
         <v>0</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" ref="R6:R29" si="2">IF($R$2,IF(ISNUMBER(P6),P6,#NUM!),IFERROR(AVERAGE(P6:Q6),#NUM!))</f>
-        <v>10.71</v>
+        <v>11.55</v>
       </c>
       <c r="S6" s="19">
         <f t="shared" ref="S6:S29" si="3">(R6-P6)*2</f>
@@ -15437,7 +15457,7 @@
       </c>
       <c r="V6" s="87"/>
       <c r="W6" s="19">
-        <v>10.71</v>
+        <v>11.55</v>
       </c>
       <c r="X6" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
@@ -15462,7 +15482,7 @@
       </c>
       <c r="F7" s="191" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S18M_Quote#0001</v>
+        <v>SEK3S6S18M_Quote#0000</v>
       </c>
       <c r="G7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -15533,7 +15553,7 @@
       </c>
       <c r="F8" s="191" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S2Y_Quote#0001</v>
+        <v>SEK3S6S2Y_Quote#0000</v>
       </c>
       <c r="G8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -15560,14 +15580,14 @@
         <v>SEK3S6S2Y=ICAP</v>
       </c>
       <c r="P8" s="253">
-        <v>10.35</v>
+        <v>10.77</v>
       </c>
       <c r="Q8" s="253">
         <v>0</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="2"/>
-        <v>10.35</v>
+        <v>10.77</v>
       </c>
       <c r="S8" s="19">
         <f t="shared" si="3"/>
@@ -15579,7 +15599,7 @@
       </c>
       <c r="V8" s="87"/>
       <c r="W8" s="19">
-        <v>10.35</v>
+        <v>10.77</v>
       </c>
       <c r="X8" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F8,W8/10000,Trigger)</f>
@@ -15604,7 +15624,7 @@
       </c>
       <c r="F9" s="191" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S30M_Quote#0001</v>
+        <v>SEK3S6S30M_Quote#0000</v>
       </c>
       <c r="G9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -15675,7 +15695,7 @@
       </c>
       <c r="F10" s="191" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S3Y_Quote#0001</v>
+        <v>SEK3S6S3Y_Quote#0000</v>
       </c>
       <c r="G10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -15702,14 +15722,14 @@
         <v>SEK3S6S3Y=ICAP</v>
       </c>
       <c r="P10" s="253">
-        <v>10.220000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="Q10" s="253">
         <v>0</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="2"/>
-        <v>10.220000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="S10" s="19">
         <f t="shared" si="3"/>
@@ -15721,7 +15741,7 @@
       </c>
       <c r="V10" s="87"/>
       <c r="W10" s="19">
-        <v>10.220000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="X10" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
@@ -15746,7 +15766,7 @@
       </c>
       <c r="F11" s="191" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S42M_Quote#0001</v>
+        <v>SEK3S6S42M_Quote#0000</v>
       </c>
       <c r="G11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -15817,7 +15837,7 @@
       </c>
       <c r="F12" s="191" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S4Y_Quote#0001</v>
+        <v>SEK3S6S4Y_Quote#0000</v>
       </c>
       <c r="G12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -15844,14 +15864,14 @@
         <v>SEK3S6S4Y=ICAP</v>
       </c>
       <c r="P12" s="253">
-        <v>10.130000000000001</v>
+        <v>10.33</v>
       </c>
       <c r="Q12" s="253">
         <v>0</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="2"/>
-        <v>10.130000000000001</v>
+        <v>10.33</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="3"/>
@@ -15863,7 +15883,7 @@
       </c>
       <c r="V12" s="87"/>
       <c r="W12" s="19">
-        <v>10.130000000000001</v>
+        <v>10.33</v>
       </c>
       <c r="X12" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
@@ -15888,7 +15908,7 @@
       </c>
       <c r="F13" s="191" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S54M_Quote#0001</v>
+        <v>SEK3S6S54M_Quote#0000</v>
       </c>
       <c r="G13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -15959,7 +15979,7 @@
       </c>
       <c r="F14" s="191" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S5Y_Quote#0001</v>
+        <v>SEK3S6S5Y_Quote#0000</v>
       </c>
       <c r="G14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -15986,14 +16006,14 @@
         <v>SEK3S6S5Y=ICAP</v>
       </c>
       <c r="P14" s="253">
-        <v>10.06</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="Q14" s="253">
         <v>0</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="2"/>
-        <v>10.06</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="S14" s="19">
         <f t="shared" si="3"/>
@@ -16005,7 +16025,7 @@
       </c>
       <c r="V14" s="87"/>
       <c r="W14" s="19">
-        <v>10.06</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="X14" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/10000,Trigger)</f>
@@ -16030,7 +16050,7 @@
       </c>
       <c r="F15" s="191" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S6Y_Quote#0001</v>
+        <v>SEK3S6S6Y_Quote#0000</v>
       </c>
       <c r="G15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -16057,14 +16077,14 @@
         <v>SEK3S6S6Y=ICAP</v>
       </c>
       <c r="P15" s="253">
-        <v>9.99</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="Q15" s="253">
         <v>0</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="2"/>
-        <v>9.99</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="S15" s="19">
         <f t="shared" si="3"/>
@@ -16076,7 +16096,7 @@
       </c>
       <c r="V15" s="87"/>
       <c r="W15" s="19">
-        <v>9.99</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="X15" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
@@ -16101,7 +16121,7 @@
       </c>
       <c r="F16" s="191" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S7Y_Quote#0001</v>
+        <v>SEK3S6S7Y_Quote#0000</v>
       </c>
       <c r="G16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -16128,14 +16148,14 @@
         <v>SEK3S6S7Y=ICAP</v>
       </c>
       <c r="P16" s="253">
-        <v>9.93</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Q16" s="253">
         <v>0</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="2"/>
-        <v>9.93</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="S16" s="19">
         <f t="shared" si="3"/>
@@ -16147,7 +16167,7 @@
       </c>
       <c r="V16" s="87"/>
       <c r="W16" s="19">
-        <v>9.93</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="X16" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/10000,Trigger)</f>
@@ -16172,7 +16192,7 @@
       </c>
       <c r="F17" s="191" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S8Y_Quote#0001</v>
+        <v>SEK3S6S8Y_Quote#0000</v>
       </c>
       <c r="G17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -16199,14 +16219,14 @@
         <v>SEK3S6S8Y=ICAP</v>
       </c>
       <c r="P17" s="253">
-        <v>9.8800000000000008</v>
+        <v>9.98</v>
       </c>
       <c r="Q17" s="253">
         <v>0</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="2"/>
-        <v>9.8800000000000008</v>
+        <v>9.98</v>
       </c>
       <c r="S17" s="19">
         <f t="shared" si="3"/>
@@ -16218,7 +16238,7 @@
       </c>
       <c r="V17" s="87"/>
       <c r="W17" s="19">
-        <v>9.8800000000000008</v>
+        <v>9.98</v>
       </c>
       <c r="X17" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/10000,Trigger)</f>
@@ -16243,7 +16263,7 @@
       </c>
       <c r="F18" s="191" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S9Y_Quote#0001</v>
+        <v>SEK3S6S9Y_Quote#0000</v>
       </c>
       <c r="G18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -16270,14 +16290,14 @@
         <v>SEK3S6S9Y=ICAP</v>
       </c>
       <c r="P18" s="253">
-        <v>9.83</v>
+        <v>9.91</v>
       </c>
       <c r="Q18" s="253">
         <v>0</v>
       </c>
       <c r="R18" s="19">
         <f t="shared" si="2"/>
-        <v>9.83</v>
+        <v>9.91</v>
       </c>
       <c r="S18" s="19">
         <f t="shared" si="3"/>
@@ -16289,7 +16309,7 @@
       </c>
       <c r="V18" s="87"/>
       <c r="W18" s="19">
-        <v>9.83</v>
+        <v>9.91</v>
       </c>
       <c r="X18" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
@@ -16314,7 +16334,7 @@
       </c>
       <c r="F19" s="191" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S10Y_Quote#0001</v>
+        <v>SEK3S6S10Y_Quote#0000</v>
       </c>
       <c r="G19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -16341,14 +16361,14 @@
         <v>SEK3S6S10Y=ICAP</v>
       </c>
       <c r="P19" s="253">
-        <v>9.75</v>
+        <v>9.81</v>
       </c>
       <c r="Q19" s="253">
         <v>0</v>
       </c>
       <c r="R19" s="19">
         <f t="shared" si="2"/>
-        <v>9.75</v>
+        <v>9.81</v>
       </c>
       <c r="S19" s="19">
         <f t="shared" si="3"/>
@@ -16360,11 +16380,11 @@
       </c>
       <c r="V19" s="87"/>
       <c r="W19" s="19">
-        <v>9.75</v>
+        <v>9.81</v>
       </c>
       <c r="X19" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F19,W19/10000,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999991589E-7</v>
       </c>
       <c r="Y19" s="166"/>
     </row>
@@ -16385,7 +16405,7 @@
       </c>
       <c r="F20" s="191" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S12Y_Quote#0001</v>
+        <v>SEK3S6S12Y_Quote#0000</v>
       </c>
       <c r="G20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -16412,14 +16432,14 @@
         <v>SEK3S6S12Y=ICAP</v>
       </c>
       <c r="P20" s="253">
-        <v>9.44</v>
+        <v>9.49</v>
       </c>
       <c r="Q20" s="253">
         <v>0</v>
       </c>
       <c r="R20" s="19">
         <f t="shared" si="2"/>
-        <v>9.44</v>
+        <v>9.49</v>
       </c>
       <c r="S20" s="19">
         <f t="shared" si="3"/>
@@ -16431,7 +16451,7 @@
       </c>
       <c r="V20" s="87"/>
       <c r="W20" s="19">
-        <v>9.44</v>
+        <v>9.49</v>
       </c>
       <c r="X20" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
@@ -16456,7 +16476,7 @@
       </c>
       <c r="F21" s="191" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S15Y_Quote#0001</v>
+        <v>SEK3S6S15Y_Quote#0000</v>
       </c>
       <c r="G21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -16483,14 +16503,14 @@
         <v>SEK3S6S15Y=ICAP</v>
       </c>
       <c r="P21" s="253">
-        <v>8.73</v>
+        <v>8.75</v>
       </c>
       <c r="Q21" s="253">
         <v>0</v>
       </c>
       <c r="R21" s="19">
         <f t="shared" si="2"/>
-        <v>8.73</v>
+        <v>8.75</v>
       </c>
       <c r="S21" s="19">
         <f t="shared" si="3"/>
@@ -16502,7 +16522,7 @@
       </c>
       <c r="V21" s="87"/>
       <c r="W21" s="19">
-        <v>8.73</v>
+        <v>8.75</v>
       </c>
       <c r="X21" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F21,W21/10000,Trigger)</f>
@@ -16527,7 +16547,7 @@
       </c>
       <c r="F22" s="191" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S20Y_Quote#0001</v>
+        <v>SEK3S6S20Y_Quote#0000</v>
       </c>
       <c r="G22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -16554,14 +16574,14 @@
         <v>SEK3S6S20Y=ICAP</v>
       </c>
       <c r="P22" s="253">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="Q22" s="253">
         <v>0</v>
       </c>
       <c r="R22" s="19">
         <f t="shared" si="2"/>
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="S22" s="19">
         <f t="shared" si="3"/>
@@ -16573,7 +16593,7 @@
       </c>
       <c r="V22" s="87"/>
       <c r="W22" s="19">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="X22" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/10000,Trigger)</f>
@@ -16598,7 +16618,7 @@
       </c>
       <c r="F23" s="191" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S25Y_Quote#0001</v>
+        <v>SEK3S6S25Y_Quote#0000</v>
       </c>
       <c r="G23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -16625,14 +16645,14 @@
         <v>SEK3S6S25Y=ICAP</v>
       </c>
       <c r="P23" s="253">
-        <v>7.02</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="253">
         <v>0</v>
       </c>
       <c r="R23" s="19">
         <f t="shared" si="2"/>
-        <v>7.02</v>
+        <v>7</v>
       </c>
       <c r="S23" s="19">
         <f t="shared" si="3"/>
@@ -16644,11 +16664,11 @@
       </c>
       <c r="V23" s="87"/>
       <c r="W23" s="19">
-        <v>7.02</v>
+        <v>7</v>
       </c>
       <c r="X23" s="21">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000243E-6</v>
       </c>
       <c r="Y23" s="166"/>
     </row>
@@ -16669,7 +16689,7 @@
       </c>
       <c r="F24" s="191" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S27Y_Quote#0001</v>
+        <v>SEK3S6S27Y_Quote#0000</v>
       </c>
       <c r="G24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -16740,7 +16760,7 @@
       </c>
       <c r="F25" s="191" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S30Y_Quote#0001</v>
+        <v>SEK3S6S30Y_Quote#0000</v>
       </c>
       <c r="G25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -16811,7 +16831,7 @@
       </c>
       <c r="F26" s="191" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S35Y_Quote#0001</v>
+        <v>SEK3S6S35Y_Quote#0000</v>
       </c>
       <c r="G26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -16882,7 +16902,7 @@
       </c>
       <c r="F27" s="191" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S40Y_Quote#0001</v>
+        <v>SEK3S6S40Y_Quote#0000</v>
       </c>
       <c r="G27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -16953,7 +16973,7 @@
       </c>
       <c r="F28" s="191" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S45Y_Quote#0001</v>
+        <v>SEK3S6S45Y_Quote#0000</v>
       </c>
       <c r="G28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -17024,7 +17044,7 @@
       </c>
       <c r="F29" s="193" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S50Y_Quote#0001</v>
+        <v>SEK3S6S50Y_Quote#0000</v>
       </c>
       <c r="G29" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>

--- a/QuantLibXL/Data2/XLS/SEK/SEK_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_Market.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="167">
   <si>
     <t>Currency</t>
   </si>
@@ -607,6 +607,9 @@
   <si>
     <t>NDA_RAW</t>
   </si>
+  <si>
+    <t>Last Quote 29/04/2016</t>
+  </si>
 </sst>
 </file>
 
@@ -1028,7 +1031,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1566,6 +1569,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="8" fillId="9" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="9" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Euro" xfId="15"/>
@@ -1748,74 +1755,68 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 11:14:59</v>
+        <v>Updated at 10:54:53</v>
         <stp/>
-        <stp>{B2B3DF6B-2597-40C0-A976-8C4076A38D54}_x0000_</stp>
-        <tr r="N17" s="64"/>
+        <stp>{78B4672C-23BA-4E52-AD7A-C2FAE0F61C3E}_x0000_</stp>
+        <tr r="N14" s="64"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 11:14:58</v>
+        <v>Updated at 10:54:52</v>
         <stp/>
-        <stp>{273DA303-5DD2-4636-9EF1-1EF91B7ED35E}</stp>
+        <stp>{1AFC6872-4279-413C-ACC7-297A5F67F6E8}</stp>
+        <tr r="O4" s="69"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:54:52</v>
+        <stp/>
+        <stp>{041A5979-46CB-466F-B5DB-A912BBDF5067}</stp>
         <tr r="N3" s="64"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:42:49</v>
+        <v>Updated at 10:54:52</v>
         <stp/>
-        <stp>{1CE2D162-BFE9-42F3-914B-B23045E08820}</stp>
+        <stp>{663B0353-7198-48D6-AD2A-2A6388230508}</stp>
+        <tr r="N4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:57:04</v>
+        <stp/>
+        <stp>{ED95857A-C5DE-4D10-B8E0-2CA10140B12D}</stp>
+        <tr r="N4" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:54:52</v>
+        <stp/>
+        <stp>{F8B40189-EAB3-4138-AB2F-36FB943E8AA3}</stp>
+        <tr r="N4" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:54:52</v>
+        <stp/>
+        <stp>{38DF15CC-1657-4B9B-8DB8-A0DEF94D4404}</stp>
         <tr r="O4" s="67"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:33:34</v>
+        <v>Updated at 10:54:52</v>
         <stp/>
-        <stp>{06ACA8FF-28A4-4B1B-8839-C2B8711ACCD8}</stp>
-        <tr r="N4" s="70"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:13:49</v>
-        <stp/>
-        <stp>{D05FC835-0A67-45E6-9274-1559EBD34F39}</stp>
-        <tr r="O4" s="69"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 12:43:22</v>
-        <stp/>
-        <stp>{12D54F27-B1C6-4587-A5C5-76180D8F72B3}</stp>
-        <tr r="N4" s="16"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 12:35:18</v>
-        <stp/>
-        <stp>{43D81DC0-65D7-4BFC-9481-06BEFC521279}</stp>
-        <tr r="N4" s="22"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 12:54:33</v>
-        <stp/>
-        <stp>{2AA913B3-9909-4E12-8CCF-06412E008A94}</stp>
+        <stp>{B76FCFB6-CDC9-49B5-9002-CAE92C9BD170}</stp>
         <tr r="O4" s="66"/>
       </tp>
     </main>
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 11:14:59</v>
+        <v>Updated at 10:54:53</v>
         <stp/>
-        <stp>{BD6A4C05-3569-4263-A262-B9555D9650AA}_x0000_</stp>
-        <tr r="N14" s="64"/>
+        <stp>{3D2BC27B-AFCC-4D35-B564-1471CE396088}_x0000_</stp>
+        <tr r="N20" s="64"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:14:59</v>
+        <v>Updated at 10:54:53</v>
         <stp/>
-        <stp>{065335AE-18BC-4422-A18D-C5F8B62EDA5E}_x0000_</stp>
-        <tr r="N20" s="64"/>
+        <stp>{2CBEE298-B5F1-48AB-A789-EB630A38FB78}_x0000_</stp>
+        <tr r="N17" s="64"/>
       </tp>
     </main>
   </volType>
@@ -2131,7 +2132,7 @@
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Nov 13 2015 12:25:56</v>
+        <v>QuantLibXL 1.8.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jun 13 2016 12:22:22</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -2163,9 +2164,7 @@
       <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="110">
-        <v>42335.468298611115</v>
-      </c>
+      <c r="D4" s="110"/>
       <c r="E4" s="102"/>
       <c r="G4" s="101"/>
       <c r="H4" s="113" t="s">
@@ -2183,7 +2182,7 @@
       </c>
       <c r="D5" s="108">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42335</v>
+        <v>42570</v>
       </c>
       <c r="E5" s="102"/>
       <c r="G5" s="101"/>
@@ -2212,7 +2211,7 @@
       </c>
       <c r="D7" s="50">
         <f>_xll.ohTrigger(Deposits!P2,FRA3M!W2,'OIS Short'!W2,Swaps3M!X2,BasisSwap3M6M!X2,BasisSwap1M3M!X2,OIS!W2)</f>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="E7" s="102"/>
     </row>
@@ -2223,7 +2222,7 @@
       </c>
       <c r="D8" s="109">
         <f>_xll.ohTrigger(Stibor!R5:R10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="102"/>
     </row>
@@ -2550,7 +2549,7 @@
         <v>51</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="121"/>
     </row>
@@ -2638,7 +2637,7 @@
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2727,7 +2726,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="223">
         <f>_xll.ohTrigger(X5:X29)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="164"/>
     </row>
@@ -2779,7 +2778,7 @@
       <c r="N4" s="215"/>
       <c r="O4" s="61" t="str">
         <f>_xll.RData(O5:O29,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:13:49</v>
+        <v>Updated at 10:54:52</v>
       </c>
       <c r="P4" s="59" t="s">
         <v>71</v>
@@ -2787,8 +2786,8 @@
       <c r="Q4" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="58" t="s">
-        <v>133</v>
+      <c r="R4" s="277" t="s">
+        <v>166</v>
       </c>
       <c r="S4" s="58" t="s">
         <v>155</v>
@@ -2823,7 +2822,7 @@
       </c>
       <c r="F5" s="191" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S6M_Quote#0000</v>
+        <v>SEK1S3S6M_Quote#0001</v>
       </c>
       <c r="G5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2857,7 +2856,6 @@
         <v>110</v>
       </c>
       <c r="R5" s="19" t="e">
-        <f>IF($R$2,IF(ISNUMBER(P5),P5,#NUM!),IFERROR(AVERAGE(P5:Q5),#NUM!))</f>
         <v>#NUM!</v>
       </c>
       <c r="S5" s="19" t="e">
@@ -2896,7 +2894,7 @@
       </c>
       <c r="F6" s="191" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S1Y_Quote#0000</v>
+        <v>SEK1S3S1Y_Quote#0001</v>
       </c>
       <c r="G6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2922,19 +2920,18 @@
       <c r="O6" s="84" t="str">
         <v>SEK1S3S1Y=ICAP</v>
       </c>
-      <c r="P6" s="253">
-        <v>7.99</v>
-      </c>
-      <c r="Q6" s="253">
-        <v>0</v>
-      </c>
-      <c r="R6" s="19">
-        <f t="shared" ref="R6:R29" si="2">IF($R$2,IF(ISNUMBER(P6),P6,#NUM!),IFERROR(AVERAGE(P6:Q6),#NUM!))</f>
-        <v>7.99</v>
-      </c>
-      <c r="S6" s="19">
+      <c r="P6" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" s="278">
+        <v>7.5594000000000001</v>
+      </c>
+      <c r="S6" s="19" t="e">
         <f>(R6-P6)*2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T6" s="87"/>
       <c r="U6" s="89">
@@ -2942,11 +2939,11 @@
       </c>
       <c r="V6" s="87"/>
       <c r="W6" s="19">
-        <v>7.99</v>
-      </c>
-      <c r="X6" s="21">
+        <v>7.5594000000000001</v>
+      </c>
+      <c r="X6" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="166"/>
     </row>
@@ -2967,7 +2964,7 @@
       </c>
       <c r="F7" s="191" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S18M_Quote#0000</v>
+        <v>SEK1S3S18M_Quote#0001</v>
       </c>
       <c r="G7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3000,11 +2997,10 @@
         <v>110</v>
       </c>
       <c r="R7" s="19" t="e">
-        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="S7" s="19" t="e">
-        <f t="shared" ref="S7:S29" si="3">(R7-P7)*2</f>
+        <f t="shared" ref="S7:S29" si="2">(R7-P7)*2</f>
         <v>#NUM!</v>
       </c>
       <c r="T7" s="87"/>
@@ -3038,7 +3034,7 @@
       </c>
       <c r="F8" s="191" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S2Y_Quote#0000</v>
+        <v>SEK1S3S2Y_Quote#0001</v>
       </c>
       <c r="G8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3064,19 +3060,18 @@
       <c r="O8" s="84" t="str">
         <v>SEK1S3S2Y=ICAP</v>
       </c>
-      <c r="P8" s="253">
-        <v>9.24</v>
-      </c>
-      <c r="Q8" s="253">
-        <v>0</v>
-      </c>
-      <c r="R8" s="19">
+      <c r="P8" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R8" s="278">
+        <v>9.3421000000000003</v>
+      </c>
+      <c r="S8" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>9.24</v>
-      </c>
-      <c r="S8" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T8" s="87"/>
       <c r="U8" s="89">
@@ -3084,11 +3079,11 @@
       </c>
       <c r="V8" s="87"/>
       <c r="W8" s="19">
-        <v>9.24</v>
-      </c>
-      <c r="X8" s="21">
+        <v>9.3421000000000003</v>
+      </c>
+      <c r="X8" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,W8/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="166"/>
     </row>
@@ -3109,7 +3104,7 @@
       </c>
       <c r="F9" s="191" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S30M_Quote#0000</v>
+        <v>SEK1S3S30M_Quote#0001</v>
       </c>
       <c r="G9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3142,11 +3137,10 @@
         <v>110</v>
       </c>
       <c r="R9" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S9" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S9" s="19" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="T9" s="87"/>
@@ -3180,7 +3174,7 @@
       </c>
       <c r="F10" s="191" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S3Y_Quote#0000</v>
+        <v>SEK1S3S3Y_Quote#0001</v>
       </c>
       <c r="G10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3206,19 +3200,18 @@
       <c r="O10" s="84" t="str">
         <v>SEK1S3S3Y=ICAP</v>
       </c>
-      <c r="P10" s="253">
-        <v>9.81</v>
-      </c>
-      <c r="Q10" s="253">
-        <v>0</v>
-      </c>
-      <c r="R10" s="19">
+      <c r="P10" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="278">
+        <v>9.9282000000000004</v>
+      </c>
+      <c r="S10" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>9.81</v>
-      </c>
-      <c r="S10" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T10" s="87"/>
       <c r="U10" s="89">
@@ -3226,11 +3219,11 @@
       </c>
       <c r="V10" s="87"/>
       <c r="W10" s="19">
-        <v>9.81</v>
-      </c>
-      <c r="X10" s="21">
+        <v>9.9282000000000004</v>
+      </c>
+      <c r="X10" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="166"/>
     </row>
@@ -3251,7 +3244,7 @@
       </c>
       <c r="F11" s="191" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S42M_Quote#0000</v>
+        <v>SEK1S3S42M_Quote#0001</v>
       </c>
       <c r="G11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3284,11 +3277,10 @@
         <v>110</v>
       </c>
       <c r="R11" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S11" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S11" s="19" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="T11" s="87"/>
@@ -3322,7 +3314,7 @@
       </c>
       <c r="F12" s="191" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S4Y_Quote#0000</v>
+        <v>SEK1S3S4Y_Quote#0001</v>
       </c>
       <c r="G12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3348,19 +3340,18 @@
       <c r="O12" s="84" t="str">
         <v>SEK1S3S4Y=ICAP</v>
       </c>
-      <c r="P12" s="253">
-        <v>10.07</v>
-      </c>
-      <c r="Q12" s="253">
-        <v>0</v>
-      </c>
-      <c r="R12" s="19">
+      <c r="P12" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="278">
+        <v>10.2095</v>
+      </c>
+      <c r="S12" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>10.07</v>
-      </c>
-      <c r="S12" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T12" s="87"/>
       <c r="U12" s="89">
@@ -3368,11 +3359,11 @@
       </c>
       <c r="V12" s="87"/>
       <c r="W12" s="19">
-        <v>10.07</v>
-      </c>
-      <c r="X12" s="21">
+        <v>10.2095</v>
+      </c>
+      <c r="X12" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="166"/>
     </row>
@@ -3393,7 +3384,7 @@
       </c>
       <c r="F13" s="191" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S54M_Quote#0000</v>
+        <v>SEK1S3S54M_Quote#0001</v>
       </c>
       <c r="G13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3426,11 +3417,10 @@
         <v>110</v>
       </c>
       <c r="R13" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S13" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S13" s="19" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="T13" s="87"/>
@@ -3464,7 +3454,7 @@
       </c>
       <c r="F14" s="191" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S5Y_Quote#0000</v>
+        <v>SEK1S3S5Y_Quote#0001</v>
       </c>
       <c r="G14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -3490,19 +3480,18 @@
       <c r="O14" s="84" t="str">
         <v>SEK1S3S5Y=ICAP</v>
       </c>
-      <c r="P14" s="253">
-        <v>10.1</v>
-      </c>
-      <c r="Q14" s="253">
-        <v>0</v>
-      </c>
-      <c r="R14" s="19">
+      <c r="P14" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R14" s="278">
+        <v>10.260199999999999</v>
+      </c>
+      <c r="S14" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>10.1</v>
-      </c>
-      <c r="S14" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T14" s="87"/>
       <c r="U14" s="89">
@@ -3510,11 +3499,11 @@
       </c>
       <c r="V14" s="87"/>
       <c r="W14" s="19">
-        <v>10.1</v>
-      </c>
-      <c r="X14" s="21">
+        <v>10.260199999999999</v>
+      </c>
+      <c r="X14" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y14" s="166"/>
     </row>
@@ -3535,7 +3524,7 @@
       </c>
       <c r="F15" s="191" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S6Y_Quote#0000</v>
+        <v>SEK1S3S6Y_Quote#0001</v>
       </c>
       <c r="G15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3561,19 +3550,18 @@
       <c r="O15" s="84" t="str">
         <v>SEK1S3S6Y=ICAP</v>
       </c>
-      <c r="P15" s="253">
-        <v>10.1</v>
-      </c>
-      <c r="Q15" s="253">
-        <v>0</v>
-      </c>
-      <c r="R15" s="19">
+      <c r="P15" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="278">
+        <v>10.2699</v>
+      </c>
+      <c r="S15" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>10.1</v>
-      </c>
-      <c r="S15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T15" s="87"/>
       <c r="U15" s="89">
@@ -3581,11 +3569,11 @@
       </c>
       <c r="V15" s="87"/>
       <c r="W15" s="19">
-        <v>10.1</v>
-      </c>
-      <c r="X15" s="21">
+        <v>10.2699</v>
+      </c>
+      <c r="X15" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="166"/>
     </row>
@@ -3606,7 +3594,7 @@
       </c>
       <c r="F16" s="191" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S7Y_Quote#0000</v>
+        <v>SEK1S3S7Y_Quote#0001</v>
       </c>
       <c r="G16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3632,19 +3620,18 @@
       <c r="O16" s="84" t="str">
         <v>SEK1S3S7Y=ICAP</v>
       </c>
-      <c r="P16" s="253">
-        <v>10.09</v>
-      </c>
-      <c r="Q16" s="253">
-        <v>0</v>
-      </c>
-      <c r="R16" s="19">
+      <c r="P16" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" s="278">
+        <v>10.278700000000001</v>
+      </c>
+      <c r="S16" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>10.09</v>
-      </c>
-      <c r="S16" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T16" s="87"/>
       <c r="U16" s="89">
@@ -3652,11 +3639,11 @@
       </c>
       <c r="V16" s="87"/>
       <c r="W16" s="19">
-        <v>10.09</v>
-      </c>
-      <c r="X16" s="21">
+        <v>10.278700000000001</v>
+      </c>
+      <c r="X16" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="166"/>
     </row>
@@ -3677,7 +3664,7 @@
       </c>
       <c r="F17" s="191" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S8Y_Quote#0000</v>
+        <v>SEK1S3S8Y_Quote#0001</v>
       </c>
       <c r="G17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3703,19 +3690,18 @@
       <c r="O17" s="84" t="str">
         <v>SEK1S3S8Y=ICAP</v>
       </c>
-      <c r="P17" s="253">
-        <v>10.07</v>
-      </c>
-      <c r="Q17" s="253">
-        <v>0</v>
-      </c>
-      <c r="R17" s="19">
+      <c r="P17" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="278">
+        <v>10.269399999999999</v>
+      </c>
+      <c r="S17" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>10.07</v>
-      </c>
-      <c r="S17" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T17" s="87"/>
       <c r="U17" s="89">
@@ -3723,11 +3709,11 @@
       </c>
       <c r="V17" s="87"/>
       <c r="W17" s="19">
-        <v>10.07</v>
-      </c>
-      <c r="X17" s="21">
+        <v>10.269399999999999</v>
+      </c>
+      <c r="X17" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y17" s="166"/>
     </row>
@@ -3748,7 +3734,7 @@
       </c>
       <c r="F18" s="191" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S9Y_Quote#0000</v>
+        <v>SEK1S3S9Y_Quote#0001</v>
       </c>
       <c r="G18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -3774,19 +3760,18 @@
       <c r="O18" s="84" t="str">
         <v>SEK1S3S9Y=ICAP</v>
       </c>
-      <c r="P18" s="253">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="Q18" s="253">
-        <v>0</v>
-      </c>
-      <c r="R18" s="19">
+      <c r="P18" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R18" s="278">
+        <v>10.255100000000001</v>
+      </c>
+      <c r="S18" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>10.050000000000001</v>
-      </c>
-      <c r="S18" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T18" s="87"/>
       <c r="U18" s="89">
@@ -3794,11 +3779,11 @@
       </c>
       <c r="V18" s="87"/>
       <c r="W18" s="19">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="X18" s="21">
+        <v>10.255100000000001</v>
+      </c>
+      <c r="X18" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>1.0000000000001327E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="Y18" s="166"/>
     </row>
@@ -3819,7 +3804,7 @@
       </c>
       <c r="F19" s="191" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S10Y_Quote#0000</v>
+        <v>SEK1S3S10Y_Quote#0001</v>
       </c>
       <c r="G19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3845,19 +3830,18 @@
       <c r="O19" s="84" t="str">
         <v>SEK1S3S10Y=ICAP</v>
       </c>
-      <c r="P19" s="253">
-        <v>10.02</v>
-      </c>
-      <c r="Q19" s="253">
-        <v>0</v>
-      </c>
-      <c r="R19" s="19">
+      <c r="P19" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R19" s="278">
+        <v>10.2402</v>
+      </c>
+      <c r="S19" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>10.02</v>
-      </c>
-      <c r="S19" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T19" s="87"/>
       <c r="U19" s="89">
@@ -3865,11 +3849,11 @@
       </c>
       <c r="V19" s="87"/>
       <c r="W19" s="19">
-        <v>10.02</v>
-      </c>
-      <c r="X19" s="21">
+        <v>10.2402</v>
+      </c>
+      <c r="X19" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,W19/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y19" s="166"/>
     </row>
@@ -3890,7 +3874,7 @@
       </c>
       <c r="F20" s="191" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S12Y_Quote#0000</v>
+        <v>SEK1S3S12Y_Quote#0001</v>
       </c>
       <c r="G20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3916,19 +3900,18 @@
       <c r="O20" s="84" t="str">
         <v>SEK1S3S12Y=ICAP</v>
       </c>
-      <c r="P20" s="253">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="Q20" s="253">
-        <v>0</v>
-      </c>
-      <c r="R20" s="19">
+      <c r="P20" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" s="278">
+        <v>10.2103</v>
+      </c>
+      <c r="S20" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="S20" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T20" s="87"/>
       <c r="U20" s="89">
@@ -3936,11 +3919,11 @@
       </c>
       <c r="V20" s="87"/>
       <c r="W20" s="19">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="X20" s="21">
+        <v>10.2103</v>
+      </c>
+      <c r="X20" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>9.9999999999991589E-7</v>
+        <v>#N/A</v>
       </c>
       <c r="Y20" s="166"/>
     </row>
@@ -3961,7 +3944,7 @@
       </c>
       <c r="F21" s="191" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S15Y_Quote#0000</v>
+        <v>SEK1S3S15Y_Quote#0001</v>
       </c>
       <c r="G21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3987,19 +3970,18 @@
       <c r="O21" s="84" t="str">
         <v>SEK1S3S15Y=ICAP</v>
       </c>
-      <c r="P21" s="253">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="Q21" s="253">
-        <v>0</v>
-      </c>
-      <c r="R21" s="19">
+      <c r="P21" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R21" s="278">
+        <v>9.9648000000000003</v>
+      </c>
+      <c r="S21" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="S21" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T21" s="87"/>
       <c r="U21" s="89">
@@ -4007,11 +3989,11 @@
       </c>
       <c r="V21" s="87"/>
       <c r="W21" s="19">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="X21" s="21">
+        <v>9.9648000000000003</v>
+      </c>
+      <c r="X21" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F21,W21/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y21" s="166"/>
     </row>
@@ -4032,7 +4014,7 @@
       </c>
       <c r="F22" s="191" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S20Y_Quote#0000</v>
+        <v>SEK1S3S20Y_Quote#0001</v>
       </c>
       <c r="G22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -4058,19 +4040,18 @@
       <c r="O22" s="84" t="str">
         <v>SEK1S3S20Y=ICAP</v>
       </c>
-      <c r="P22" s="253">
-        <v>9.18</v>
-      </c>
-      <c r="Q22" s="253">
-        <v>0</v>
-      </c>
-      <c r="R22" s="19">
+      <c r="P22" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R22" s="278">
+        <v>9.4449000000000005</v>
+      </c>
+      <c r="S22" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>9.18</v>
-      </c>
-      <c r="S22" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T22" s="87"/>
       <c r="U22" s="89">
@@ -4078,11 +4059,11 @@
       </c>
       <c r="V22" s="87"/>
       <c r="W22" s="19">
-        <v>9.18</v>
-      </c>
-      <c r="X22" s="21">
+        <v>9.4449000000000005</v>
+      </c>
+      <c r="X22" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y22" s="166"/>
     </row>
@@ -4103,7 +4084,7 @@
       </c>
       <c r="F23" s="191" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S25Y_Quote#0000</v>
+        <v>SEK1S3S25Y_Quote#0001</v>
       </c>
       <c r="G23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -4129,19 +4110,18 @@
       <c r="O23" s="84" t="str">
         <v>SEK1S3S25Y=ICAP</v>
       </c>
-      <c r="P23" s="253">
-        <v>8.76</v>
-      </c>
-      <c r="Q23" s="253">
-        <v>0</v>
-      </c>
-      <c r="R23" s="19">
+      <c r="P23" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R23" s="278">
+        <v>8.9804999999999993</v>
+      </c>
+      <c r="S23" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>8.76</v>
-      </c>
-      <c r="S23" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T23" s="87"/>
       <c r="U23" s="89">
@@ -4149,11 +4129,11 @@
       </c>
       <c r="V23" s="87"/>
       <c r="W23" s="19">
-        <v>8.76</v>
-      </c>
-      <c r="X23" s="21">
+        <v>8.9804999999999993</v>
+      </c>
+      <c r="X23" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y23" s="166"/>
     </row>
@@ -4174,7 +4154,7 @@
       </c>
       <c r="F24" s="191" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S27Y_Quote#0000</v>
+        <v>SEK1S3S27Y_Quote#0001</v>
       </c>
       <c r="G24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -4207,11 +4187,10 @@
         <v>110</v>
       </c>
       <c r="R24" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S24" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S24" s="19" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="T24" s="87"/>
@@ -4245,7 +4224,7 @@
       </c>
       <c r="F25" s="191" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S30Y_Quote#0000</v>
+        <v>SEK1S3S30Y_Quote#0001</v>
       </c>
       <c r="G25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -4271,19 +4250,18 @@
       <c r="O25" s="84" t="str">
         <v>SEK1S3S30Y=ICAP</v>
       </c>
-      <c r="P25" s="253">
-        <v>8.52</v>
-      </c>
-      <c r="Q25" s="253">
-        <v>0</v>
-      </c>
-      <c r="R25" s="19">
+      <c r="P25" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="R25" s="278">
+        <v>8.7262000000000004</v>
+      </c>
+      <c r="S25" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>8.52</v>
-      </c>
-      <c r="S25" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T25" s="87"/>
       <c r="U25" s="89">
@@ -4291,11 +4269,11 @@
       </c>
       <c r="V25" s="87"/>
       <c r="W25" s="19">
-        <v>8.52</v>
-      </c>
-      <c r="X25" s="21">
+        <v>8.7262000000000004</v>
+      </c>
+      <c r="X25" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,W25/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y25" s="166"/>
     </row>
@@ -4316,7 +4294,7 @@
       </c>
       <c r="F26" s="191" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S35Y_Quote#0000</v>
+        <v>SEK1S3S35Y_Quote#0001</v>
       </c>
       <c r="G26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -4349,11 +4327,10 @@
         <v>110</v>
       </c>
       <c r="R26" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S26" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S26" s="19" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="T26" s="87"/>
@@ -4387,7 +4364,7 @@
       </c>
       <c r="F27" s="191" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S40Y_Quote#0000</v>
+        <v>SEK1S3S40Y_Quote#0001</v>
       </c>
       <c r="G27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -4420,11 +4397,10 @@
         <v>110</v>
       </c>
       <c r="R27" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S27" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S27" s="19" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="T27" s="87"/>
@@ -4458,7 +4434,7 @@
       </c>
       <c r="F28" s="191" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S45Y_Quote#0000</v>
+        <v>SEK1S3S45Y_Quote#0001</v>
       </c>
       <c r="G28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -4491,11 +4467,10 @@
         <v>110</v>
       </c>
       <c r="R28" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S28" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S28" s="19" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="T28" s="87"/>
@@ -4529,7 +4504,7 @@
       </c>
       <c r="F29" s="193" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK1S3S50Y_Quote#0000</v>
+        <v>SEK1S3S50Y_Quote#0001</v>
       </c>
       <c r="G29" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -4562,11 +4537,10 @@
         <v>110</v>
       </c>
       <c r="R29" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S29" s="25" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S29" s="25" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="T29" s="87"/>
@@ -4729,7 +4703,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="O2"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4842,7 +4816,7 @@
       <c r="M3" s="143"/>
       <c r="N3" s="68" t="str">
         <f>_xll.RData(N4:N10,O3:P3,"RTFEED:IDN",,,O4)</f>
-        <v>Updated at 11:14:58</v>
+        <v>Updated at 10:54:52</v>
       </c>
       <c r="O3" s="62" t="s">
         <v>96</v>
@@ -4924,15 +4898,15 @@
       </c>
       <c r="J5" s="52" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKON#0000</v>
+        <v>SEKON#0001</v>
       </c>
       <c r="K5" s="52" t="str">
         <f>_xll.qlOvernightIndex(I5,,D5,Currency,Calendar,H5,J5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborON#0000</v>
+        <v>SekiborON#0001</v>
       </c>
       <c r="L5" s="52" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C5&amp;"LastFixing_Quote",K5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborONLastFixing_Quote#0000</v>
+        <v>SekiborONLastFixing_Quote#0001</v>
       </c>
       <c r="M5" s="143" t="s">
         <v>111</v>
@@ -4942,10 +4916,10 @@
         <v>STISEKTNDFI=</v>
       </c>
       <c r="O5" s="259">
-        <v>42335</v>
+        <v>42569</v>
       </c>
       <c r="P5" s="260">
-        <v>-0.315</v>
+        <v>-0.57400000000000007</v>
       </c>
       <c r="Q5" s="144" t="b">
         <f>IF(AND(ISNUMBER($P5),$P5&lt;&gt;0%),TRUE,FALSE)</f>
@@ -4955,9 +4929,9 @@
         <f>IF(P5,_xll.qlIndexAddFixings(K5,O5,P5/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="S5" s="146" t="e">
+      <c r="S5" s="146">
         <f>_xll.qlQuoteValue(L5)</f>
-        <v>#NUM!</v>
+        <v>-5.7400000000000003E-3</v>
       </c>
       <c r="T5" s="139"/>
     </row>
@@ -4989,11 +4963,11 @@
       <c r="J6" s="52"/>
       <c r="K6" s="52" t="str">
         <f>_xll.qlIborIndex(I6,FamilyName,C6,D6,Currency,E6,F6,G6,H6,J6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor1W#0000</v>
+        <v>Sekibor1W#0001</v>
       </c>
       <c r="L6" s="52" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C6&amp;"LastFixing_Quote",K6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor1WLastFixing_Quote#0000</v>
+        <v>Sekibor1WLastFixing_Quote#0001</v>
       </c>
       <c r="M6" s="143" t="s">
         <v>111</v>
@@ -5003,10 +4977,10 @@
         <v>STISEK1WDFI=</v>
       </c>
       <c r="O6" s="257">
-        <v>42335</v>
+        <v>42569</v>
       </c>
       <c r="P6" s="258">
-        <v>-0.33300000000000002</v>
+        <v>-0.57800000000000007</v>
       </c>
       <c r="Q6" s="63" t="b">
         <f>IF(AND(ISNUMBER($P6),$P6&lt;&gt;0%),TRUE,FALSE)</f>
@@ -5018,7 +4992,7 @@
       </c>
       <c r="S6" s="66">
         <f>_xll.qlQuoteValue(L6)</f>
-        <v>-3.3300000000000001E-3</v>
+        <v>-5.7800000000000004E-3</v>
       </c>
       <c r="T6" s="139"/>
     </row>
@@ -5049,15 +5023,15 @@
       </c>
       <c r="J7" s="52" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK1M#0000</v>
+        <v>SEK1M#0001</v>
       </c>
       <c r="K7" s="52" t="str">
         <f>_xll.qlIborIndex(I7,FamilyName,C7,D7,Currency,E7,F7,G7,H7,J7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor1M#0000</v>
+        <v>Sekibor1M#0001</v>
       </c>
       <c r="L7" s="52" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C7&amp;"LastFixing_Quote",K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor1MLastFixing_Quote#0000</v>
+        <v>Sekibor1MLastFixing_Quote#0001</v>
       </c>
       <c r="M7" s="143" t="s">
         <v>111</v>
@@ -5067,10 +5041,10 @@
         <v>STISEK1MDFI=</v>
       </c>
       <c r="O7" s="257">
-        <v>42335</v>
+        <v>42569</v>
       </c>
       <c r="P7" s="258">
-        <v>-0.43899999999999995</v>
+        <v>-0.61499999999999999</v>
       </c>
       <c r="Q7" s="63" t="b">
         <f t="shared" ref="Q7:Q10" si="3">IF(AND(ISNUMBER($P7),$P7&lt;&gt;0%),TRUE,FALSE)</f>
@@ -5082,7 +5056,7 @@
       </c>
       <c r="S7" s="66">
         <f>_xll.qlQuoteValue(L7)</f>
-        <v>-4.3899999999999998E-3</v>
+        <v>-6.1500000000000001E-3</v>
       </c>
       <c r="T7" s="139"/>
     </row>
@@ -5114,11 +5088,11 @@
       <c r="J8" s="52"/>
       <c r="K8" s="52" t="str">
         <f>_xll.qlIborIndex(I8,FamilyName,C8,D8,Currency,E8,F8,G8,H8,J8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor2M#0000</v>
+        <v>Sekibor2M#0001</v>
       </c>
       <c r="L8" s="52" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C8&amp;"LastFixing_Quote",K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor2MLastFixing_Quote#0000</v>
+        <v>Sekibor2MLastFixing_Quote#0001</v>
       </c>
       <c r="M8" s="143" t="s">
         <v>111</v>
@@ -5128,10 +5102,10 @@
         <v>STISEK2MDFI=</v>
       </c>
       <c r="O8" s="257">
-        <v>42335</v>
+        <v>42569</v>
       </c>
       <c r="P8" s="258">
-        <v>-0.47099999999999997</v>
+        <v>-0.57300000000000006</v>
       </c>
       <c r="Q8" s="63" t="b">
         <f t="shared" si="3"/>
@@ -5143,7 +5117,7 @@
       </c>
       <c r="S8" s="66">
         <f>_xll.qlQuoteValue(L8)</f>
-        <v>-4.7099999999999998E-3</v>
+        <v>-5.7300000000000007E-3</v>
       </c>
       <c r="T8" s="139"/>
     </row>
@@ -5174,15 +5148,15 @@
       </c>
       <c r="J9" s="52" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3M#0000</v>
+        <v>SEK3M#0001</v>
       </c>
       <c r="K9" s="52" t="str">
         <f>_xll.qlIborIndex(I9,FamilyName,C9,D9,Currency,E9,F9,G9,H9,J9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor3M#0000</v>
+        <v>Sekibor3M#0001</v>
       </c>
       <c r="L9" s="52" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C9&amp;"LastFixing_Quote",K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor3MLastFixing_Quote#0000</v>
+        <v>Sekibor3MLastFixing_Quote#0001</v>
       </c>
       <c r="M9" s="143" t="s">
         <v>111</v>
@@ -5192,10 +5166,10 @@
         <v>STISEK3MDFI=</v>
       </c>
       <c r="O9" s="257">
-        <v>42335</v>
+        <v>42569</v>
       </c>
       <c r="P9" s="258">
-        <v>-0.40899999999999997</v>
+        <v>-0.53</v>
       </c>
       <c r="Q9" s="63" t="b">
         <f t="shared" si="3"/>
@@ -5207,7 +5181,7 @@
       </c>
       <c r="S9" s="66">
         <f>_xll.qlQuoteValue(L9)</f>
-        <v>-4.0899999999999999E-3</v>
+        <v>-5.3E-3</v>
       </c>
       <c r="T9" s="139"/>
     </row>
@@ -5238,15 +5212,15 @@
       </c>
       <c r="J10" s="54" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK6M#0000</v>
+        <v>SEK6M#0001</v>
       </c>
       <c r="K10" s="54" t="str">
         <f>_xll.qlIborIndex(I10,FamilyName,C10,D10,Currency,E10,F10,G10,H10,J10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor6M#0000</v>
+        <v>Sekibor6M#0001</v>
       </c>
       <c r="L10" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C10&amp;"LastFixing_Quote",K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sekibor6MLastFixing_Quote#0000</v>
+        <v>Sekibor6MLastFixing_Quote#0001</v>
       </c>
       <c r="M10" s="143" t="s">
         <v>111</v>
@@ -5256,10 +5230,10 @@
         <v>STISEK6MDFI=</v>
       </c>
       <c r="O10" s="261">
-        <v>42335</v>
+        <v>42569</v>
       </c>
       <c r="P10" s="262">
-        <v>-0.28100000000000003</v>
+        <v>-0.373</v>
       </c>
       <c r="Q10" s="64" t="b">
         <f t="shared" si="3"/>
@@ -5269,9 +5243,9 @@
         <f>IF(P10,_xll.qlIndexAddFixings(K10,O10,P10/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="S10" s="67" t="e">
+      <c r="S10" s="67">
         <f>_xll.qlQuoteValue(L10)</f>
-        <v>#NUM!</v>
+        <v>-3.7299999999999998E-3</v>
       </c>
       <c r="T10" s="139"/>
     </row>
@@ -5288,7 +5262,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="48" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKSTD#0000</v>
+        <v>SEKSTD#0001</v>
       </c>
       <c r="K11" s="47"/>
       <c r="L11" s="5"/>
@@ -5350,7 +5324,7 @@
       <c r="M14" s="264"/>
       <c r="N14" s="275" t="str">
         <f>_xll.RHistory(O15,$L$17&amp;";"&amp;$L$18,$L$15,,"SORT:"&amp;$L$16&amp;" CH:Fd",P14)</f>
-        <v>Updated at 11:14:59</v>
+        <v>Updated at 10:54:53</v>
       </c>
       <c r="O14" s="275"/>
       <c r="P14" s="270" t="s">
@@ -5369,7 +5343,7 @@
       </c>
       <c r="L15" s="267" t="str">
         <f>"START:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp; " END:"&amp;_xll.qlSettingsEvaluationDate(Trigger)&amp;" INTERVAL:1D"</f>
-        <v>START:42335 END:42335 INTERVAL:1D</v>
+        <v>START:42570 END:42570 INTERVAL:1D</v>
       </c>
       <c r="M15" s="264"/>
       <c r="N15" s="276" t="s">
@@ -5418,7 +5392,7 @@
       <c r="M17" s="264"/>
       <c r="N17" s="275" t="str">
         <f>_xll.RHistory(O18,$L$17&amp;";"&amp;$L$18,$L$15,,"SORT:"&amp;$L$16&amp;" CH:Fd",P17)</f>
-        <v>Updated at 11:14:59</v>
+        <v>Updated at 10:54:53</v>
       </c>
       <c r="O17" s="275"/>
       <c r="P17" s="270" t="s">
@@ -5469,7 +5443,7 @@
       <c r="M20" s="264"/>
       <c r="N20" s="275" t="str">
         <f>_xll.RHistory(O21,$L$17&amp;";"&amp;$L$18,$L$15,,"SORT:"&amp;$L$16&amp;" CH:Fd",P20)</f>
-        <v>Updated at 11:14:59</v>
+        <v>Updated at 10:54:53</v>
       </c>
       <c r="O20" s="275"/>
       <c r="P20" s="270" t="s">
@@ -5619,7 +5593,7 @@
       </c>
       <c r="E3" s="231" t="str">
         <f>_xll.qlSwapIndex($D3,FixingType,B3,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc6M#0000</v>
+        <v>SekiborSwapForBasisCalc6M#0001</v>
       </c>
       <c r="F3" s="238" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -5641,7 +5615,7 @@
       </c>
       <c r="E4" s="234" t="str">
         <f>_xll.qlSwapIndex($D4,FixingType,B4,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc1Y#0000</v>
+        <v>SekiborSwapForBasisCalc1Y#0001</v>
       </c>
       <c r="F4" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -5663,7 +5637,7 @@
       </c>
       <c r="E5" s="234" t="str">
         <f>_xll.qlSwapIndex($D5,FixingType,B5,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc18M#0000</v>
+        <v>SekiborSwapForBasisCalc18M#0001</v>
       </c>
       <c r="F5" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -5685,7 +5659,7 @@
       </c>
       <c r="E6" s="234" t="str">
         <f>_xll.qlSwapIndex($D6,FixingType,B6,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc2Y#0000</v>
+        <v>SekiborSwapForBasisCalc2Y#0001</v>
       </c>
       <c r="F6" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -5707,7 +5681,7 @@
       </c>
       <c r="E7" s="234" t="str">
         <f>_xll.qlSwapIndex($D7,FixingType,B7,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc30M#0000</v>
+        <v>SekiborSwapForBasisCalc30M#0001</v>
       </c>
       <c r="F7" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -5729,7 +5703,7 @@
       </c>
       <c r="E8" s="234" t="str">
         <f>_xll.qlSwapIndex($D8,FixingType,B8,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc3Y#0000</v>
+        <v>SekiborSwapForBasisCalc3Y#0001</v>
       </c>
       <c r="F8" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -5751,7 +5725,7 @@
       </c>
       <c r="E9" s="234" t="str">
         <f>_xll.qlSwapIndex($D9,FixingType,B9,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc42M#0000</v>
+        <v>SekiborSwapForBasisCalc42M#0001</v>
       </c>
       <c r="F9" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -5773,7 +5747,7 @@
       </c>
       <c r="E10" s="234" t="str">
         <f>_xll.qlSwapIndex($D10,FixingType,B10,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc4Y#0000</v>
+        <v>SekiborSwapForBasisCalc4Y#0001</v>
       </c>
       <c r="F10" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -5795,7 +5769,7 @@
       </c>
       <c r="E11" s="234" t="str">
         <f>_xll.qlSwapIndex($D11,FixingType,B11,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc54M#0000</v>
+        <v>SekiborSwapForBasisCalc54M#0001</v>
       </c>
       <c r="F11" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -5817,7 +5791,7 @@
       </c>
       <c r="E12" s="234" t="str">
         <f>_xll.qlSwapIndex($D12,FixingType,B12,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc5Y#0000</v>
+        <v>SekiborSwapForBasisCalc5Y#0001</v>
       </c>
       <c r="F12" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -5839,7 +5813,7 @@
       </c>
       <c r="E13" s="234" t="str">
         <f>_xll.qlSwapIndex($D13,FixingType,B13,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc6Y#0000</v>
+        <v>SekiborSwapForBasisCalc6Y#0001</v>
       </c>
       <c r="F13" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -5861,7 +5835,7 @@
       </c>
       <c r="E14" s="234" t="str">
         <f>_xll.qlSwapIndex($D14,FixingType,B14,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc7Y#0000</v>
+        <v>SekiborSwapForBasisCalc7Y#0001</v>
       </c>
       <c r="F14" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -5883,7 +5857,7 @@
       </c>
       <c r="E15" s="234" t="str">
         <f>_xll.qlSwapIndex($D15,FixingType,B15,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc8Y#0000</v>
+        <v>SekiborSwapForBasisCalc8Y#0001</v>
       </c>
       <c r="F15" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -5905,7 +5879,7 @@
       </c>
       <c r="E16" s="234" t="str">
         <f>_xll.qlSwapIndex($D16,FixingType,B16,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc9Y#0000</v>
+        <v>SekiborSwapForBasisCalc9Y#0001</v>
       </c>
       <c r="F16" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -5927,7 +5901,7 @@
       </c>
       <c r="E17" s="234" t="str">
         <f>_xll.qlSwapIndex($D17,FixingType,B17,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc10Y#0000</v>
+        <v>SekiborSwapForBasisCalc10Y#0001</v>
       </c>
       <c r="F17" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -5949,7 +5923,7 @@
       </c>
       <c r="E18" s="234" t="str">
         <f>_xll.qlSwapIndex($D18,FixingType,B18,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc12Y#0000</v>
+        <v>SekiborSwapForBasisCalc12Y#0001</v>
       </c>
       <c r="F18" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -5971,7 +5945,7 @@
       </c>
       <c r="E19" s="234" t="str">
         <f>_xll.qlSwapIndex($D19,FixingType,B19,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc15Y#0000</v>
+        <v>SekiborSwapForBasisCalc15Y#0001</v>
       </c>
       <c r="F19" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -5993,7 +5967,7 @@
       </c>
       <c r="E20" s="234" t="str">
         <f>_xll.qlSwapIndex($D20,FixingType,B20,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc20Y#0000</v>
+        <v>SekiborSwapForBasisCalc20Y#0001</v>
       </c>
       <c r="F20" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -6015,7 +5989,7 @@
       </c>
       <c r="E21" s="234" t="str">
         <f>_xll.qlSwapIndex($D21,FixingType,B21,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc25Y#0000</v>
+        <v>SekiborSwapForBasisCalc25Y#0001</v>
       </c>
       <c r="F21" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -6037,7 +6011,7 @@
       </c>
       <c r="E22" s="234" t="str">
         <f>_xll.qlSwapIndex($D22,FixingType,B22,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc27Y#0000</v>
+        <v>SekiborSwapForBasisCalc27Y#0001</v>
       </c>
       <c r="F22" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -6059,7 +6033,7 @@
       </c>
       <c r="E23" s="234" t="str">
         <f>_xll.qlSwapIndex($D23,FixingType,B23,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc30Y#0000</v>
+        <v>SekiborSwapForBasisCalc30Y#0001</v>
       </c>
       <c r="F23" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -6081,7 +6055,7 @@
       </c>
       <c r="E24" s="234" t="str">
         <f>_xll.qlSwapIndex($D24,FixingType,B24,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc35Y#0000</v>
+        <v>SekiborSwapForBasisCalc35Y#0001</v>
       </c>
       <c r="F24" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -6103,7 +6077,7 @@
       </c>
       <c r="E25" s="234" t="str">
         <f>_xll.qlSwapIndex($D25,FixingType,B25,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc40Y#0000</v>
+        <v>SekiborSwapForBasisCalc40Y#0001</v>
       </c>
       <c r="F25" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -6125,7 +6099,7 @@
       </c>
       <c r="E26" s="234" t="str">
         <f>_xll.qlSwapIndex($D26,FixingType,B26,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc45Y#0000</v>
+        <v>SekiborSwapForBasisCalc45Y#0001</v>
       </c>
       <c r="F26" s="239" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -6147,7 +6121,7 @@
       </c>
       <c r="E27" s="237" t="str">
         <f>_xll.qlSwapIndex($D27,FixingType,B27,2,Currency,Calendar,"1Y","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc50Y#0000</v>
+        <v>SekiborSwapForBasisCalc50Y#0001</v>
       </c>
       <c r="F27" s="240" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -6466,7 +6440,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6533,7 +6507,7 @@
       <c r="O2" s="205"/>
       <c r="P2" s="220">
         <f>_xll.ohTrigger(P5:P10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="222"/>
     </row>
@@ -6605,7 +6579,7 @@
       </c>
       <c r="D5" s="196" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKTND_Quote#0000</v>
+        <v>SEKTND_Quote#0001</v>
       </c>
       <c r="E5" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -6622,7 +6596,7 @@
       </c>
       <c r="K5" s="19">
         <f>Stibor!P5</f>
-        <v>-0.315</v>
+        <v>-0.57400000000000007</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>111</v>
@@ -6633,11 +6607,11 @@
       <c r="N5" s="9"/>
       <c r="O5" s="19">
         <f t="array" ref="O5:O10">QuoteLive</f>
-        <v>-0.315</v>
-      </c>
-      <c r="P5" s="21">
+        <v>-0.57400000000000007</v>
+      </c>
+      <c r="P5" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,O5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Q5" s="166"/>
     </row>
@@ -6653,7 +6627,7 @@
       </c>
       <c r="D6" s="196" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKSWD_Quote#0000</v>
+        <v>SEKSWD_Quote#0001</v>
       </c>
       <c r="E6" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -6670,7 +6644,7 @@
       </c>
       <c r="K6" s="19">
         <f>Stibor!P6</f>
-        <v>-0.33300000000000002</v>
+        <v>-0.57800000000000007</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>111</v>
@@ -6680,11 +6654,11 @@
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="19">
-        <v>-0.33300000000000002</v>
-      </c>
-      <c r="P6" s="21">
+        <v>-0.57800000000000007</v>
+      </c>
+      <c r="P6" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D6,O6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Q6" s="166"/>
     </row>
@@ -6700,7 +6674,7 @@
       </c>
       <c r="D7" s="196" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK1MD_Quote#0000</v>
+        <v>SEK1MD_Quote#0001</v>
       </c>
       <c r="E7" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -6717,7 +6691,7 @@
       </c>
       <c r="K7" s="19">
         <f>Stibor!P7</f>
-        <v>-0.43899999999999995</v>
+        <v>-0.61499999999999999</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>111</v>
@@ -6727,11 +6701,11 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="19">
-        <v>-0.43899999999999995</v>
-      </c>
-      <c r="P7" s="21">
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="P7" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,O7/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Q7" s="166"/>
     </row>
@@ -6747,7 +6721,7 @@
       </c>
       <c r="D8" s="196" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK2MD_Quote#0000</v>
+        <v>SEK2MD_Quote#0001</v>
       </c>
       <c r="E8" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -6764,7 +6738,7 @@
       </c>
       <c r="K8" s="19">
         <f>Stibor!P8</f>
-        <v>-0.47099999999999997</v>
+        <v>-0.57300000000000006</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>139</v>
@@ -6774,11 +6748,11 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="19">
-        <v>-0.47099999999999997</v>
-      </c>
-      <c r="P8" s="21">
+        <v>-0.57300000000000006</v>
+      </c>
+      <c r="P8" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,O8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Q8" s="166"/>
     </row>
@@ -6794,7 +6768,7 @@
       </c>
       <c r="D9" s="196" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3MD_Quote#0000</v>
+        <v>SEK3MD_Quote#0001</v>
       </c>
       <c r="E9" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -6811,7 +6785,7 @@
       </c>
       <c r="K9" s="19">
         <f>Stibor!P9</f>
-        <v>-0.40899999999999997</v>
+        <v>-0.53</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>111</v>
@@ -6821,11 +6795,11 @@
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="19">
-        <v>-0.40899999999999997</v>
-      </c>
-      <c r="P9" s="21">
+        <v>-0.53</v>
+      </c>
+      <c r="P9" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,O9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Q9" s="166"/>
     </row>
@@ -6841,7 +6815,7 @@
       </c>
       <c r="D10" s="211" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK6MD_Quote#0000</v>
+        <v>SEK6MD_Quote#0001</v>
       </c>
       <c r="E10" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -6858,7 +6832,7 @@
       </c>
       <c r="K10" s="25">
         <f>Stibor!P10</f>
-        <v>-0.28100000000000003</v>
+        <v>-0.373</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>111</v>
@@ -6868,11 +6842,11 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="19">
-        <v>-0.28100000000000003</v>
-      </c>
-      <c r="P10" s="21">
+        <v>-0.373</v>
+      </c>
+      <c r="P10" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,O10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Q10" s="166"/>
     </row>
@@ -6924,7 +6898,7 @@
   <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7022,7 +6996,7 @@
       <c r="V2" s="9"/>
       <c r="W2" s="220">
         <f>_xll.ohTrigger(W5:W19)</f>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="X2" s="164"/>
       <c r="Z2" s="163"/>
@@ -7084,7 +7058,7 @@
       <c r="M4" s="60"/>
       <c r="N4" s="61" t="str">
         <f>_xll.RData(N5:N19,O4:P4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 12:43:22</v>
+        <v>Updated at 10:54:52</v>
       </c>
       <c r="O4" s="59" t="s">
         <v>71</v>
@@ -7141,7 +7115,7 @@
       </c>
       <c r="E5" s="194" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F1_Quote#0000</v>
+        <v>SEK3F1_Quote#0001</v>
       </c>
       <c r="F5" s="185" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -7165,14 +7139,14 @@
         <v>SEK3F1=TTKL</v>
       </c>
       <c r="O5" s="255">
-        <v>-0.42499999999999999</v>
+        <v>-0.52500000000000002</v>
       </c>
       <c r="P5" s="255">
-        <v>-0.40499999999999997</v>
+        <v>-0.505</v>
       </c>
       <c r="Q5" s="13">
         <f>IF($Q$2,IF(ISNUMBER(O5),O5,#NUM!),IFERROR(AVERAGE(O5:P5),#NUM!))</f>
-        <v>-0.41499999999999998</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="R5" s="13">
         <f>(Q5-O5)*2</f>
@@ -7185,11 +7159,11 @@
       <c r="U5" s="9"/>
       <c r="V5" s="14">
         <f t="array" ref="V5:V19">QuoteLive</f>
-        <v>-0.41499999999999998</v>
-      </c>
-      <c r="W5" s="15">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="W5" s="15" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E5,V5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X5" s="166"/>
       <c r="Z5" s="163"/>
@@ -7199,15 +7173,15 @@
       </c>
       <c r="AB5" s="10" t="str">
         <f>_xll.qlSimpleQuote(AA5,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F1_Quote#0000</v>
+        <v>FUTSEK3F1_Quote#0001</v>
       </c>
       <c r="AC5" s="74">
         <f>100-V5</f>
-        <v>100.41500000000001</v>
-      </c>
-      <c r="AD5" s="246">
+        <v>100.515</v>
+      </c>
+      <c r="AD5" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB5,AC5,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AE5" s="173"/>
     </row>
@@ -7227,7 +7201,7 @@
       </c>
       <c r="E6" s="196" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F2_Quote#0000</v>
+        <v>SEK3F2_Quote#0001</v>
       </c>
       <c r="F6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -7250,14 +7224,14 @@
         <v>SEK3F2=TTKL</v>
       </c>
       <c r="O6" s="253">
-        <v>-0.44000000000000006</v>
+        <v>-0.55500000000000005</v>
       </c>
       <c r="P6" s="253">
-        <v>-0.42000000000000004</v>
+        <v>-0.53500000000000003</v>
       </c>
       <c r="Q6" s="19">
         <f t="shared" ref="Q6:Q19" si="5">IF($Q$2,IF(ISNUMBER(O6),O6,#NUM!),IFERROR(AVERAGE(O6:P6),#NUM!))</f>
-        <v>-0.43000000000000005</v>
+        <v>-0.54500000000000004</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" ref="R6:R19" si="6">(Q6-O6)*2</f>
@@ -7269,11 +7243,11 @@
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="20">
-        <v>-0.43000000000000005</v>
-      </c>
-      <c r="W6" s="21">
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="W6" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E6,V6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X6" s="166"/>
       <c r="Z6" s="163"/>
@@ -7283,15 +7257,15 @@
       </c>
       <c r="AB6" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA6,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F2_Quote#0000</v>
+        <v>FUTSEK3F2_Quote#0001</v>
       </c>
       <c r="AC6" s="75">
         <f t="shared" ref="AC6:AC19" si="7">100-V6</f>
-        <v>100.43</v>
-      </c>
-      <c r="AD6" s="246">
+        <v>100.545</v>
+      </c>
+      <c r="AD6" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB6,AC6,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AE6" s="173"/>
     </row>
@@ -7311,7 +7285,7 @@
       </c>
       <c r="E7" s="196" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F3_Quote#0000</v>
+        <v>SEK3F3_Quote#0001</v>
       </c>
       <c r="F7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -7334,14 +7308,14 @@
         <v>SEK3F3=TTKL</v>
       </c>
       <c r="O7" s="253">
-        <v>-0.42499999999999999</v>
+        <v>-0.52500000000000002</v>
       </c>
       <c r="P7" s="253">
-        <v>-0.40499999999999997</v>
+        <v>-0.505</v>
       </c>
       <c r="Q7" s="19">
         <f t="shared" si="5"/>
-        <v>-0.41499999999999998</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" si="6"/>
@@ -7353,11 +7327,11 @@
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="20">
-        <v>-0.41499999999999998</v>
-      </c>
-      <c r="W7" s="21">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="W7" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E7,V7/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X7" s="166"/>
       <c r="Z7" s="163"/>
@@ -7367,15 +7341,15 @@
       </c>
       <c r="AB7" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA7,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F3_Quote#0000</v>
+        <v>FUTSEK3F3_Quote#0001</v>
       </c>
       <c r="AC7" s="75">
         <f t="shared" si="7"/>
-        <v>100.41500000000001</v>
-      </c>
-      <c r="AD7" s="246">
+        <v>100.515</v>
+      </c>
+      <c r="AD7" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB7,AC7,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AE7" s="173"/>
     </row>
@@ -7395,7 +7369,7 @@
       </c>
       <c r="E8" s="196" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F4_Quote#0000</v>
+        <v>SEK3F4_Quote#0001</v>
       </c>
       <c r="F8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -7418,14 +7392,14 @@
         <v>SEK3F4=TTKL</v>
       </c>
       <c r="O8" s="253">
-        <v>-0.38</v>
+        <v>-0.47500000000000003</v>
       </c>
       <c r="P8" s="253">
-        <v>-0.36</v>
+        <v>-0.45500000000000002</v>
       </c>
       <c r="Q8" s="19">
         <f t="shared" si="5"/>
-        <v>-0.37</v>
+        <v>-0.46500000000000002</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="6"/>
@@ -7437,11 +7411,11 @@
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="20">
-        <v>-0.37</v>
-      </c>
-      <c r="W8" s="21">
+        <v>-0.46500000000000002</v>
+      </c>
+      <c r="W8" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X8" s="166"/>
       <c r="Z8" s="163"/>
@@ -7451,15 +7425,15 @@
       </c>
       <c r="AB8" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA8,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F4_Quote#0000</v>
+        <v>FUTSEK3F4_Quote#0001</v>
       </c>
       <c r="AC8" s="75">
         <f t="shared" si="7"/>
-        <v>100.37</v>
-      </c>
-      <c r="AD8" s="246">
+        <v>100.465</v>
+      </c>
+      <c r="AD8" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB8,AC8,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AE8" s="173"/>
     </row>
@@ -7479,7 +7453,7 @@
       </c>
       <c r="E9" s="196" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F5_Quote#0000</v>
+        <v>SEK3F5_Quote#0001</v>
       </c>
       <c r="F9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -7502,18 +7476,18 @@
         <v>SEK3F5=TTKL</v>
       </c>
       <c r="O9" s="253">
-        <v>-0.32</v>
+        <v>-0.42</v>
       </c>
       <c r="P9" s="253">
-        <v>-0.28999999999999998</v>
+        <v>-0.39</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" si="5"/>
-        <v>-0.30499999999999999</v>
+        <v>-0.40500000000000003</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="6"/>
-        <v>3.0000000000000027E-2</v>
+        <v>2.9999999999999916E-2</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="20">
@@ -7521,11 +7495,11 @@
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="20">
-        <v>-0.30499999999999999</v>
-      </c>
-      <c r="W9" s="21">
+        <v>-0.40500000000000003</v>
+      </c>
+      <c r="W9" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X9" s="166"/>
       <c r="Z9" s="163"/>
@@ -7535,15 +7509,15 @@
       </c>
       <c r="AB9" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA9,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F5_Quote#0000</v>
+        <v>FUTSEK3F5_Quote#0001</v>
       </c>
       <c r="AC9" s="75">
         <f t="shared" si="7"/>
-        <v>100.30500000000001</v>
-      </c>
-      <c r="AD9" s="246">
+        <v>100.405</v>
+      </c>
+      <c r="AD9" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB9,AC9,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AE9" s="173"/>
     </row>
@@ -7563,7 +7537,7 @@
       </c>
       <c r="E10" s="196" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F6_Quote#0000</v>
+        <v>SEK3F6_Quote#0001</v>
       </c>
       <c r="F10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -7586,14 +7560,14 @@
         <v>SEK3F6=TTKL</v>
       </c>
       <c r="O10" s="253">
-        <v>-0.23500000000000001</v>
+        <v>-0.36</v>
       </c>
       <c r="P10" s="253">
-        <v>-0.20499999999999999</v>
+        <v>-0.33</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="5"/>
-        <v>-0.22</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="6"/>
@@ -7605,11 +7579,11 @@
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="20">
-        <v>-0.22</v>
-      </c>
-      <c r="W10" s="21">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="W10" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X10" s="166"/>
       <c r="Z10" s="163"/>
@@ -7619,15 +7593,15 @@
       </c>
       <c r="AB10" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA10,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F6_Quote#0000</v>
+        <v>FUTSEK3F6_Quote#0001</v>
       </c>
       <c r="AC10" s="75">
         <f t="shared" si="7"/>
-        <v>100.22</v>
-      </c>
-      <c r="AD10" s="246">
+        <v>100.345</v>
+      </c>
+      <c r="AD10" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB10,AC10,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AE10" s="173"/>
     </row>
@@ -7647,7 +7621,7 @@
       </c>
       <c r="E11" s="196" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F7_Quote#0000</v>
+        <v>SEK3F7_Quote#0001</v>
       </c>
       <c r="F11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -7670,18 +7644,18 @@
         <v>SEK3F7=TTKL</v>
       </c>
       <c r="O11" s="253">
-        <v>-0.13500000000000001</v>
+        <v>-0.29499999999999998</v>
       </c>
       <c r="P11" s="253">
-        <v>-0.10500000000000001</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="Q11" s="19">
         <f t="shared" si="5"/>
-        <v>-0.12000000000000001</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="R11" s="19">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>2.9999999999999916E-2</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="20">
@@ -7689,11 +7663,11 @@
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="20">
-        <v>-0.12000000000000001</v>
-      </c>
-      <c r="W11" s="21">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="W11" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E11,V11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X11" s="166"/>
       <c r="Z11" s="163"/>
@@ -7703,15 +7677,15 @@
       </c>
       <c r="AB11" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA11,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F7_Quote#0000</v>
+        <v>FUTSEK3F7_Quote#0001</v>
       </c>
       <c r="AC11" s="75">
         <f t="shared" si="7"/>
-        <v>100.12</v>
-      </c>
-      <c r="AD11" s="246">
+        <v>100.28</v>
+      </c>
+      <c r="AD11" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB11,AC11,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AE11" s="173"/>
     </row>
@@ -7731,7 +7705,7 @@
       </c>
       <c r="E12" s="196" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F8_Quote#0000</v>
+        <v>SEK3F8_Quote#0001</v>
       </c>
       <c r="F12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -7754,18 +7728,18 @@
         <v>SEK3F8=TTKL</v>
       </c>
       <c r="O12" s="253">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="P12" s="253">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.19500000000000001</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="5"/>
-        <v>-0.01</v>
+        <v>-0.21000000000000002</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="6"/>
-        <v>3.0000000000000002E-2</v>
+        <v>2.9999999999999971E-2</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="20">
@@ -7773,11 +7747,11 @@
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="20">
-        <v>-0.01</v>
-      </c>
-      <c r="W12" s="21">
+        <v>-0.21000000000000002</v>
+      </c>
+      <c r="W12" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E12,V12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X12" s="166"/>
       <c r="Z12" s="163"/>
@@ -7787,15 +7761,15 @@
       </c>
       <c r="AB12" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA12,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F8_Quote#0000</v>
+        <v>FUTSEK3F8_Quote#0001</v>
       </c>
       <c r="AC12" s="75">
         <f t="shared" si="7"/>
-        <v>100.01</v>
-      </c>
-      <c r="AD12" s="246">
+        <v>100.21</v>
+      </c>
+      <c r="AD12" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB12,AC12,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AE12" s="173"/>
     </row>
@@ -7815,7 +7789,7 @@
       </c>
       <c r="E13" s="196" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F9_Quote#0000</v>
+        <v>SEK3F9_Quote#0001</v>
       </c>
       <c r="F13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -7838,18 +7812,18 @@
         <v>SEK3F9=TTKL</v>
       </c>
       <c r="O13" s="253">
-        <v>0.1</v>
+        <v>-0.155</v>
       </c>
       <c r="P13" s="253">
-        <v>0.13</v>
+        <v>-0.125</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="5"/>
-        <v>0.115</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>2.9999999999999971E-2</v>
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="20">
@@ -7857,11 +7831,11 @@
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="20">
-        <v>0.115</v>
-      </c>
-      <c r="W13" s="21">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="W13" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X13" s="166"/>
       <c r="Z13" s="163"/>
@@ -7871,15 +7845,15 @@
       </c>
       <c r="AB13" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA13,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F9_Quote#0000</v>
+        <v>FUTSEK3F9_Quote#0001</v>
       </c>
       <c r="AC13" s="75">
         <f t="shared" si="7"/>
-        <v>99.885000000000005</v>
-      </c>
-      <c r="AD13" s="246">
+        <v>100.14</v>
+      </c>
+      <c r="AD13" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB13,AC13,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AE13" s="173"/>
     </row>
@@ -7899,7 +7873,7 @@
       </c>
       <c r="E14" s="196" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F10_Quote#0000</v>
+        <v>SEK3F10_Quote#0001</v>
       </c>
       <c r="F14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -7922,18 +7896,18 @@
         <v>SEK3F10=TTKL</v>
       </c>
       <c r="O14" s="253">
-        <v>0.22999999999999998</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="P14" s="253">
-        <v>0.26</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="Q14" s="19">
         <f t="shared" si="5"/>
-        <v>0.245</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="6"/>
-        <v>3.0000000000000027E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="20">
@@ -7941,11 +7915,11 @@
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="20">
-        <v>0.245</v>
-      </c>
-      <c r="W14" s="21">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="W14" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E14,V14/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X14" s="166"/>
       <c r="Z14" s="163"/>
@@ -7955,15 +7929,15 @@
       </c>
       <c r="AB14" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA14,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F10_Quote#0000</v>
+        <v>FUTSEK3F10_Quote#0001</v>
       </c>
       <c r="AC14" s="75">
         <f t="shared" si="7"/>
-        <v>99.754999999999995</v>
-      </c>
-      <c r="AD14" s="246">
+        <v>100.07</v>
+      </c>
+      <c r="AD14" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB14,AC14,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AE14" s="173"/>
     </row>
@@ -7983,7 +7957,7 @@
       </c>
       <c r="E15" s="196" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F11_Quote#0000</v>
+        <v>SEK3F11_Quote#0001</v>
       </c>
       <c r="F15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -8006,18 +7980,18 @@
         <v>SEK3F11=TTKL</v>
       </c>
       <c r="O15" s="253">
-        <v>0.36</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="P15" s="253">
-        <v>0.39</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="5"/>
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="6"/>
-        <v>3.0000000000000027E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="20">
@@ -8025,11 +7999,11 @@
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="W15" s="21">
+        <v>0</v>
+      </c>
+      <c r="W15" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E15,V15/100,Trigger)</f>
-        <v>-1.0000000000000026E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="X15" s="166"/>
       <c r="Z15" s="163"/>
@@ -8039,15 +8013,15 @@
       </c>
       <c r="AB15" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA15,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F11_Quote#0000</v>
+        <v>FUTSEK3F11_Quote#0001</v>
       </c>
       <c r="AC15" s="75">
         <f t="shared" si="7"/>
-        <v>99.625</v>
-      </c>
-      <c r="AD15" s="246">
+        <v>100</v>
+      </c>
+      <c r="AD15" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB15,AC15,Trigger)</f>
-        <v>1.0000000000005116E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="AE15" s="173"/>
     </row>
@@ -8067,7 +8041,7 @@
       </c>
       <c r="E16" s="196" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F12_Quote#0000</v>
+        <v>SEK3F12_Quote#0001</v>
       </c>
       <c r="F16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -8090,18 +8064,18 @@
         <v>SEK3F12=TTKL</v>
       </c>
       <c r="O16" s="253">
-        <v>0.49000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="P16" s="253">
-        <v>0.52</v>
+        <v>0.09</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="5"/>
-        <v>0.505</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="6"/>
-        <v>2.9999999999999916E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="20">
@@ -8109,11 +8083,11 @@
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="20">
-        <v>0.505</v>
-      </c>
-      <c r="W16" s="21">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W16" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
-        <v>-1.0000000000000026E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="X16" s="166"/>
       <c r="Z16" s="163"/>
@@ -8123,15 +8097,15 @@
       </c>
       <c r="AB16" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA16,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F12_Quote#0000</v>
+        <v>FUTSEK3F12_Quote#0001</v>
       </c>
       <c r="AC16" s="75">
         <f t="shared" si="7"/>
-        <v>99.495000000000005</v>
-      </c>
-      <c r="AD16" s="246">
+        <v>99.924999999999997</v>
+      </c>
+      <c r="AD16" s="246" t="e">
         <f>_xll.qlSimpleQuoteSetValue(AB16,AC16,Trigger)</f>
-        <v>1.0000000000005116E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="AE16" s="173"/>
     </row>
@@ -8151,7 +8125,7 @@
       </c>
       <c r="E17" s="196" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F13_Quote#0000</v>
+        <v>SEK3F13_Quote#0001</v>
       </c>
       <c r="F17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -8207,7 +8181,7 @@
       </c>
       <c r="AB17" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA17,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F13_Quote#0000</v>
+        <v>FUTSEK3F13_Quote#0001</v>
       </c>
       <c r="AC17" s="75" t="e">
         <f t="shared" si="7"/>
@@ -8235,7 +8209,7 @@
       </c>
       <c r="E18" s="196" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F14_Quote#0000</v>
+        <v>SEK3F14_Quote#0001</v>
       </c>
       <c r="F18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -8291,7 +8265,7 @@
       </c>
       <c r="AB18" s="16" t="str">
         <f>_xll.qlSimpleQuote(AA18,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F14_Quote#0000</v>
+        <v>FUTSEK3F14_Quote#0001</v>
       </c>
       <c r="AC18" s="75" t="e">
         <f t="shared" si="7"/>
@@ -8319,7 +8293,7 @@
       </c>
       <c r="E19" s="197" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3F15_Quote#0000</v>
+        <v>SEK3F15_Quote#0001</v>
       </c>
       <c r="F19" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -8375,7 +8349,7 @@
       </c>
       <c r="AB19" s="22" t="str">
         <f>_xll.qlSimpleQuote(AA19,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FUTSEK3F15_Quote#0000</v>
+        <v>FUTSEK3F15_Quote#0001</v>
       </c>
       <c r="AC19" s="76" t="e">
         <f t="shared" si="7"/>
@@ -8458,7 +8432,7 @@
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8544,7 +8518,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="220">
         <f>_xll.ohTrigger(W5:W19)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X2" s="164"/>
     </row>
@@ -8594,7 +8568,7 @@
       <c r="M4" s="90"/>
       <c r="N4" s="91" t="str">
         <f>_xll.RData(N5:N19,O4:P4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 12:35:18</v>
+        <v>Updated at 10:54:52</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>71</v>
@@ -8636,7 +8610,7 @@
       </c>
       <c r="E5" s="189" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOISSW_Quote#0000</v>
+        <v>SEKOISSW_Quote#0001</v>
       </c>
       <c r="F5" s="185" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -8707,7 +8681,7 @@
       </c>
       <c r="E6" s="191" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS2W_Quote#0000</v>
+        <v>SEKOIS2W_Quote#0001</v>
       </c>
       <c r="F6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -8776,7 +8750,7 @@
       </c>
       <c r="E7" s="191" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS3W_Quote#0000</v>
+        <v>SEKOIS3W_Quote#0001</v>
       </c>
       <c r="F7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -8845,7 +8819,7 @@
       </c>
       <c r="E8" s="191" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS1M_Quote#0000</v>
+        <v>SEKOIS1M_Quote#0001</v>
       </c>
       <c r="F8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -8872,14 +8846,14 @@
         <v>SEKAMTNS1M=</v>
       </c>
       <c r="O8" s="253">
-        <v>-0.42000000000000004</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="P8" s="253">
-        <v>-0.4</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="Q8" s="19">
         <f t="shared" si="3"/>
-        <v>-0.41000000000000003</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="4"/>
@@ -8891,7 +8865,7 @@
       </c>
       <c r="U8" s="87"/>
       <c r="V8" s="19">
-        <v>-0.41000000000000003</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="W8" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
@@ -8915,7 +8889,7 @@
       </c>
       <c r="E9" s="191" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS2M_Quote#0000</v>
+        <v>SEKOIS2M_Quote#0001</v>
       </c>
       <c r="F9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -8942,18 +8916,18 @@
         <v>SEKAMTNS2M=</v>
       </c>
       <c r="O9" s="253">
-        <v>-0.43499999999999994</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="P9" s="253">
-        <v>-0.41500000000000004</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" si="3"/>
-        <v>-0.42499999999999999</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="4"/>
-        <v>1.9999999999999907E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="S9" s="87"/>
       <c r="T9" s="89">
@@ -8961,7 +8935,7 @@
       </c>
       <c r="U9" s="87"/>
       <c r="V9" s="19">
-        <v>-0.42499999999999999</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="W9" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
@@ -8984,7 +8958,7 @@
       </c>
       <c r="E10" s="191" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS3M_Quote#0000</v>
+        <v>SEKOIS3M_Quote#0001</v>
       </c>
       <c r="F10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -9011,14 +8985,14 @@
         <v>SEKAMTNS3M=</v>
       </c>
       <c r="O10" s="253">
-        <v>-0.44000000000000006</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="P10" s="253">
-        <v>-0.42000000000000004</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="3"/>
-        <v>-0.43000000000000005</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="4"/>
@@ -9030,7 +9004,7 @@
       </c>
       <c r="U10" s="87"/>
       <c r="V10" s="19">
-        <v>-0.43000000000000005</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="W10" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
@@ -9053,7 +9027,7 @@
       </c>
       <c r="E11" s="191" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS4M_Quote#0000</v>
+        <v>SEKOIS4M_Quote#0001</v>
       </c>
       <c r="F11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -9122,7 +9096,7 @@
       </c>
       <c r="E12" s="191" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS5M_Quote#0000</v>
+        <v>SEKOIS5M_Quote#0001</v>
       </c>
       <c r="F12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -9191,7 +9165,7 @@
       </c>
       <c r="E13" s="191" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS6M_Quote#0000</v>
+        <v>SEKOIS6M_Quote#0001</v>
       </c>
       <c r="F13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -9218,18 +9192,18 @@
         <v>SEKAMTNS6M=</v>
       </c>
       <c r="O13" s="253">
-        <v>-0.45999999999999996</v>
+        <v>-0.58500000000000008</v>
       </c>
       <c r="P13" s="253">
-        <v>-0.44000000000000006</v>
+        <v>-0.56500000000000006</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="3"/>
-        <v>-0.45</v>
+        <v>-0.57500000000000007</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="4"/>
-        <v>1.9999999999999907E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="S13" s="87"/>
       <c r="T13" s="89">
@@ -9237,7 +9211,7 @@
       </c>
       <c r="U13" s="87"/>
       <c r="V13" s="19">
-        <v>-0.45</v>
+        <v>-0.57500000000000007</v>
       </c>
       <c r="W13" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
@@ -9260,7 +9234,7 @@
       </c>
       <c r="E14" s="191" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS7M_Quote#0000</v>
+        <v>SEKOIS7M_Quote#0001</v>
       </c>
       <c r="F14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -9330,7 +9304,7 @@
       </c>
       <c r="E15" s="191" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS8M_Quote#0000</v>
+        <v>SEKOIS8M_Quote#0001</v>
       </c>
       <c r="F15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -9399,7 +9373,7 @@
       </c>
       <c r="E16" s="191" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS9M_Quote#0000</v>
+        <v>SEKOIS9M_Quote#0001</v>
       </c>
       <c r="F16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -9426,18 +9400,18 @@
         <v>SEKAMTNS9M=</v>
       </c>
       <c r="O16" s="253">
-        <v>-0.45999999999999996</v>
+        <v>-0.59499999999999997</v>
       </c>
       <c r="P16" s="253">
-        <v>-0.44000000000000006</v>
+        <v>-0.57500000000000007</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="3"/>
-        <v>-0.45</v>
+        <v>-0.58499999999999996</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="4"/>
-        <v>1.9999999999999907E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="S16" s="87"/>
       <c r="T16" s="89">
@@ -9445,7 +9419,7 @@
       </c>
       <c r="U16" s="87"/>
       <c r="V16" s="19">
-        <v>-0.45</v>
+        <v>-0.58499999999999996</v>
       </c>
       <c r="W16" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
@@ -9469,7 +9443,7 @@
       </c>
       <c r="E17" s="191" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS10M_Quote#0000</v>
+        <v>SEKOIS10M_Quote#0001</v>
       </c>
       <c r="F17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -9538,7 +9512,7 @@
       </c>
       <c r="E18" s="191" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS11M_Quote#0000</v>
+        <v>SEKOIS11M_Quote#0001</v>
       </c>
       <c r="F18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -9607,7 +9581,7 @@
       </c>
       <c r="E19" s="193" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS12M_Quote#0000</v>
+        <v>SEKOIS12M_Quote#0001</v>
       </c>
       <c r="F19" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -9821,7 +9795,7 @@
   <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -9890,7 +9864,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="8" t="str">
         <f>VLOOKUP(I1,AreaTable,2,FALSE)</f>
-        <v>ICAP</v>
+        <v>Reuters</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="256" t="s">
@@ -9898,7 +9872,7 @@
       </c>
       <c r="Q2" s="223" t="b">
         <f t="array" ref="Q2">AND(_xll.ohFilter($P$5:$P$44,ISNUMBER($P$5:$P$44))=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="205"/>
       <c r="S2" s="9"/>
@@ -9907,7 +9881,7 @@
       <c r="V2" s="9"/>
       <c r="W2" s="220">
         <f>_xll.ohTrigger(W5:W44)</f>
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="X2" s="164"/>
     </row>
@@ -9957,7 +9931,7 @@
       <c r="M4" s="90"/>
       <c r="N4" s="91" t="str">
         <f>_xll.RData(N5:N44,O4:P4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 12:33:34</v>
+        <v>Updated at 10:57:04</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>71</v>
@@ -9999,7 +9973,7 @@
       </c>
       <c r="E5" s="189" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS1Y_Quote#0000</v>
+        <v>SEKOIS1Y_Quote#0001</v>
       </c>
       <c r="F5" s="185" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -10022,21 +9996,21 @@
       </c>
       <c r="N5" s="83" t="str">
         <f t="array" ref="N5:N44">Instruments2&amp;"="&amp;VLOOKUP(Contributor2,ContributorTable,2,FALSE)</f>
-        <v>SEKAMTNS1Y=ICAP</v>
+        <v>SEKAMTNS1Y=</v>
       </c>
       <c r="O5" s="255">
-        <v>-0.45499999999999996</v>
+        <v>-0.6</v>
       </c>
       <c r="P5" s="255">
-        <v>0</v>
+        <v>-0.58000000000000007</v>
       </c>
       <c r="Q5" s="13">
         <f>IF($Q$2,IF(ISNUMBER(O5),O5,#NUM!),IFERROR(AVERAGE(O5:P5),#NUM!))</f>
-        <v>-0.45499999999999996</v>
+        <v>-0.59000000000000008</v>
       </c>
       <c r="R5" s="13">
         <f>(Q5-O5)*2</f>
-        <v>0</v>
+        <v>1.9999999999999796E-2</v>
       </c>
       <c r="S5" s="87"/>
       <c r="T5" s="88">
@@ -10045,11 +10019,11 @@
       <c r="U5" s="87"/>
       <c r="V5" s="13">
         <f t="array" ref="V5:V44">QuoteLive</f>
-        <v>-0.45499999999999996</v>
-      </c>
-      <c r="W5" s="15">
+        <v>-0.59000000000000008</v>
+      </c>
+      <c r="W5" s="15" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E5,V5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X5" s="166"/>
     </row>
@@ -10068,7 +10042,7 @@
       </c>
       <c r="E6" s="191" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS13M_Quote#0000</v>
+        <v>SEKOIS13M_Quote#0001</v>
       </c>
       <c r="F6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -10092,7 +10066,7 @@
         <v>SEKAMTNS13M</v>
       </c>
       <c r="N6" s="84" t="str">
-        <v>SEKAMTNS13M=ICAP</v>
+        <v>SEKAMTNS13M=</v>
       </c>
       <c r="O6" s="253" t="s">
         <v>110</v>
@@ -10137,7 +10111,7 @@
       </c>
       <c r="E7" s="191" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS14M_Quote#0000</v>
+        <v>SEKOIS14M_Quote#0001</v>
       </c>
       <c r="F7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -10161,7 +10135,7 @@
         <v>SEKAMTNS14M</v>
       </c>
       <c r="N7" s="84" t="str">
-        <v>SEKAMTNS14M=ICAP</v>
+        <v>SEKAMTNS14M=</v>
       </c>
       <c r="O7" s="253" t="s">
         <v>110</v>
@@ -10206,7 +10180,7 @@
       </c>
       <c r="E8" s="191" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS15M_Quote#0000</v>
+        <v>SEKOIS15M_Quote#0001</v>
       </c>
       <c r="F8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -10230,7 +10204,7 @@
         <v>SEKAMTNS15M</v>
       </c>
       <c r="N8" s="84" t="str">
-        <v>SEKAMTNS15M=ICAP</v>
+        <v>SEKAMTNS15M=</v>
       </c>
       <c r="O8" s="253" t="s">
         <v>110</v>
@@ -10276,7 +10250,7 @@
       </c>
       <c r="E9" s="191" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS16M_Quote#0000</v>
+        <v>SEKOIS16M_Quote#0001</v>
       </c>
       <c r="F9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -10300,7 +10274,7 @@
         <v>SEKAMTNS16M</v>
       </c>
       <c r="N9" s="84" t="str">
-        <v>SEKAMTNS16M=ICAP</v>
+        <v>SEKAMTNS16M=</v>
       </c>
       <c r="O9" s="253" t="s">
         <v>110</v>
@@ -10345,7 +10319,7 @@
       </c>
       <c r="E10" s="191" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS17M_Quote#0000</v>
+        <v>SEKOIS17M_Quote#0001</v>
       </c>
       <c r="F10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -10369,7 +10343,7 @@
         <v>SEKAMTNS17M</v>
       </c>
       <c r="N10" s="84" t="str">
-        <v>SEKAMTNS17M=ICAP</v>
+        <v>SEKAMTNS17M=</v>
       </c>
       <c r="O10" s="253" t="s">
         <v>110</v>
@@ -10414,7 +10388,7 @@
       </c>
       <c r="E11" s="191" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS18M_Quote#0000</v>
+        <v>SEKOIS18M_Quote#0001</v>
       </c>
       <c r="F11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -10438,7 +10412,7 @@
         <v>SEKAMTNS18M</v>
       </c>
       <c r="N11" s="84" t="str">
-        <v>SEKAMTNS18M=ICAP</v>
+        <v>SEKAMTNS18M=</v>
       </c>
       <c r="O11" s="253" t="s">
         <v>110</v>
@@ -10483,7 +10457,7 @@
       </c>
       <c r="E12" s="191" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS19M_Quote#0000</v>
+        <v>SEKOIS19M_Quote#0001</v>
       </c>
       <c r="F12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -10507,7 +10481,7 @@
         <v>SEKAMTNS19M</v>
       </c>
       <c r="N12" s="84" t="str">
-        <v>SEKAMTNS19M=ICAP</v>
+        <v>SEKAMTNS19M=</v>
       </c>
       <c r="O12" s="253" t="s">
         <v>110</v>
@@ -10552,7 +10526,7 @@
       </c>
       <c r="E13" s="191" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS20M_Quote#0000</v>
+        <v>SEKOIS20M_Quote#0001</v>
       </c>
       <c r="F13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -10576,7 +10550,7 @@
         <v>SEKAMTNS20M</v>
       </c>
       <c r="N13" s="84" t="str">
-        <v>SEKAMTNS20M=ICAP</v>
+        <v>SEKAMTNS20M=</v>
       </c>
       <c r="O13" s="253" t="s">
         <v>110</v>
@@ -10621,7 +10595,7 @@
       </c>
       <c r="E14" s="191" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS21M_Quote#0000</v>
+        <v>SEKOIS21M_Quote#0001</v>
       </c>
       <c r="F14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -10645,7 +10619,7 @@
         <v>SEKAMTNS21M</v>
       </c>
       <c r="N14" s="84" t="str">
-        <v>SEKAMTNS21M=ICAP</v>
+        <v>SEKAMTNS21M=</v>
       </c>
       <c r="O14" s="253" t="s">
         <v>110</v>
@@ -10691,7 +10665,7 @@
       </c>
       <c r="E15" s="191" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS22M_Quote#0000</v>
+        <v>SEKOIS22M_Quote#0001</v>
       </c>
       <c r="F15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -10715,7 +10689,7 @@
         <v>SEKAMTNS22M</v>
       </c>
       <c r="N15" s="84" t="str">
-        <v>SEKAMTNS22M=ICAP</v>
+        <v>SEKAMTNS22M=</v>
       </c>
       <c r="O15" s="253" t="s">
         <v>110</v>
@@ -10760,7 +10734,7 @@
       </c>
       <c r="E16" s="191" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS23M_Quote#0000</v>
+        <v>SEKOIS23M_Quote#0001</v>
       </c>
       <c r="F16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -10784,7 +10758,7 @@
         <v>SEKAMTNS23M</v>
       </c>
       <c r="N16" s="84" t="str">
-        <v>SEKAMTNS23M=ICAP</v>
+        <v>SEKAMTNS23M=</v>
       </c>
       <c r="O16" s="253" t="s">
         <v>110</v>
@@ -10830,7 +10804,7 @@
       </c>
       <c r="E17" s="191" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS2Y_Quote#0000</v>
+        <v>SEKOIS2Y_Quote#0001</v>
       </c>
       <c r="F17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -10854,21 +10828,21 @@
         <v>SEKAMTNS2Y</v>
       </c>
       <c r="N17" s="84" t="str">
-        <v>SEKAMTNS2Y=ICAP</v>
+        <v>SEKAMTNS2Y=</v>
       </c>
       <c r="O17" s="253">
-        <v>-0.3725</v>
+        <v>-0.53600000000000003</v>
       </c>
       <c r="P17" s="253">
-        <v>0</v>
+        <v>-0.51600000000000001</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="3"/>
-        <v>-0.3725</v>
+        <v>-0.52600000000000002</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="S17" s="87"/>
       <c r="T17" s="89">
@@ -10876,11 +10850,11 @@
       </c>
       <c r="U17" s="87"/>
       <c r="V17" s="19">
-        <v>-0.3725</v>
-      </c>
-      <c r="W17" s="21">
+        <v>-0.52600000000000002</v>
+      </c>
+      <c r="W17" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E17,V17/100,Trigger)</f>
-        <v>-2.4999999999999849E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="X17" s="166"/>
     </row>
@@ -10899,7 +10873,7 @@
       </c>
       <c r="E18" s="191" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS27M_Quote#0000</v>
+        <v>SEKOIS27M_Quote#0001</v>
       </c>
       <c r="F18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -10923,7 +10897,7 @@
         <v>SEKAMTNS27M</v>
       </c>
       <c r="N18" s="84" t="str">
-        <v>SEKAMTNS27M=ICAP</v>
+        <v>SEKAMTNS27M=</v>
       </c>
       <c r="O18" s="253" t="s">
         <v>110</v>
@@ -10968,7 +10942,7 @@
       </c>
       <c r="E19" s="191" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS30M_Quote#0000</v>
+        <v>SEKOIS30M_Quote#0001</v>
       </c>
       <c r="F19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -10992,7 +10966,7 @@
         <v>SEKAMTNS30M</v>
       </c>
       <c r="N19" s="84" t="str">
-        <v>SEKAMTNS30M=ICAP</v>
+        <v>SEKAMTNS30M=</v>
       </c>
       <c r="O19" s="253" t="s">
         <v>110</v>
@@ -11037,7 +11011,7 @@
       </c>
       <c r="E20" s="191" t="str">
         <f>_xll.qlSimpleQuote(D20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS33M_Quote#0000</v>
+        <v>SEKOIS33M_Quote#0001</v>
       </c>
       <c r="F20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -11061,7 +11035,7 @@
         <v>SEKAMTNS33M</v>
       </c>
       <c r="N20" s="84" t="str">
-        <v>SEKAMTNS33M=ICAP</v>
+        <v>SEKAMTNS33M=</v>
       </c>
       <c r="O20" s="253" t="s">
         <v>110</v>
@@ -11106,7 +11080,7 @@
       </c>
       <c r="E21" s="191" t="str">
         <f>_xll.qlSimpleQuote(D21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS3Y_Quote#0000</v>
+        <v>SEKOIS3Y_Quote#0001</v>
       </c>
       <c r="F21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -11130,21 +11104,21 @@
         <v>SEKAMTNS3Y</v>
       </c>
       <c r="N21" s="84" t="str">
-        <v>SEKAMTNS3Y=ICAP</v>
+        <v>SEKAMTNS3Y=</v>
       </c>
       <c r="O21" s="253">
-        <v>-0.20249999999999999</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="P21" s="253">
-        <v>0</v>
+        <v>-0.39500000000000002</v>
       </c>
       <c r="Q21" s="19">
         <f t="shared" si="3"/>
-        <v>-0.20249999999999999</v>
+        <v>-0.42000000000000004</v>
       </c>
       <c r="R21" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9999999999999933E-2</v>
       </c>
       <c r="S21" s="87"/>
       <c r="T21" s="89">
@@ -11152,11 +11126,11 @@
       </c>
       <c r="U21" s="87"/>
       <c r="V21" s="19">
-        <v>-0.20249999999999999</v>
-      </c>
-      <c r="W21" s="21">
+        <v>-0.42000000000000004</v>
+      </c>
+      <c r="W21" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E21,V21/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X21" s="166"/>
     </row>
@@ -11175,7 +11149,7 @@
       </c>
       <c r="E22" s="191" t="str">
         <f>_xll.qlSimpleQuote(D22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS39M_Quote#0000</v>
+        <v>SEKOIS39M_Quote#0001</v>
       </c>
       <c r="F22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -11199,7 +11173,7 @@
         <v>SEKAMTNS39M</v>
       </c>
       <c r="N22" s="84" t="str">
-        <v>SEKAMTNS39M=ICAP</v>
+        <v>SEKAMTNS39M=</v>
       </c>
       <c r="O22" s="253" t="s">
         <v>110</v>
@@ -11244,7 +11218,7 @@
       </c>
       <c r="E23" s="191" t="str">
         <f>_xll.qlSimpleQuote(D23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS42M_Quote#0000</v>
+        <v>SEKOIS42M_Quote#0001</v>
       </c>
       <c r="F23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -11268,7 +11242,7 @@
         <v>SEKAMTNS42M</v>
       </c>
       <c r="N23" s="84" t="str">
-        <v>SEKAMTNS42M=ICAP</v>
+        <v>SEKAMTNS42M=</v>
       </c>
       <c r="O23" s="253" t="s">
         <v>110</v>
@@ -11313,7 +11287,7 @@
       </c>
       <c r="E24" s="191" t="str">
         <f>_xll.qlSimpleQuote(D24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS45M_Quote#0000</v>
+        <v>SEKOIS45M_Quote#0001</v>
       </c>
       <c r="F24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -11337,7 +11311,7 @@
         <v>SEKAMTNS45M</v>
       </c>
       <c r="N24" s="84" t="str">
-        <v>SEKAMTNS45M=ICAP</v>
+        <v>SEKAMTNS45M=</v>
       </c>
       <c r="O24" s="253" t="s">
         <v>110</v>
@@ -11382,7 +11356,7 @@
       </c>
       <c r="E25" s="191" t="str">
         <f>_xll.qlSimpleQuote(D25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS4Y_Quote#0000</v>
+        <v>SEKOIS4Y_Quote#0001</v>
       </c>
       <c r="F25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -11406,21 +11380,21 @@
         <v>SEKAMTNS4Y</v>
       </c>
       <c r="N25" s="84" t="str">
-        <v>SEKAMTNS4Y=ICAP</v>
+        <v>SEKAMTNS4Y=</v>
       </c>
       <c r="O25" s="253">
-        <v>-7.4999999999999997E-3</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="P25" s="253">
-        <v>0</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="Q25" s="19">
         <f t="shared" si="3"/>
-        <v>-7.4999999999999997E-3</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="R25" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9999999999999933E-2</v>
       </c>
       <c r="S25" s="87"/>
       <c r="T25" s="89">
@@ -11428,11 +11402,11 @@
       </c>
       <c r="U25" s="87"/>
       <c r="V25" s="19">
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="W25" s="21">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="W25" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E25,V25/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X25" s="166"/>
     </row>
@@ -11451,7 +11425,7 @@
       </c>
       <c r="E26" s="191" t="str">
         <f>_xll.qlSimpleQuote(D26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS51M_Quote#0000</v>
+        <v>SEKOIS51M_Quote#0001</v>
       </c>
       <c r="F26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -11475,7 +11449,7 @@
         <v>SEKAMTNS51M</v>
       </c>
       <c r="N26" s="84" t="str">
-        <v>SEKAMTNS51M=ICAP</v>
+        <v>SEKAMTNS51M=</v>
       </c>
       <c r="O26" s="253" t="s">
         <v>110</v>
@@ -11520,7 +11494,7 @@
       </c>
       <c r="E27" s="191" t="str">
         <f>_xll.qlSimpleQuote(D27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS54M_Quote#0000</v>
+        <v>SEKOIS54M_Quote#0001</v>
       </c>
       <c r="F27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -11544,7 +11518,7 @@
         <v>SEKAMTNS54M</v>
       </c>
       <c r="N27" s="84" t="str">
-        <v>SEKAMTNS54M=ICAP</v>
+        <v>SEKAMTNS54M=</v>
       </c>
       <c r="O27" s="253" t="s">
         <v>110</v>
@@ -11590,7 +11564,7 @@
       </c>
       <c r="E28" s="191" t="str">
         <f>_xll.qlSimpleQuote(D28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS57M_Quote#0000</v>
+        <v>SEKOIS57M_Quote#0001</v>
       </c>
       <c r="F28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -11614,7 +11588,7 @@
         <v>SEKAMTNS57M</v>
       </c>
       <c r="N28" s="84" t="str">
-        <v>SEKAMTNS57M=ICAP</v>
+        <v>SEKAMTNS57M=</v>
       </c>
       <c r="O28" s="253" t="s">
         <v>110</v>
@@ -11659,7 +11633,7 @@
       </c>
       <c r="E29" s="191" t="str">
         <f>_xll.qlSimpleQuote(D29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS5Y_Quote#0000</v>
+        <v>SEKOIS5Y_Quote#0001</v>
       </c>
       <c r="F29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -11683,21 +11657,21 @@
         <v>SEKAMTNS5Y</v>
       </c>
       <c r="N29" s="84" t="str">
-        <v>SEKAMTNS5Y=ICAP</v>
+        <v>SEKAMTNS5Y=</v>
       </c>
       <c r="O29" s="253">
-        <v>0.24</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="P29" s="253">
-        <v>0</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="Q29" s="19">
         <f t="shared" si="3"/>
-        <v>0.24</v>
+        <v>-0.11500000000000002</v>
       </c>
       <c r="R29" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="S29" s="87"/>
       <c r="T29" s="89">
@@ -11705,11 +11679,11 @@
       </c>
       <c r="U29" s="87"/>
       <c r="V29" s="19">
-        <v>0.24</v>
-      </c>
-      <c r="W29" s="21">
+        <v>-0.11500000000000002</v>
+      </c>
+      <c r="W29" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E29,V29/100,Trigger)</f>
-        <v>-2.5000000000000282E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="X29" s="166"/>
     </row>
@@ -11728,7 +11702,7 @@
       </c>
       <c r="E30" s="191" t="str">
         <f>_xll.qlSimpleQuote(D30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS6Y_Quote#0000</v>
+        <v>SEKOIS6Y_Quote#0001</v>
       </c>
       <c r="F30" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -11752,21 +11726,21 @@
         <v>SEKAMTNS6Y</v>
       </c>
       <c r="N30" s="84" t="str">
-        <v>SEKAMTNS6Y=ICAP</v>
+        <v>SEKAMTNS6Y=</v>
       </c>
       <c r="O30" s="253">
-        <v>0.47499999999999998</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="P30" s="253">
-        <v>0</v>
+        <v>1.5000000000000001E-2</v>
       </c>
       <c r="Q30" s="19">
         <f t="shared" si="3"/>
-        <v>0.47499999999999998</v>
+        <v>-1.0000000000000002E-2</v>
       </c>
       <c r="R30" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S30" s="87"/>
       <c r="T30" s="89">
@@ -11774,11 +11748,11 @@
       </c>
       <c r="U30" s="87"/>
       <c r="V30" s="19">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="W30" s="21">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="W30" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E30,V30/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X30" s="166"/>
     </row>
@@ -11797,7 +11771,7 @@
       </c>
       <c r="E31" s="191" t="str">
         <f>_xll.qlSimpleQuote(D31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS7Y_Quote#0000</v>
+        <v>SEKOIS7Y_Quote#0001</v>
       </c>
       <c r="F31" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -11821,21 +11795,21 @@
         <v>SEKAMTNS7Y</v>
       </c>
       <c r="N31" s="84" t="str">
-        <v>SEKAMTNS7Y=ICAP</v>
+        <v>SEKAMTNS7Y=</v>
       </c>
       <c r="O31" s="253">
-        <v>0.68499999999999994</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="P31" s="253">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="Q31" s="19">
         <f t="shared" si="3"/>
-        <v>0.68499999999999994</v>
+        <v>0.20500000000000002</v>
       </c>
       <c r="R31" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="S31" s="87"/>
       <c r="T31" s="89">
@@ -11843,11 +11817,11 @@
       </c>
       <c r="U31" s="87"/>
       <c r="V31" s="19">
-        <v>0.68499999999999994</v>
-      </c>
-      <c r="W31" s="21">
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="W31" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E31,V31/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X31" s="166"/>
     </row>
@@ -11866,7 +11840,7 @@
       </c>
       <c r="E32" s="191" t="str">
         <f>_xll.qlSimpleQuote(D32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS8Y_Quote#0000</v>
+        <v>SEKOIS8Y_Quote#0001</v>
       </c>
       <c r="F32" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E32)</f>
@@ -11890,21 +11864,21 @@
         <v>SEKAMTNS8Y</v>
       </c>
       <c r="N32" s="84" t="str">
-        <v>SEKAMTNS8Y=ICAP</v>
+        <v>SEKAMTNS8Y=</v>
       </c>
       <c r="O32" s="253">
-        <v>0.86750000000000005</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="P32" s="253">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="Q32" s="19">
         <f t="shared" si="3"/>
-        <v>0.86750000000000005</v>
+        <v>0.35</v>
       </c>
       <c r="R32" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9999999999999933E-2</v>
       </c>
       <c r="S32" s="87"/>
       <c r="T32" s="89">
@@ -11912,11 +11886,11 @@
       </c>
       <c r="U32" s="87"/>
       <c r="V32" s="19">
-        <v>0.86750000000000005</v>
-      </c>
-      <c r="W32" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="W32" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E32,V32/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X32" s="166"/>
     </row>
@@ -11935,7 +11909,7 @@
       </c>
       <c r="E33" s="191" t="str">
         <f>_xll.qlSimpleQuote(D33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS9Y_Quote#0000</v>
+        <v>SEKOIS9Y_Quote#0001</v>
       </c>
       <c r="F33" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E33)</f>
@@ -11959,21 +11933,21 @@
         <v>SEKAMTNS9Y</v>
       </c>
       <c r="N33" s="84" t="str">
-        <v>SEKAMTNS9Y=ICAP</v>
+        <v>SEKAMTNS9Y=</v>
       </c>
       <c r="O33" s="253">
-        <v>1.0275000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="P33" s="253">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Q33" s="19">
         <f t="shared" si="3"/>
-        <v>1.0275000000000001</v>
+        <v>0.42500000000000004</v>
       </c>
       <c r="R33" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="S33" s="87"/>
       <c r="T33" s="89">
@@ -11981,11 +11955,11 @@
       </c>
       <c r="U33" s="87"/>
       <c r="V33" s="19">
-        <v>1.0275000000000001</v>
-      </c>
-      <c r="W33" s="21">
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="W33" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E33,V33/100,Trigger)</f>
-        <v>-2.4999999999998981E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="X33" s="166"/>
     </row>
@@ -12004,7 +11978,7 @@
       </c>
       <c r="E34" s="191" t="str">
         <f>_xll.qlSimpleQuote(D34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS10Y_Quote#0000</v>
+        <v>SEKOIS10Y_Quote#0001</v>
       </c>
       <c r="F34" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E34)</f>
@@ -12028,21 +12002,21 @@
         <v>SEKAMTNS10Y</v>
       </c>
       <c r="N34" s="84" t="str">
-        <v>SEKAMTNS10Y=ICAP</v>
+        <v>SEKAMTNS10Y=</v>
       </c>
       <c r="O34" s="253">
-        <v>1.17</v>
+        <v>0.56500000000000006</v>
       </c>
       <c r="P34" s="253">
-        <v>0</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="Q34" s="19">
         <f t="shared" si="3"/>
-        <v>1.17</v>
+        <v>0.59000000000000008</v>
       </c>
       <c r="R34" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="S34" s="87"/>
       <c r="T34" s="89">
@@ -12050,11 +12024,11 @@
       </c>
       <c r="U34" s="87"/>
       <c r="V34" s="19">
-        <v>1.17</v>
-      </c>
-      <c r="W34" s="21">
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="W34" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E34,V34/100,Trigger)</f>
-        <v>-2.5000000000002451E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="X34" s="166"/>
     </row>
@@ -12073,7 +12047,7 @@
       </c>
       <c r="E35" s="191" t="str">
         <f>_xll.qlSimpleQuote(D35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS12Y_Quote#0000</v>
+        <v>SEKOIS12Y_Quote#0001</v>
       </c>
       <c r="F35" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E35)</f>
@@ -12097,21 +12071,21 @@
         <v>SEKAMTNS12Y</v>
       </c>
       <c r="N35" s="84" t="str">
-        <v>SEKAMTNS12Y=ICAP</v>
+        <v>SEKAMTNS12Y=</v>
       </c>
       <c r="O35" s="253">
-        <v>1.405</v>
+        <v>0.71000000000000008</v>
       </c>
       <c r="P35" s="253">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="Q35" s="19">
         <f t="shared" si="3"/>
-        <v>1.405</v>
+        <v>0.7350000000000001</v>
       </c>
       <c r="R35" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="S35" s="87"/>
       <c r="T35" s="89">
@@ -12119,11 +12093,11 @@
       </c>
       <c r="U35" s="87"/>
       <c r="V35" s="19">
-        <v>1.405</v>
-      </c>
-      <c r="W35" s="21">
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="W35" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E35,V35/100,Trigger)</f>
-        <v>-2.4999999999998981E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="X35" s="166"/>
     </row>
@@ -12142,7 +12116,7 @@
       </c>
       <c r="E36" s="191" t="str">
         <f>_xll.qlSimpleQuote(D36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS15Y_Quote#0000</v>
+        <v>SEKOIS15Y_Quote#0001</v>
       </c>
       <c r="F36" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E36)</f>
@@ -12166,21 +12140,21 @@
         <v>SEKAMTNS15Y</v>
       </c>
       <c r="N36" s="84" t="str">
-        <v>SEKAMTNS15Y=ICAP</v>
+        <v>SEKAMTNS15Y=</v>
       </c>
       <c r="O36" s="253">
-        <v>1.6675</v>
+        <v>0.97500000000000009</v>
       </c>
       <c r="P36" s="253">
-        <v>0</v>
+        <v>1.0350000000000001</v>
       </c>
       <c r="Q36" s="19">
         <f t="shared" si="3"/>
-        <v>1.6675</v>
+        <v>1.0050000000000001</v>
       </c>
       <c r="R36" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="S36" s="87"/>
       <c r="T36" s="89">
@@ -12188,11 +12162,11 @@
       </c>
       <c r="U36" s="87"/>
       <c r="V36" s="19">
-        <v>1.6675</v>
-      </c>
-      <c r="W36" s="21">
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="W36" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E36,V36/100,Trigger)</f>
-        <v>-2.5000000000000716E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="X36" s="166"/>
     </row>
@@ -12211,7 +12185,7 @@
       </c>
       <c r="E37" s="191" t="str">
         <f>_xll.qlSimpleQuote(D37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS20Y_Quote#0000</v>
+        <v>SEKOIS20Y_Quote#0001</v>
       </c>
       <c r="F37" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E37)</f>
@@ -12235,21 +12209,21 @@
         <v>SEKAMTNS20Y</v>
       </c>
       <c r="N37" s="84" t="str">
-        <v>SEKAMTNS20Y=ICAP</v>
+        <v>SEKAMTNS20Y=</v>
       </c>
       <c r="O37" s="253">
-        <v>1.9575</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="P37" s="253">
-        <v>0</v>
+        <v>1.2750000000000001</v>
       </c>
       <c r="Q37" s="19">
         <f t="shared" si="3"/>
-        <v>1.9575</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="R37" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="S37" s="87"/>
       <c r="T37" s="89">
@@ -12257,11 +12231,11 @@
       </c>
       <c r="U37" s="87"/>
       <c r="V37" s="19">
-        <v>1.9575</v>
-      </c>
-      <c r="W37" s="21">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="W37" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E37,V37/100,Trigger)</f>
-        <v>-2.5000000000000716E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="X37" s="166"/>
     </row>
@@ -12280,7 +12254,7 @@
       </c>
       <c r="E38" s="191" t="str">
         <f>_xll.qlSimpleQuote(D38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS25Y_Quote#0000</v>
+        <v>SEKOIS25Y_Quote#0001</v>
       </c>
       <c r="F38" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E38)</f>
@@ -12304,21 +12278,21 @@
         <v>SEKAMTNS25Y</v>
       </c>
       <c r="N38" s="84" t="str">
-        <v>SEKAMTNS25Y=ICAP</v>
+        <v>SEKAMTNS25Y=</v>
       </c>
       <c r="O38" s="253">
-        <v>2.09</v>
+        <v>1.2950000000000002</v>
       </c>
       <c r="P38" s="253">
-        <v>0</v>
+        <v>1.345</v>
       </c>
       <c r="Q38" s="19">
         <f t="shared" si="3"/>
-        <v>2.09</v>
+        <v>1.32</v>
       </c>
       <c r="R38" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="S38" s="87"/>
       <c r="T38" s="89">
@@ -12326,11 +12300,11 @@
       </c>
       <c r="U38" s="87"/>
       <c r="V38" s="19">
-        <v>2.09</v>
-      </c>
-      <c r="W38" s="21">
+        <v>1.32</v>
+      </c>
+      <c r="W38" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E38,V38/100,Trigger)</f>
-        <v>-2.5000000000000716E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="X38" s="166"/>
     </row>
@@ -12349,7 +12323,7 @@
       </c>
       <c r="E39" s="191" t="str">
         <f>_xll.qlSimpleQuote(D39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS27Y_Quote#0000</v>
+        <v>SEKOIS27Y_Quote#0001</v>
       </c>
       <c r="F39" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E39)</f>
@@ -12373,7 +12347,7 @@
         <v>SEKAMTNS27Y</v>
       </c>
       <c r="N39" s="84" t="str">
-        <v>SEKAMTNS27Y=ICAP</v>
+        <v>SEKAMTNS27Y=</v>
       </c>
       <c r="O39" s="253" t="s">
         <v>110</v>
@@ -12418,7 +12392,7 @@
       </c>
       <c r="E40" s="191" t="str">
         <f>_xll.qlSimpleQuote(D40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS30Y_Quote#0000</v>
+        <v>SEKOIS30Y_Quote#0001</v>
       </c>
       <c r="F40" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E40)</f>
@@ -12442,21 +12416,21 @@
         <v>SEKAMTNS30Y</v>
       </c>
       <c r="N40" s="84" t="str">
-        <v>SEKAMTNS30Y=ICAP</v>
+        <v>SEKAMTNS30Y=</v>
       </c>
       <c r="O40" s="253">
-        <v>2.13</v>
+        <v>1.33</v>
       </c>
       <c r="P40" s="253">
-        <v>0</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" si="3"/>
-        <v>2.13</v>
+        <v>1.355</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="S40" s="87"/>
       <c r="T40" s="89">
@@ -12464,11 +12438,11 @@
       </c>
       <c r="U40" s="87"/>
       <c r="V40" s="19">
-        <v>2.13</v>
-      </c>
-      <c r="W40" s="21">
+        <v>1.355</v>
+      </c>
+      <c r="W40" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E40,V40/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X40" s="166"/>
     </row>
@@ -12487,7 +12461,7 @@
       </c>
       <c r="E41" s="191" t="str">
         <f>_xll.qlSimpleQuote(D41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS35Y_Quote#0000</v>
+        <v>SEKOIS35Y_Quote#0001</v>
       </c>
       <c r="F41" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E41)</f>
@@ -12511,7 +12485,7 @@
         <v>SEKAMTNS35Y</v>
       </c>
       <c r="N41" s="84" t="str">
-        <v>SEKAMTNS35Y=ICAP</v>
+        <v>SEKAMTNS35Y=</v>
       </c>
       <c r="O41" s="253" t="s">
         <v>110</v>
@@ -12556,7 +12530,7 @@
       </c>
       <c r="E42" s="191" t="str">
         <f>_xll.qlSimpleQuote(D42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS40Y_Quote#0000</v>
+        <v>SEKOIS40Y_Quote#0001</v>
       </c>
       <c r="F42" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E42)</f>
@@ -12580,7 +12554,7 @@
         <v>SEKAMTNS40Y</v>
       </c>
       <c r="N42" s="84" t="str">
-        <v>SEKAMTNS40Y=ICAP</v>
+        <v>SEKAMTNS40Y=</v>
       </c>
       <c r="O42" s="253" t="s">
         <v>110</v>
@@ -12625,7 +12599,7 @@
       </c>
       <c r="E43" s="191" t="str">
         <f>_xll.qlSimpleQuote(D43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS45Y_Quote#0000</v>
+        <v>SEKOIS45Y_Quote#0001</v>
       </c>
       <c r="F43" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(E43)</f>
@@ -12649,7 +12623,7 @@
         <v>SEKAMTNS45Y</v>
       </c>
       <c r="N43" s="84" t="str">
-        <v>SEKAMTNS45Y=ICAP</v>
+        <v>SEKAMTNS45Y=</v>
       </c>
       <c r="O43" s="253" t="s">
         <v>110</v>
@@ -12694,7 +12668,7 @@
       </c>
       <c r="E44" s="193" t="str">
         <f>_xll.qlSimpleQuote(D44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS50Y_Quote#0000</v>
+        <v>SEKOIS50Y_Quote#0001</v>
       </c>
       <c r="F44" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(E44)</f>
@@ -12718,7 +12692,7 @@
         <v>SEKAMTNS50Y</v>
       </c>
       <c r="N44" s="85" t="str">
-        <v>SEKAMTNS50Y=ICAP</v>
+        <v>SEKAMTNS50Y=</v>
       </c>
       <c r="O44" s="254" t="s">
         <v>110</v>
@@ -12907,7 +12881,7 @@
   <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -12995,7 +12969,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="220">
         <f>_xll.ohTrigger(X5:X31)</f>
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="164"/>
     </row>
@@ -13047,7 +13021,7 @@
       <c r="N4" s="215"/>
       <c r="O4" s="61" t="str">
         <f>_xll.RData(O5:O31,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:54:33</v>
+        <v>Updated at 10:54:52</v>
       </c>
       <c r="P4" s="59" t="s">
         <v>71</v>
@@ -13091,7 +13065,7 @@
       </c>
       <c r="F5" s="191" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S6M_Quote#0000</v>
+        <v>SEKAB3S6M_Quote#0001</v>
       </c>
       <c r="G5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13164,7 +13138,7 @@
       </c>
       <c r="F6" s="191" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S1Y_Quote#0000</v>
+        <v>SEKAB3S1Y_Quote#0001</v>
       </c>
       <c r="G6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13191,14 +13165,14 @@
         <v>SEKAB3S1Y=ICAP</v>
       </c>
       <c r="P6" s="253">
-        <v>-0.4425</v>
+        <v>-0.54500000000000004</v>
       </c>
       <c r="Q6" s="253">
-        <v>-0.39249999999999996</v>
+        <v>-0.49500000000000005</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" ref="R6:R31" si="2">IF($R$2,IF(ISNUMBER(P6),P6,#NUM!),IFERROR(AVERAGE(P6:Q6),#NUM!))</f>
-        <v>-0.41749999999999998</v>
+        <v>-0.52</v>
       </c>
       <c r="S6" s="19">
         <f t="shared" ref="S6:S31" si="3">(R6-P6)*2</f>
@@ -13210,11 +13184,11 @@
       </c>
       <c r="V6" s="87"/>
       <c r="W6" s="19">
-        <v>-0.41749999999999998</v>
-      </c>
-      <c r="X6" s="21">
+        <v>-0.52</v>
+      </c>
+      <c r="X6" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="166"/>
     </row>
@@ -13235,7 +13209,7 @@
       </c>
       <c r="F7" s="191" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S15M_Quote#0000</v>
+        <v>SEKAB3S15M_Quote#0001</v>
       </c>
       <c r="G7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13306,7 +13280,7 @@
       </c>
       <c r="F8" s="191" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S18M_Quote#0000</v>
+        <v>SEKAB3S18M_Quote#0001</v>
       </c>
       <c r="G8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13377,7 +13351,7 @@
       </c>
       <c r="F9" s="191" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S21M_Quote#0000</v>
+        <v>SEKAB3S21M_Quote#0001</v>
       </c>
       <c r="G9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13448,7 +13422,7 @@
       </c>
       <c r="F10" s="191" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S2Y_Quote#0000</v>
+        <v>SEKAB3S2Y_Quote#0001</v>
       </c>
       <c r="G10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13475,14 +13449,14 @@
         <v>SEKAB3S2Y=ICAP</v>
       </c>
       <c r="P10" s="253">
-        <v>-0.33500000000000002</v>
+        <v>-0.47000000000000003</v>
       </c>
       <c r="Q10" s="253">
-        <v>-0.28500000000000003</v>
+        <v>-0.42000000000000004</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="2"/>
-        <v>-0.31000000000000005</v>
+        <v>-0.44500000000000006</v>
       </c>
       <c r="S10" s="19">
         <f t="shared" si="3"/>
@@ -13494,11 +13468,11 @@
       </c>
       <c r="V10" s="87"/>
       <c r="W10" s="19">
-        <v>-0.31000000000000005</v>
-      </c>
-      <c r="X10" s="21">
+        <v>-0.44500000000000006</v>
+      </c>
+      <c r="X10" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="166"/>
     </row>
@@ -13519,7 +13493,7 @@
       </c>
       <c r="F11" s="191" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S27M_Quote#0000</v>
+        <v>SEKAB3S27M_Quote#0001</v>
       </c>
       <c r="G11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13590,7 +13564,7 @@
       </c>
       <c r="F12" s="191" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S30M_Quote#0000</v>
+        <v>SEKAB3S30M_Quote#0001</v>
       </c>
       <c r="G12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13661,7 +13635,7 @@
       </c>
       <c r="F13" s="191" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S33M_Quote#0000</v>
+        <v>SEKAB3S33M_Quote#0001</v>
       </c>
       <c r="G13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -13732,7 +13706,7 @@
       </c>
       <c r="F14" s="191" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S3Y_Quote#0000</v>
+        <v>SEKAB3S3Y_Quote#0001</v>
       </c>
       <c r="G14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -13759,18 +13733,18 @@
         <v>SEKAB3S3Y=ICAP</v>
       </c>
       <c r="P14" s="253">
-        <v>-0.13250000000000001</v>
+        <v>-0.35000000000000003</v>
       </c>
       <c r="Q14" s="253">
-        <v>-8.249999999999999E-2</v>
+        <v>-0.3</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="2"/>
-        <v>-0.1075</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="S14" s="19">
         <f t="shared" si="3"/>
-        <v>5.0000000000000017E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T14" s="87"/>
       <c r="U14" s="89">
@@ -13778,11 +13752,11 @@
       </c>
       <c r="V14" s="87"/>
       <c r="W14" s="19">
-        <v>-0.1075</v>
-      </c>
-      <c r="X14" s="21">
+        <v>-0.32500000000000001</v>
+      </c>
+      <c r="X14" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y14" s="166"/>
     </row>
@@ -13803,7 +13777,7 @@
       </c>
       <c r="F15" s="191" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S4Y_Quote#0000</v>
+        <v>SEKAB3S4Y_Quote#0001</v>
       </c>
       <c r="G15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -13830,18 +13804,18 @@
         <v>SEKAB3S4Y=ICAP</v>
       </c>
       <c r="P15" s="253">
-        <v>0.1</v>
+        <v>-0.21000000000000002</v>
       </c>
       <c r="Q15" s="253">
-        <v>0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>-0.185</v>
       </c>
       <c r="S15" s="19">
         <f t="shared" si="3"/>
-        <v>4.9999999999999989E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T15" s="87"/>
       <c r="U15" s="89">
@@ -13849,11 +13823,11 @@
       </c>
       <c r="V15" s="87"/>
       <c r="W15" s="19">
-        <v>0.125</v>
-      </c>
-      <c r="X15" s="21">
+        <v>-0.185</v>
+      </c>
+      <c r="X15" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="166"/>
     </row>
@@ -13874,7 +13848,7 @@
       </c>
       <c r="F16" s="191" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S5Y_Quote#0000</v>
+        <v>SEKAB3S5Y_Quote#0001</v>
       </c>
       <c r="G16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -13901,18 +13875,18 @@
         <v>SEKAB3S5Y=ICAP</v>
       </c>
       <c r="P16" s="253">
-        <v>0.35249999999999998</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="Q16" s="253">
-        <v>0.40250000000000002</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="2"/>
-        <v>0.3775</v>
+        <v>-0.03</v>
       </c>
       <c r="S16" s="19">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T16" s="87"/>
       <c r="U16" s="89">
@@ -13920,11 +13894,11 @@
       </c>
       <c r="V16" s="87"/>
       <c r="W16" s="19">
-        <v>0.3775</v>
-      </c>
-      <c r="X16" s="21">
+        <v>-0.03</v>
+      </c>
+      <c r="X16" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="166"/>
     </row>
@@ -13945,7 +13919,7 @@
       </c>
       <c r="F17" s="191" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S6Y_Quote#0000</v>
+        <v>SEKAB3S6Y_Quote#0001</v>
       </c>
       <c r="G17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -13972,18 +13946,18 @@
         <v>SEKAB3S6Y=ICAP</v>
       </c>
       <c r="P17" s="253">
-        <v>0.59000000000000008</v>
+        <v>0.11</v>
       </c>
       <c r="Q17" s="253">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="2"/>
-        <v>0.61499999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="S17" s="19">
         <f t="shared" si="3"/>
-        <v>4.9999999999999822E-2</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="T17" s="87"/>
       <c r="U17" s="89">
@@ -13991,11 +13965,11 @@
       </c>
       <c r="V17" s="87"/>
       <c r="W17" s="19">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="X17" s="21">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="X17" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/100,Trigger)</f>
-        <v>2.4999999999999849E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y17" s="166"/>
     </row>
@@ -14016,7 +13990,7 @@
       </c>
       <c r="F18" s="191" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S7Y_Quote#0000</v>
+        <v>SEKAB3S7Y_Quote#0001</v>
       </c>
       <c r="G18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -14043,18 +14017,18 @@
         <v>SEKAB3S7Y=ICAP</v>
       </c>
       <c r="P18" s="253">
-        <v>0.8</v>
+        <v>0.27</v>
       </c>
       <c r="Q18" s="253">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
       <c r="R18" s="19">
         <f t="shared" si="2"/>
-        <v>0.82499999999999996</v>
+        <v>0.29500000000000004</v>
       </c>
       <c r="S18" s="19">
         <f t="shared" si="3"/>
-        <v>4.9999999999999822E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T18" s="87"/>
       <c r="U18" s="89">
@@ -14062,11 +14036,11 @@
       </c>
       <c r="V18" s="87"/>
       <c r="W18" s="19">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="X18" s="21">
+        <v>0.29500000000000004</v>
+      </c>
+      <c r="X18" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y18" s="166"/>
     </row>
@@ -14087,7 +14061,7 @@
       </c>
       <c r="F19" s="191" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S8Y_Quote#0000</v>
+        <v>SEKAB3S8Y_Quote#0001</v>
       </c>
       <c r="G19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -14114,18 +14088,18 @@
         <v>SEKAB3S8Y=ICAP</v>
       </c>
       <c r="P19" s="253">
-        <v>0.98000000000000009</v>
+        <v>0.41750000000000004</v>
       </c>
       <c r="Q19" s="253">
-        <v>1.03</v>
+        <v>0.46750000000000003</v>
       </c>
       <c r="R19" s="19">
         <f t="shared" si="2"/>
-        <v>1.0050000000000001</v>
+        <v>0.4425</v>
       </c>
       <c r="S19" s="19">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.9999999999999933E-2</v>
       </c>
       <c r="T19" s="87"/>
       <c r="U19" s="89">
@@ -14133,11 +14107,11 @@
       </c>
       <c r="V19" s="87"/>
       <c r="W19" s="19">
-        <v>1.0050000000000001</v>
-      </c>
-      <c r="X19" s="21">
+        <v>0.4425</v>
+      </c>
+      <c r="X19" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,W19/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y19" s="166"/>
     </row>
@@ -14158,7 +14132,7 @@
       </c>
       <c r="F20" s="191" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S9Y_Quote#0000</v>
+        <v>SEKAB3S9Y_Quote#0001</v>
       </c>
       <c r="G20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -14185,18 +14159,18 @@
         <v>SEKAB3S9Y=ICAP</v>
       </c>
       <c r="P20" s="253">
-        <v>1.1399999999999999</v>
+        <v>0.54749999999999999</v>
       </c>
       <c r="Q20" s="253">
-        <v>1.19</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="R20" s="19">
         <f t="shared" si="2"/>
-        <v>1.165</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="S20" s="19">
         <f t="shared" si="3"/>
-        <v>5.0000000000000266E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T20" s="87"/>
       <c r="U20" s="89">
@@ -14204,11 +14178,11 @@
       </c>
       <c r="V20" s="87"/>
       <c r="W20" s="19">
-        <v>1.165</v>
-      </c>
-      <c r="X20" s="21">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="X20" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y20" s="166"/>
     </row>
@@ -14229,7 +14203,7 @@
       </c>
       <c r="F21" s="191" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S10Y_Quote#0000</v>
+        <v>SEKAB3S10Y_Quote#0001</v>
       </c>
       <c r="G21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -14256,18 +14230,18 @@
         <v>SEKAB3S10Y=ICAP</v>
       </c>
       <c r="P21" s="253">
-        <v>1.28</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="Q21" s="253">
-        <v>1.33</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="R21" s="19">
         <f t="shared" si="2"/>
-        <v>1.3050000000000002</v>
+        <v>0.6875</v>
       </c>
       <c r="S21" s="19">
         <f t="shared" si="3"/>
-        <v>5.0000000000000266E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T21" s="87"/>
       <c r="U21" s="89">
@@ -14275,11 +14249,11 @@
       </c>
       <c r="V21" s="87"/>
       <c r="W21" s="19">
-        <v>1.3050000000000002</v>
-      </c>
-      <c r="X21" s="21">
+        <v>0.6875</v>
+      </c>
+      <c r="X21" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F21,W21/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y21" s="166"/>
     </row>
@@ -14300,7 +14274,7 @@
       </c>
       <c r="F22" s="191" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S12Y_Quote#0000</v>
+        <v>SEKAB3S12Y_Quote#0001</v>
       </c>
       <c r="G22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -14327,14 +14301,14 @@
         <v>SEKAB3S12Y=ICAP</v>
       </c>
       <c r="P22" s="253">
-        <v>1.5075000000000001</v>
+        <v>0.85250000000000004</v>
       </c>
       <c r="Q22" s="253">
-        <v>1.5674999999999999</v>
+        <v>0.91250000000000009</v>
       </c>
       <c r="R22" s="19">
         <f t="shared" si="2"/>
-        <v>1.5375000000000001</v>
+        <v>0.88250000000000006</v>
       </c>
       <c r="S22" s="19">
         <f t="shared" si="3"/>
@@ -14346,11 +14320,11 @@
       </c>
       <c r="V22" s="87"/>
       <c r="W22" s="19">
-        <v>1.5375000000000001</v>
-      </c>
-      <c r="X22" s="21">
+        <v>0.88250000000000006</v>
+      </c>
+      <c r="X22" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y22" s="166"/>
     </row>
@@ -14371,7 +14345,7 @@
       </c>
       <c r="F23" s="191" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S15Y_Quote#0000</v>
+        <v>SEKAB3S15Y_Quote#0001</v>
       </c>
       <c r="G23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -14398,14 +14372,14 @@
         <v>SEKAB3S15Y=ICAP</v>
       </c>
       <c r="P23" s="253">
-        <v>1.7650000000000001</v>
+        <v>1.0775000000000001</v>
       </c>
       <c r="Q23" s="253">
-        <v>1.825</v>
+        <v>1.1375</v>
       </c>
       <c r="R23" s="19">
         <f t="shared" si="2"/>
-        <v>1.7949999999999999</v>
+        <v>1.1074999999999999</v>
       </c>
       <c r="S23" s="19">
         <f t="shared" si="3"/>
@@ -14417,11 +14391,11 @@
       </c>
       <c r="V23" s="87"/>
       <c r="W23" s="19">
-        <v>1.7949999999999999</v>
-      </c>
-      <c r="X23" s="21">
+        <v>1.1074999999999999</v>
+      </c>
+      <c r="X23" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y23" s="166"/>
     </row>
@@ -14442,7 +14416,7 @@
       </c>
       <c r="F24" s="191" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S20Y_Quote#0000</v>
+        <v>SEKAB3S20Y_Quote#0001</v>
       </c>
       <c r="G24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -14469,14 +14443,14 @@
         <v>SEKAB3S20Y=ICAP</v>
       </c>
       <c r="P24" s="253">
-        <v>2.0299999999999998</v>
+        <v>1.2975000000000001</v>
       </c>
       <c r="Q24" s="253">
-        <v>2.11</v>
+        <v>1.3775000000000002</v>
       </c>
       <c r="R24" s="19">
         <f t="shared" si="2"/>
-        <v>2.0699999999999998</v>
+        <v>1.3375000000000001</v>
       </c>
       <c r="S24" s="19">
         <f t="shared" si="3"/>
@@ -14488,11 +14462,11 @@
       </c>
       <c r="V24" s="87"/>
       <c r="W24" s="19">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="X24" s="21">
+        <v>1.3375000000000001</v>
+      </c>
+      <c r="X24" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F24,W24/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y24" s="166"/>
     </row>
@@ -14513,7 +14487,7 @@
       </c>
       <c r="F25" s="191" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S25Y_Quote#0000</v>
+        <v>SEKAB3S25Y_Quote#0001</v>
       </c>
       <c r="G25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -14540,14 +14514,14 @@
         <v>SEKAB3S25Y=ICAP</v>
       </c>
       <c r="P25" s="253">
-        <v>2.1549999999999998</v>
+        <v>1.4125000000000001</v>
       </c>
       <c r="Q25" s="253">
-        <v>2.2349999999999999</v>
+        <v>1.4925000000000002</v>
       </c>
       <c r="R25" s="19">
         <f t="shared" si="2"/>
-        <v>2.1949999999999998</v>
+        <v>1.4525000000000001</v>
       </c>
       <c r="S25" s="19">
         <f t="shared" si="3"/>
@@ -14559,11 +14533,11 @@
       </c>
       <c r="V25" s="87"/>
       <c r="W25" s="19">
-        <v>2.1949999999999998</v>
-      </c>
-      <c r="X25" s="21">
+        <v>1.4525000000000001</v>
+      </c>
+      <c r="X25" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,W25/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y25" s="166"/>
     </row>
@@ -14584,7 +14558,7 @@
       </c>
       <c r="F26" s="191" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S27Y_Quote#0000</v>
+        <v>SEKAB3S27Y_Quote#0001</v>
       </c>
       <c r="G26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -14655,7 +14629,7 @@
       </c>
       <c r="F27" s="191" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S30Y_Quote#0000</v>
+        <v>SEKAB3S30Y_Quote#0001</v>
       </c>
       <c r="G27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -14682,18 +14656,18 @@
         <v>SEKAB3S30Y=ICAP</v>
       </c>
       <c r="P27" s="253">
-        <v>2.1749999999999998</v>
+        <v>1.4475</v>
       </c>
       <c r="Q27" s="253">
-        <v>2.2749999999999999</v>
+        <v>1.5475000000000001</v>
       </c>
       <c r="R27" s="19">
         <f t="shared" si="2"/>
-        <v>2.2249999999999996</v>
+        <v>1.4975000000000001</v>
       </c>
       <c r="S27" s="19">
         <f t="shared" si="3"/>
-        <v>9.9999999999999645E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="T27" s="87"/>
       <c r="U27" s="89">
@@ -14701,11 +14675,11 @@
       </c>
       <c r="V27" s="87"/>
       <c r="W27" s="19">
-        <v>2.2249999999999996</v>
-      </c>
-      <c r="X27" s="21">
+        <v>1.4975000000000001</v>
+      </c>
+      <c r="X27" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F27,W27/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y27" s="166"/>
     </row>
@@ -14726,7 +14700,7 @@
       </c>
       <c r="F28" s="191" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S35Y_Quote#0000</v>
+        <v>SEKAB3S35Y_Quote#0001</v>
       </c>
       <c r="G28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -14797,7 +14771,7 @@
       </c>
       <c r="F29" s="191" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S40Y_Quote#0000</v>
+        <v>SEKAB3S40Y_Quote#0001</v>
       </c>
       <c r="G29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -14868,7 +14842,7 @@
       </c>
       <c r="F30" s="191" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S45Y_Quote#0000</v>
+        <v>SEKAB3S45Y_Quote#0001</v>
       </c>
       <c r="G30" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -14939,7 +14913,7 @@
       </c>
       <c r="F31" s="193" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKAB3S50Y_Quote#0000</v>
+        <v>SEKAB3S50Y_Quote#0001</v>
       </c>
       <c r="G31" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -15153,7 +15127,7 @@
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -15242,7 +15216,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="220">
         <f>_xll.ohTrigger(X5:X29)</f>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="164"/>
     </row>
@@ -15294,7 +15268,7 @@
       <c r="N4" s="215"/>
       <c r="O4" s="61" t="str">
         <f>_xll.RData(O5:O29,P4:Q4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 12:42:49</v>
+        <v>Updated at 10:54:52</v>
       </c>
       <c r="P4" s="59" t="s">
         <v>71</v>
@@ -15338,7 +15312,7 @@
       </c>
       <c r="F5" s="191" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S6M_Quote#0000</v>
+        <v>SEK3S6S6M_Quote#0001</v>
       </c>
       <c r="G5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -15411,7 +15385,7 @@
       </c>
       <c r="F6" s="191" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S1Y_Quote#0000</v>
+        <v>SEK3S6S1Y_Quote#0001</v>
       </c>
       <c r="G6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -15438,14 +15412,14 @@
         <v>SEK3S6S1Y=ICAP</v>
       </c>
       <c r="P6" s="253">
-        <v>11.55</v>
+        <v>11.290000000000001</v>
       </c>
       <c r="Q6" s="253">
         <v>0</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" ref="R6:R29" si="2">IF($R$2,IF(ISNUMBER(P6),P6,#NUM!),IFERROR(AVERAGE(P6:Q6),#NUM!))</f>
-        <v>11.55</v>
+        <v>11.290000000000001</v>
       </c>
       <c r="S6" s="19">
         <f t="shared" ref="S6:S29" si="3">(R6-P6)*2</f>
@@ -15457,11 +15431,11 @@
       </c>
       <c r="V6" s="87"/>
       <c r="W6" s="19">
-        <v>11.55</v>
-      </c>
-      <c r="X6" s="21">
+        <v>11.290000000000001</v>
+      </c>
+      <c r="X6" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="166"/>
     </row>
@@ -15482,7 +15456,7 @@
       </c>
       <c r="F7" s="191" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S18M_Quote#0000</v>
+        <v>SEK3S6S18M_Quote#0001</v>
       </c>
       <c r="G7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -15553,7 +15527,7 @@
       </c>
       <c r="F8" s="191" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S2Y_Quote#0000</v>
+        <v>SEK3S6S2Y_Quote#0001</v>
       </c>
       <c r="G8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -15580,14 +15554,14 @@
         <v>SEK3S6S2Y=ICAP</v>
       </c>
       <c r="P8" s="253">
-        <v>10.77</v>
+        <v>10.64</v>
       </c>
       <c r="Q8" s="253">
         <v>0</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="2"/>
-        <v>10.77</v>
+        <v>10.64</v>
       </c>
       <c r="S8" s="19">
         <f t="shared" si="3"/>
@@ -15599,11 +15573,11 @@
       </c>
       <c r="V8" s="87"/>
       <c r="W8" s="19">
-        <v>10.77</v>
-      </c>
-      <c r="X8" s="21">
+        <v>10.64</v>
+      </c>
+      <c r="X8" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,W8/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="166"/>
     </row>
@@ -15624,7 +15598,7 @@
       </c>
       <c r="F9" s="191" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S30M_Quote#0000</v>
+        <v>SEK3S6S30M_Quote#0001</v>
       </c>
       <c r="G9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -15695,7 +15669,7 @@
       </c>
       <c r="F10" s="191" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S3Y_Quote#0000</v>
+        <v>SEK3S6S3Y_Quote#0001</v>
       </c>
       <c r="G10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -15722,14 +15696,14 @@
         <v>SEK3S6S3Y=ICAP</v>
       </c>
       <c r="P10" s="253">
-        <v>10.49</v>
+        <v>10.41</v>
       </c>
       <c r="Q10" s="253">
         <v>0</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="2"/>
-        <v>10.49</v>
+        <v>10.41</v>
       </c>
       <c r="S10" s="19">
         <f t="shared" si="3"/>
@@ -15741,11 +15715,11 @@
       </c>
       <c r="V10" s="87"/>
       <c r="W10" s="19">
-        <v>10.49</v>
-      </c>
-      <c r="X10" s="21">
+        <v>10.41</v>
+      </c>
+      <c r="X10" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="166"/>
     </row>
@@ -15766,7 +15740,7 @@
       </c>
       <c r="F11" s="191" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S42M_Quote#0000</v>
+        <v>SEK3S6S42M_Quote#0001</v>
       </c>
       <c r="G11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -15837,7 +15811,7 @@
       </c>
       <c r="F12" s="191" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S4Y_Quote#0000</v>
+        <v>SEK3S6S4Y_Quote#0001</v>
       </c>
       <c r="G12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -15864,14 +15838,14 @@
         <v>SEK3S6S4Y=ICAP</v>
       </c>
       <c r="P12" s="253">
-        <v>10.33</v>
+        <v>10.290000000000001</v>
       </c>
       <c r="Q12" s="253">
         <v>0</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="2"/>
-        <v>10.33</v>
+        <v>10.290000000000001</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="3"/>
@@ -15883,11 +15857,11 @@
       </c>
       <c r="V12" s="87"/>
       <c r="W12" s="19">
-        <v>10.33</v>
-      </c>
-      <c r="X12" s="21">
+        <v>10.290000000000001</v>
+      </c>
+      <c r="X12" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="166"/>
     </row>
@@ -15908,7 +15882,7 @@
       </c>
       <c r="F13" s="191" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S54M_Quote#0000</v>
+        <v>SEK3S6S54M_Quote#0001</v>
       </c>
       <c r="G13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -15979,7 +15953,7 @@
       </c>
       <c r="F14" s="191" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S5Y_Quote#0000</v>
+        <v>SEK3S6S5Y_Quote#0001</v>
       </c>
       <c r="G14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -16006,14 +15980,14 @@
         <v>SEK3S6S5Y=ICAP</v>
       </c>
       <c r="P14" s="253">
-        <v>10.220000000000001</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="Q14" s="253">
         <v>0</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="2"/>
-        <v>10.220000000000001</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="S14" s="19">
         <f t="shared" si="3"/>
@@ -16025,11 +15999,11 @@
       </c>
       <c r="V14" s="87"/>
       <c r="W14" s="19">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="X14" s="21">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="X14" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y14" s="166"/>
     </row>
@@ -16050,7 +16024,7 @@
       </c>
       <c r="F15" s="191" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S6Y_Quote#0000</v>
+        <v>SEK3S6S6Y_Quote#0001</v>
       </c>
       <c r="G15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -16077,14 +16051,14 @@
         <v>SEK3S6S6Y=ICAP</v>
       </c>
       <c r="P15" s="253">
-        <v>10.119999999999999</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="Q15" s="253">
         <v>0</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="2"/>
-        <v>10.119999999999999</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="S15" s="19">
         <f t="shared" si="3"/>
@@ -16096,11 +16070,11 @@
       </c>
       <c r="V15" s="87"/>
       <c r="W15" s="19">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="X15" s="21">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="X15" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="166"/>
     </row>
@@ -16121,7 +16095,7 @@
       </c>
       <c r="F16" s="191" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S7Y_Quote#0000</v>
+        <v>SEK3S6S7Y_Quote#0001</v>
       </c>
       <c r="G16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -16148,14 +16122,14 @@
         <v>SEK3S6S7Y=ICAP</v>
       </c>
       <c r="P16" s="253">
-        <v>10.039999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="Q16" s="253">
         <v>0</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="2"/>
-        <v>10.039999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="S16" s="19">
         <f t="shared" si="3"/>
@@ -16167,11 +16141,11 @@
       </c>
       <c r="V16" s="87"/>
       <c r="W16" s="19">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="X16" s="21">
+        <v>10.06</v>
+      </c>
+      <c r="X16" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="166"/>
     </row>
@@ -16192,7 +16166,7 @@
       </c>
       <c r="F17" s="191" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S8Y_Quote#0000</v>
+        <v>SEK3S6S8Y_Quote#0001</v>
       </c>
       <c r="G17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -16219,14 +16193,14 @@
         <v>SEK3S6S8Y=ICAP</v>
       </c>
       <c r="P17" s="253">
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="253">
         <v>0</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="2"/>
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="S17" s="19">
         <f t="shared" si="3"/>
@@ -16238,11 +16212,11 @@
       </c>
       <c r="V17" s="87"/>
       <c r="W17" s="19">
-        <v>9.98</v>
-      </c>
-      <c r="X17" s="21">
+        <v>10</v>
+      </c>
+      <c r="X17" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y17" s="166"/>
     </row>
@@ -16263,7 +16237,7 @@
       </c>
       <c r="F18" s="191" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S9Y_Quote#0000</v>
+        <v>SEK3S6S9Y_Quote#0001</v>
       </c>
       <c r="G18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -16290,14 +16264,14 @@
         <v>SEK3S6S9Y=ICAP</v>
       </c>
       <c r="P18" s="253">
-        <v>9.91</v>
+        <v>9.9500000000000011</v>
       </c>
       <c r="Q18" s="253">
         <v>0</v>
       </c>
       <c r="R18" s="19">
         <f t="shared" si="2"/>
-        <v>9.91</v>
+        <v>9.9500000000000011</v>
       </c>
       <c r="S18" s="19">
         <f t="shared" si="3"/>
@@ -16309,11 +16283,11 @@
       </c>
       <c r="V18" s="87"/>
       <c r="W18" s="19">
-        <v>9.91</v>
-      </c>
-      <c r="X18" s="21">
+        <v>9.9500000000000011</v>
+      </c>
+      <c r="X18" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y18" s="166"/>
     </row>
@@ -16334,7 +16308,7 @@
       </c>
       <c r="F19" s="191" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S10Y_Quote#0000</v>
+        <v>SEK3S6S10Y_Quote#0001</v>
       </c>
       <c r="G19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -16361,14 +16335,14 @@
         <v>SEK3S6S10Y=ICAP</v>
       </c>
       <c r="P19" s="253">
-        <v>9.81</v>
+        <v>9.86</v>
       </c>
       <c r="Q19" s="253">
         <v>0</v>
       </c>
       <c r="R19" s="19">
         <f t="shared" si="2"/>
-        <v>9.81</v>
+        <v>9.86</v>
       </c>
       <c r="S19" s="19">
         <f t="shared" si="3"/>
@@ -16380,11 +16354,11 @@
       </c>
       <c r="V19" s="87"/>
       <c r="W19" s="19">
-        <v>9.81</v>
-      </c>
-      <c r="X19" s="21">
+        <v>9.86</v>
+      </c>
+      <c r="X19" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,W19/10000,Trigger)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>#N/A</v>
       </c>
       <c r="Y19" s="166"/>
     </row>
@@ -16405,7 +16379,7 @@
       </c>
       <c r="F20" s="191" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S12Y_Quote#0000</v>
+        <v>SEK3S6S12Y_Quote#0001</v>
       </c>
       <c r="G20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -16432,14 +16406,14 @@
         <v>SEK3S6S12Y=ICAP</v>
       </c>
       <c r="P20" s="253">
-        <v>9.49</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="Q20" s="253">
         <v>0</v>
       </c>
       <c r="R20" s="19">
         <f t="shared" si="2"/>
-        <v>9.49</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="S20" s="19">
         <f t="shared" si="3"/>
@@ -16451,11 +16425,11 @@
       </c>
       <c r="V20" s="87"/>
       <c r="W20" s="19">
-        <v>9.49</v>
-      </c>
-      <c r="X20" s="21">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="X20" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y20" s="166"/>
     </row>
@@ -16476,7 +16450,7 @@
       </c>
       <c r="F21" s="191" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S15Y_Quote#0000</v>
+        <v>SEK3S6S15Y_Quote#0001</v>
       </c>
       <c r="G21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -16503,14 +16477,14 @@
         <v>SEK3S6S15Y=ICAP</v>
       </c>
       <c r="P21" s="253">
-        <v>8.75</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="Q21" s="253">
         <v>0</v>
       </c>
       <c r="R21" s="19">
         <f t="shared" si="2"/>
-        <v>8.75</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="S21" s="19">
         <f t="shared" si="3"/>
@@ -16522,11 +16496,11 @@
       </c>
       <c r="V21" s="87"/>
       <c r="W21" s="19">
-        <v>8.75</v>
-      </c>
-      <c r="X21" s="21">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="X21" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F21,W21/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y21" s="166"/>
     </row>
@@ -16547,7 +16521,7 @@
       </c>
       <c r="F22" s="191" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S20Y_Quote#0000</v>
+        <v>SEK3S6S20Y_Quote#0001</v>
       </c>
       <c r="G22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -16574,14 +16548,14 @@
         <v>SEK3S6S20Y=ICAP</v>
       </c>
       <c r="P22" s="253">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="Q22" s="253">
         <v>0</v>
       </c>
       <c r="R22" s="19">
         <f t="shared" si="2"/>
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="S22" s="19">
         <f t="shared" si="3"/>
@@ -16593,11 +16567,11 @@
       </c>
       <c r="V22" s="87"/>
       <c r="W22" s="19">
-        <v>7.72</v>
-      </c>
-      <c r="X22" s="21">
+        <v>7.7</v>
+      </c>
+      <c r="X22" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y22" s="166"/>
     </row>
@@ -16618,7 +16592,7 @@
       </c>
       <c r="F23" s="191" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S25Y_Quote#0000</v>
+        <v>SEK3S6S25Y_Quote#0001</v>
       </c>
       <c r="G23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -16645,14 +16619,14 @@
         <v>SEK3S6S25Y=ICAP</v>
       </c>
       <c r="P23" s="253">
-        <v>7</v>
+        <v>6.93</v>
       </c>
       <c r="Q23" s="253">
         <v>0</v>
       </c>
       <c r="R23" s="19">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6.93</v>
       </c>
       <c r="S23" s="19">
         <f t="shared" si="3"/>
@@ -16664,11 +16638,11 @@
       </c>
       <c r="V23" s="87"/>
       <c r="W23" s="19">
-        <v>7</v>
-      </c>
-      <c r="X23" s="21">
+        <v>6.93</v>
+      </c>
+      <c r="X23" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
-        <v>-1.0000000000000243E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="Y23" s="166"/>
     </row>
@@ -16689,7 +16663,7 @@
       </c>
       <c r="F24" s="191" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S27Y_Quote#0000</v>
+        <v>SEK3S6S27Y_Quote#0001</v>
       </c>
       <c r="G24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -16760,7 +16734,7 @@
       </c>
       <c r="F25" s="191" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S30Y_Quote#0000</v>
+        <v>SEK3S6S30Y_Quote#0001</v>
       </c>
       <c r="G25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -16787,14 +16761,14 @@
         <v>SEK3S6S30Y=ICAP</v>
       </c>
       <c r="P25" s="253">
-        <v>6.46</v>
+        <v>6.32</v>
       </c>
       <c r="Q25" s="253">
         <v>0</v>
       </c>
       <c r="R25" s="19">
         <f t="shared" si="2"/>
-        <v>6.46</v>
+        <v>6.32</v>
       </c>
       <c r="S25" s="19">
         <f t="shared" si="3"/>
@@ -16806,11 +16780,11 @@
       </c>
       <c r="V25" s="87"/>
       <c r="W25" s="19">
-        <v>6.46</v>
-      </c>
-      <c r="X25" s="21">
+        <v>6.32</v>
+      </c>
+      <c r="X25" s="21" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,W25/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y25" s="166"/>
     </row>
@@ -16831,7 +16805,7 @@
       </c>
       <c r="F26" s="191" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S35Y_Quote#0000</v>
+        <v>SEK3S6S35Y_Quote#0001</v>
       </c>
       <c r="G26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -16902,7 +16876,7 @@
       </c>
       <c r="F27" s="191" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S40Y_Quote#0000</v>
+        <v>SEK3S6S40Y_Quote#0001</v>
       </c>
       <c r="G27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -16973,7 +16947,7 @@
       </c>
       <c r="F28" s="191" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S45Y_Quote#0000</v>
+        <v>SEK3S6S45Y_Quote#0001</v>
       </c>
       <c r="G28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -17044,7 +17018,7 @@
       </c>
       <c r="F29" s="193" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,TRUE)</f>
-        <v>SEK3S6S50Y_Quote#0000</v>
+        <v>SEK3S6S50Y_Quote#0001</v>
       </c>
       <c r="G29" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
